--- a/fuentes/contenidos/grado06/guion04/Escaleta CN_06_04_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion04/Escaleta CN_06_04_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Dropbox\Editorial planeta\1. Autor\Escaletas\CN_06_04_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado06\guion04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1140,34 +1140,17 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1209,7 +1192,24 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1515,11 +1515,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,96 +1547,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="L1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="47" t="s">
+      <c r="N1" s="62"/>
+      <c r="O1" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="53" t="s">
+      <c r="R1" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="S1" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="T1" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="U1" s="65" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="23" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="62"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="57"/>
       <c r="M2" s="24" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="50"/>
-    </row>
-    <row r="3" spans="1:21" ht="32.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="66"/>
+    </row>
+    <row r="3" spans="1:21" ht="32.25" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>17</v>
       </c>
@@ -1694,7 +1695,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1753,7 +1754,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1788,7 +1789,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="10"/>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1849,7 +1850,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1910,7 +1911,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1971,7 +1972,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -2013,7 +2014,7 @@
         <v>32</v>
       </c>
       <c r="O9" s="9"/>
-      <c r="P9" s="70" t="s">
+      <c r="P9" s="47" t="s">
         <v>20</v>
       </c>
       <c r="Q9" s="10">
@@ -2032,7 +2033,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -2091,7 +2092,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -2148,7 +2149,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -2209,7 +2210,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -2244,7 +2245,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="10"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -2366,7 +2367,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -2425,7 +2426,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
@@ -2482,7 +2483,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -2539,7 +2540,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -2596,7 +2597,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -2655,7 +2656,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
@@ -2714,7 +2715,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
@@ -2747,7 +2748,7 @@
       <c r="T22" s="12"/>
       <c r="U22" s="10"/>
     </row>
-    <row r="23" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -2787,7 +2788,7 @@
         <v>32</v>
       </c>
       <c r="O23" s="9"/>
-      <c r="P23" s="70" t="s">
+      <c r="P23" s="47" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="10">
@@ -2806,7 +2807,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="45.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>17</v>
       </c>
@@ -2865,7 +2866,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>17</v>
       </c>
@@ -2924,7 +2925,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>17</v>
       </c>
@@ -2983,7 +2984,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
@@ -3160,7 +3161,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
@@ -3390,7 +3391,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>17</v>
       </c>
@@ -3435,7 +3436,7 @@
       <c r="T34" s="12"/>
       <c r="U34" s="10"/>
     </row>
-    <row r="35" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>17</v>
       </c>
@@ -3492,7 +3493,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>17</v>
       </c>
@@ -4517,8 +4518,20 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:U36"/>
+  <autoFilter ref="A2:U36">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="SI"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4533,12 +4546,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4626,7 +4633,7 @@
       </c>
       <c r="E3" s="43"/>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>178</v>
       </c>

--- a/fuentes/contenidos/grado06/guion04/Escaleta CN_06_04_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion04/Escaleta CN_06_04_CO.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado06\guion04\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
@@ -19,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Escaleta!$A$2:$U$36</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="261">
   <si>
     <t>Asignatura</t>
   </si>
@@ -715,9 +710,6 @@
   </si>
   <si>
     <t>Actividad que propone realizar el procedimiento de diferenciar entre las estrategias de nutrición que utilizan los seres vivos</t>
-  </si>
-  <si>
-    <t>m102b</t>
   </si>
   <si>
     <t>1º ESO</t>
@@ -1141,16 +1133,34 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1190,24 +1200,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1271,7 +1263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1306,7 +1298,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1515,12 +1507,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,9 +1528,9 @@
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="25.7109375" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.85546875" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="25.85546875" bestFit="1" customWidth="1"/>
@@ -1547,96 +1538,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="62"/>
-      <c r="O1" s="50" t="s">
+      <c r="N1" s="68"/>
+      <c r="O1" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="50" t="s">
+      <c r="P1" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="65" t="s">
+      <c r="Q1" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="69" t="s">
+      <c r="R1" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="67" t="s">
+      <c r="T1" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="50" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="23" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="57"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="63"/>
       <c r="M2" s="24" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="66"/>
-    </row>
-    <row r="3" spans="1:21" ht="32.25" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="51"/>
+    </row>
+    <row r="3" spans="1:21" ht="32.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>17</v>
       </c>
@@ -1695,7 +1686,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1754,7 +1745,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1789,7 +1780,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="10"/>
     </row>
-    <row r="6" spans="1:21" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1850,7 +1841,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1911,7 +1902,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1972,7 +1963,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -2033,7 +2024,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -2092,7 +2083,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -2149,7 +2140,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -2210,7 +2201,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -2245,7 +2236,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="10"/>
     </row>
-    <row r="14" spans="1:21" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -2306,7 +2297,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -2367,7 +2358,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -2426,7 +2417,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
@@ -2483,7 +2474,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -2540,7 +2531,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -2597,7 +2588,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -2656,7 +2647,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
@@ -2715,7 +2706,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
@@ -2748,7 +2739,7 @@
       <c r="T22" s="12"/>
       <c r="U22" s="10"/>
     </row>
-    <row r="23" spans="1:21" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -2807,7 +2798,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="45.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>17</v>
       </c>
@@ -2866,7 +2857,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>17</v>
       </c>
@@ -2925,7 +2916,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>17</v>
       </c>
@@ -2961,9 +2952,7 @@
         <v>8</v>
       </c>
       <c r="M26" s="8"/>
-      <c r="N26" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="N26" s="8"/>
       <c r="O26" s="9"/>
       <c r="P26" s="9" t="s">
         <v>19</v>
@@ -2984,7 +2973,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
@@ -3078,9 +3067,7 @@
       <c r="L28" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M28" s="8" t="s">
-        <v>62</v>
-      </c>
+      <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9" t="s">
@@ -3138,9 +3125,7 @@
         <v>8</v>
       </c>
       <c r="M29" s="8"/>
-      <c r="N29" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="N29" s="8"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9" t="s">
         <v>19</v>
@@ -3161,7 +3146,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
@@ -3254,27 +3239,25 @@
         <v>8</v>
       </c>
       <c r="M31" s="8"/>
-      <c r="N31" s="8" t="s">
-        <v>230</v>
-      </c>
+      <c r="N31" s="8"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q31" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R31" s="11" t="s">
         <v>211</v>
       </c>
       <c r="S31" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T31" s="12" t="s">
         <v>228</v>
       </c>
       <c r="U31" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -3293,7 +3276,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="9"/>
       <c r="G32" s="35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H32" s="28">
         <v>27</v>
@@ -3302,7 +3285,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>19</v>
@@ -3311,9 +3294,7 @@
         <v>8</v>
       </c>
       <c r="M32" s="8"/>
-      <c r="N32" s="8" t="s">
-        <v>230</v>
-      </c>
+      <c r="N32" s="8"/>
       <c r="O32" s="9"/>
       <c r="P32" s="9" t="s">
         <v>19</v>
@@ -3328,7 +3309,7 @@
         <v>212</v>
       </c>
       <c r="T32" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="U32" s="10" t="s">
         <v>213</v>
@@ -3350,7 +3331,7 @@
       <c r="E33" s="13"/>
       <c r="F33" s="9"/>
       <c r="G33" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H33" s="28">
         <v>28</v>
@@ -3359,7 +3340,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>19</v>
@@ -3368,9 +3349,7 @@
         <v>8</v>
       </c>
       <c r="M33" s="8"/>
-      <c r="N33" s="8" t="s">
-        <v>230</v>
-      </c>
+      <c r="N33" s="8"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9" t="s">
         <v>19</v>
@@ -3385,13 +3364,13 @@
         <v>220</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U33" s="10" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>17</v>
       </c>
@@ -3402,12 +3381,12 @@
         <v>123</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="9"/>
       <c r="G34" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H34" s="28">
         <v>29</v>
@@ -3416,7 +3395,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>20</v>
@@ -3436,7 +3415,7 @@
       <c r="T34" s="12"/>
       <c r="U34" s="10"/>
     </row>
-    <row r="35" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>17</v>
       </c>
@@ -3447,12 +3426,12 @@
         <v>123</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="9"/>
       <c r="G35" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H35" s="28">
         <v>30</v>
@@ -3461,7 +3440,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>20</v>
@@ -3487,13 +3466,13 @@
         <v>134</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U35" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>17</v>
       </c>
@@ -3504,21 +3483,21 @@
         <v>123</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="9"/>
       <c r="G36" s="35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H36" s="28">
         <v>31</v>
       </c>
       <c r="I36" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="J36" s="36" t="s">
         <v>245</v>
-      </c>
-      <c r="J36" s="36" t="s">
-        <v>246</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>20</v>
@@ -3544,7 +3523,7 @@
         <v>134</v>
       </c>
       <c r="T36" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U36" s="10" t="s">
         <v>136</v>
@@ -4518,20 +4497,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:U36">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="SI"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4546,6 +4512,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4607,19 +4579,19 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="C2" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="D2" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="E2" s="38" t="s">
         <v>251</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4629,7 +4601,7 @@
       <c r="B3" s="40"/>
       <c r="C3" s="41"/>
       <c r="D3" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E3" s="43"/>
     </row>
@@ -4642,7 +4614,7 @@
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E4" s="43"/>
     </row>
@@ -4655,7 +4627,7 @@
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E5" s="43"/>
     </row>
@@ -4668,7 +4640,7 @@
       </c>
       <c r="C6" s="41"/>
       <c r="D6" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E6" s="43"/>
     </row>
@@ -4681,40 +4653,40 @@
       </c>
       <c r="C7" s="41"/>
       <c r="D7" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
       <c r="D8" s="45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
       <c r="D9" s="45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
       <c r="D10" s="45" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E10" s="46"/>
     </row>

--- a/fuentes/contenidos/grado06/guion04/Escaleta CN_06_04_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion04/Escaleta CN_06_04_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Dropbox\Editorial planeta\1. Autor\Escaletas\CN_06_04_CO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
@@ -12,14 +17,14 @@
     <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Escaleta!$A$2:$U$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Escaleta!$A$2:$U$38</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="270">
   <si>
     <t>Asignatura</t>
   </si>
@@ -391,21 +396,9 @@
     <t>CN_06_04_CO</t>
   </si>
   <si>
-    <t>Nutrición de los seres vivos</t>
-  </si>
-  <si>
-    <t>Concepto de nutrición</t>
-  </si>
-  <si>
-    <t>Proceso general de la nutrición</t>
-  </si>
-  <si>
     <t>La nutrición</t>
   </si>
   <si>
-    <t>Secuencia de imágenes para explicar a los estudiantes los sistemas de los animales asociados a la nutrición</t>
-  </si>
-  <si>
     <t>RM</t>
   </si>
   <si>
@@ -418,42 +411,12 @@
     <t>RM_01_02_CO</t>
   </si>
   <si>
-    <t>El sistema digestivo</t>
-  </si>
-  <si>
-    <t>Actividad que permite afianzar los conocimientos sobre el sistema digestivo</t>
-  </si>
-  <si>
     <t>Recursos M</t>
   </si>
   <si>
-    <t>Recurso M5B-01</t>
-  </si>
-  <si>
     <t>RM_01_01_CO</t>
   </si>
   <si>
-    <t>Tipos de nutrición</t>
-  </si>
-  <si>
-    <t>Nutrición autótrofa</t>
-  </si>
-  <si>
-    <t>Nutrición heterótrofa</t>
-  </si>
-  <si>
-    <t>La nutrición en los seres vivos</t>
-  </si>
-  <si>
-    <t>Secuencia de imágenes para explicar a los estudiantes el proceso de nutrición de los seres vivos</t>
-  </si>
-  <si>
-    <t>Diaporama F1-02</t>
-  </si>
-  <si>
-    <t>Conceptos de la nutrición</t>
-  </si>
-  <si>
     <t>Actividad de crucigrama que permite reforzar algunos conceptos relacionados con el proceso de nutrición de los seres vivos</t>
   </si>
   <si>
@@ -463,12 +426,6 @@
     <t>La cadena trófica</t>
   </si>
   <si>
-    <t>Actividad para reforzar los conocimientos acerca de la cadena trófica</t>
-  </si>
-  <si>
-    <t>Recurso M1C-01</t>
-  </si>
-  <si>
     <t>Los tipos de nutrición</t>
   </si>
   <si>
@@ -481,12 +438,6 @@
     <t>Consolidación</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Concepto de nutrición</t>
-  </si>
-  <si>
-    <t>Actividad que permite recoger los conceptos acerca de la nutrición</t>
-  </si>
-  <si>
     <t>Recurso M101A-01</t>
   </si>
   <si>
@@ -496,30 +447,18 @@
     <t>¿Dónde se encuentran los bioelementos?</t>
   </si>
   <si>
-    <t>Interactivo para explicar a los estudiantes de donde capturan los nutrientes los seres vivos</t>
-  </si>
-  <si>
     <t>RF</t>
   </si>
   <si>
     <t>Recursos F</t>
   </si>
   <si>
-    <t>Recurso F6-01</t>
-  </si>
-  <si>
     <t>RF_01_01_CO</t>
   </si>
   <si>
-    <t>Bioelementos primarios, secundarios y oligoelementos</t>
-  </si>
-  <si>
     <t>Los bioelementos primarios</t>
   </si>
   <si>
-    <t>Actividad que permite identificar los biolementos primarios y sus funciones</t>
-  </si>
-  <si>
     <t>Recurso M2C-01</t>
   </si>
   <si>
@@ -541,36 +480,18 @@
     <t>Funciones de los bioelementos</t>
   </si>
   <si>
-    <t>Actividad que permite identificar algunas funciones de los bioelementos</t>
-  </si>
-  <si>
-    <t>Recurso M3A-01</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: Los bioelementos</t>
   </si>
   <si>
-    <t>Actividad que permite identificar y clasificar los bioelementos</t>
-  </si>
-  <si>
     <t>Recurso M101A-02</t>
   </si>
   <si>
     <t>La nutrición de microorganismos</t>
   </si>
   <si>
-    <t>Mecanismos de transporte celular</t>
-  </si>
-  <si>
     <t>Interactivo que explica los procesos de transporte celular, difusión y transporte activo</t>
   </si>
   <si>
-    <t>Recurso F12-01</t>
-  </si>
-  <si>
-    <t>Mecanismos de nutrición en microorganismos</t>
-  </si>
-  <si>
     <t>Actividad de sopa de letras que permite identificar los conceptos y mecanismos de nutrición de los microorganismos</t>
   </si>
   <si>
@@ -601,33 +522,18 @@
     <t>La nutrición de los protistos</t>
   </si>
   <si>
-    <t>Nutrición en protistos</t>
-  </si>
-  <si>
     <t>Actividad para repasar el proceso de nutrición de los protistos</t>
   </si>
   <si>
-    <t>Recurso M2B-02</t>
-  </si>
-  <si>
     <t>La nutrición de los hongos</t>
   </si>
   <si>
-    <t>La nutrición de los microorganismos</t>
-  </si>
-  <si>
     <t>Actividad de preguntas que permite afianzar los conocimientos aprendidos acerca de la nutrición de los microorganismos</t>
   </si>
   <si>
     <t>Recurso M4A-02</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: La nutrición de microorganismos</t>
-  </si>
-  <si>
-    <t>Actividad que permite recoger los conceptos y procesos más importantes que corresponden a la nutrición en los microorganismos</t>
-  </si>
-  <si>
     <t>Recurso M101A-03</t>
   </si>
   <si>
@@ -640,12 +546,6 @@
     <t>La Fotosíntesis</t>
   </si>
   <si>
-    <t>Video explicativo que muestra los principales procesos y estructuras relacionadas con la fotosíntesis</t>
-  </si>
-  <si>
-    <t>Recurso F12-02</t>
-  </si>
-  <si>
     <t>Ordena las etapas de la nutrición de las plantas</t>
   </si>
   <si>
@@ -664,9 +564,6 @@
     <t>CN_08_03</t>
   </si>
   <si>
-    <t>La nutrición en las plantas</t>
-  </si>
-  <si>
     <t>Actividad del juego del ahorcado para repasar los conceptos sobre el proceso de nutrición de las plantas</t>
   </si>
   <si>
@@ -694,9 +591,6 @@
     <t xml:space="preserve">Actividad de relacionar procesos asociados a la nutrición </t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: La nutrición en plantas y animales</t>
-  </si>
-  <si>
     <t>Actividad que permite reforzar los conocimientos acerca del proceso de la nutrición en plantas y animales</t>
   </si>
   <si>
@@ -712,6 +606,9 @@
     <t>Actividad que propone realizar el procedimiento de diferenciar entre las estrategias de nutrición que utilizan los seres vivos</t>
   </si>
   <si>
+    <t>m102b</t>
+  </si>
+  <si>
     <t>1º ESO</t>
   </si>
   <si>
@@ -757,9 +654,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>Motor que incluye preguntas de respuesta abierta del tema  Nutrición de los seres vivos</t>
-  </si>
-  <si>
     <t>Recurso M101AP-01</t>
   </si>
   <si>
@@ -803,13 +697,151 @@
   </si>
   <si>
     <t xml:space="preserve">http://diarium.usal.es/gonzalopanzas/pagina-ejemplo/ </t>
+  </si>
+  <si>
+    <t>El concepto de nutrición</t>
+  </si>
+  <si>
+    <t>El proceso general de la nutrición</t>
+  </si>
+  <si>
+    <t>La nutrición autótrofa</t>
+  </si>
+  <si>
+    <t>La nutrición heterótrofa</t>
+  </si>
+  <si>
+    <t>Los bioelementos primarios, secundarios y oligoelementos</t>
+  </si>
+  <si>
+    <t>La nutrición en los microorganismos</t>
+  </si>
+  <si>
+    <t>La nutrición en las plantas y los animales</t>
+  </si>
+  <si>
+    <t>Banco de actividades del tema La nutrición en los seres vivos</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: El concepto de nutrición</t>
+  </si>
+  <si>
+    <t>Actividad que permite afianzar los conocimientos sobre los sistemas relacionados con la nutrición</t>
+  </si>
+  <si>
+    <t>Los sistemas relacionados con la nutrición</t>
+  </si>
+  <si>
+    <t>Secuencia de imágenes para explicar los procesos asociados a la nutrición</t>
+  </si>
+  <si>
+    <t>Las características de la nutrición</t>
+  </si>
+  <si>
+    <t>Recurso F4-01</t>
+  </si>
+  <si>
+    <t>Interactivo que permite diferenciar los tipos de nutrición en los seres vivos</t>
+  </si>
+  <si>
+    <t>La nutrición autótrofa y heterótrofa</t>
+  </si>
+  <si>
+    <t>Recurso M5A-01</t>
+  </si>
+  <si>
+    <t>Recurso M9B-01</t>
+  </si>
+  <si>
+    <t>Actividad acerca del concepto de la nutrición</t>
+  </si>
+  <si>
+    <t>Actividad para reforzar los conocimientos sobre la cadena trófica</t>
+  </si>
+  <si>
+    <t>F6B</t>
+  </si>
+  <si>
+    <t>Recurso F6B-01</t>
+  </si>
+  <si>
+    <t>Interactivo que permite explicar donde capturan los bioelementos los seres vivos</t>
+  </si>
+  <si>
+    <t>Actividad que permite identificar los bioelementos primarios y sus funciones en los seres vivos</t>
+  </si>
+  <si>
+    <t>Recurso M1B-02</t>
+  </si>
+  <si>
+    <t>Juego del ahorcado que permite identificar algunas funciones de los bioelementos en los seres vivos</t>
+  </si>
+  <si>
+    <t>Actividad sobre los bioelementos</t>
+  </si>
+  <si>
+    <t>Los mecanismos de transporte celular</t>
+  </si>
+  <si>
+    <t>Recurso F8-01</t>
+  </si>
+  <si>
+    <t>Los mecanismos de nutrición en microorganismos</t>
+  </si>
+  <si>
+    <t>La nutrición en protistos</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La nutrición en los microorganismos</t>
+  </si>
+  <si>
+    <t>¿Cómo se nutren los microorganismos?</t>
+  </si>
+  <si>
+    <t>Actividad sobre la nutrición en los microorganismos</t>
+  </si>
+  <si>
+    <t>La fotosíntesis</t>
+  </si>
+  <si>
+    <t>Animación que muestra cómo se lleva a cabo el proceso de fotosíntesis en el interior de las células de las plantas</t>
+  </si>
+  <si>
+    <t>Recurso M14A-02</t>
+  </si>
+  <si>
+    <t>¿Cómo se nutren las plantas?</t>
+  </si>
+  <si>
+    <t>La nutrición por filtración en los animales</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La nutrición en las plantas y los animales</t>
+  </si>
+  <si>
+    <t>Competencias: comprensión del desarrollo de la nutrición</t>
+  </si>
+  <si>
+    <t>Actividad que propone realizar el procedimiento de identificar los pasos que se llevan a cabo en la función de nutrición en los animales</t>
+  </si>
+  <si>
+    <t>Los aparatos bucales de los animales</t>
+  </si>
+  <si>
+    <t>Interactivo que permite identificar los aparatos bucales que les permite alimentarse a los animales</t>
+  </si>
+  <si>
+    <t>Recurso F7B-01</t>
+  </si>
+  <si>
+    <t>La nutrición de los seres vivos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -849,16 +881,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1022,9 +1062,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1047,41 +1087,12 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1089,20 +1100,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1110,57 +1112,36 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1201,6 +1182,116 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1263,7 +1354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1298,7 +1389,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1507,2085 +1598,2167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U121"/>
+  <dimension ref="A1:U123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="38.7109375" style="23" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" customWidth="1"/>
+    <col min="3" max="4" width="38.7109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="43" style="13" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="42.5703125" style="23" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="42.5703125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="16" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="61.7109375" style="23" customWidth="1"/>
+    <col min="10" max="10" width="61.7109375" style="13" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="25.7109375" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="40.140625" style="13" customWidth="1"/>
     <col min="21" max="21" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:21" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="64" t="s">
+      <c r="K1" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="M1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="68"/>
-      <c r="O1" s="48" t="s">
+      <c r="N1" s="45"/>
+      <c r="O1" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="P1" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="50" t="s">
+      <c r="Q1" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="54" t="s">
+      <c r="R1" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="S1" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="52" t="s">
+      <c r="T1" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="50" t="s">
+      <c r="U1" s="48" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="23" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="24" t="s">
+    <row r="2" spans="1:21" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="51"/>
-    </row>
-    <row r="3" spans="1:21" ht="32.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="49"/>
+    </row>
+    <row r="3" spans="1:21" s="70" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="58" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="E3" s="84" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" s="60"/>
+      <c r="G3" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="H3" s="61">
+        <v>1</v>
+      </c>
+      <c r="I3" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="63" t="s">
+        <v>235</v>
+      </c>
+      <c r="K3" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="68">
+        <v>6</v>
+      </c>
+      <c r="R3" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="S3" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="34" t="s">
+      <c r="T3" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="25">
-        <v>1</v>
-      </c>
-      <c r="I3" s="15" t="s">
+      <c r="U3" s="68" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" s="85" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="75"/>
+      <c r="G4" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="H4" s="76">
+        <v>2</v>
+      </c>
+      <c r="I4" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="78" t="s">
+        <v>233</v>
+      </c>
+      <c r="K4" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="K3" s="17" t="s">
+      <c r="Q4" s="82">
+        <v>6</v>
+      </c>
+      <c r="R4" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="S4" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="T4" s="88" t="s">
+        <v>240</v>
+      </c>
+      <c r="U4" s="82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5" s="54"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="82"/>
+    </row>
+    <row r="6" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="H6" s="76">
+        <v>3</v>
+      </c>
+      <c r="I6" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="78" t="s">
+        <v>238</v>
+      </c>
+      <c r="K6" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L6" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19" t="s">
+      <c r="M6" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="81"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="20">
+      <c r="Q6" s="82">
         <v>6</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R6" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="S6" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="T6" s="88" t="s">
+        <v>237</v>
+      </c>
+      <c r="U6" s="82" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="H7" s="76">
+        <v>4</v>
+      </c>
+      <c r="I7" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="82">
+        <v>6</v>
+      </c>
+      <c r="R7" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="S7" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="T7" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="U7" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="T3" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="U3" s="20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="8" spans="1:21" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B8" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="33" t="s">
+      <c r="C8" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="76">
+        <v>5</v>
+      </c>
+      <c r="I8" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="78" t="s">
+        <v>243</v>
+      </c>
+      <c r="K8" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="82">
+        <v>6</v>
+      </c>
+      <c r="R8" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4" s="28">
-        <v>2</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="S8" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="T8" s="88" t="s">
+        <v>241</v>
+      </c>
+      <c r="U8" s="82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="76">
+        <v>6</v>
+      </c>
+      <c r="I9" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="J9" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L9" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8" t="s">
+      <c r="M9" s="81"/>
+      <c r="N9" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="75"/>
+      <c r="P9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="82">
+        <v>6</v>
+      </c>
+      <c r="R9" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="S9" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="T9" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="U9" s="82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="75"/>
+      <c r="G10" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="H10" s="76">
+        <v>7</v>
+      </c>
+      <c r="I10" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="78" t="s">
+        <v>242</v>
+      </c>
+      <c r="K10" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="82">
+        <v>6</v>
+      </c>
+      <c r="R10" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="S10" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="T10" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="U10" s="82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="75"/>
+      <c r="G11" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="76">
+        <v>8</v>
+      </c>
+      <c r="I11" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="78" t="s">
+        <v>246</v>
+      </c>
+      <c r="K11" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="81" t="s">
+        <v>244</v>
+      </c>
+      <c r="N11" s="81"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="82">
+        <v>6</v>
+      </c>
+      <c r="R11" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="S11" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="T11" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="U11" s="82" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="H12" s="76">
+        <v>9</v>
+      </c>
+      <c r="I12" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="78" t="s">
+        <v>247</v>
+      </c>
+      <c r="K12" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="82">
+        <v>6</v>
+      </c>
+      <c r="R12" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="S12" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="T12" s="88" t="s">
+        <v>163</v>
+      </c>
+      <c r="U12" s="82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="54"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="88"/>
+      <c r="U13" s="82"/>
+    </row>
+    <row r="14" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="H14" s="76">
+        <v>10</v>
+      </c>
+      <c r="I14" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="82">
+        <v>6</v>
+      </c>
+      <c r="R14" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="S14" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="T14" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="U14" s="82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="F15" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" s="76">
+        <v>11</v>
+      </c>
+      <c r="I15" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="78" t="s">
+        <v>249</v>
+      </c>
+      <c r="K15" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81" t="s">
+        <v>119</v>
+      </c>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="82">
+        <v>6</v>
+      </c>
+      <c r="R15" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="S15" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="T15" s="88" t="s">
+        <v>180</v>
+      </c>
+      <c r="U15" s="82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D16" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="75"/>
+      <c r="G16" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="76">
+        <v>12</v>
+      </c>
+      <c r="I16" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="78" t="s">
+        <v>250</v>
+      </c>
+      <c r="K16" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="82">
+        <v>6</v>
+      </c>
+      <c r="R16" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="S16" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="T16" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="U16" s="82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" s="85"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="H17" s="76">
+        <v>13</v>
+      </c>
+      <c r="I17" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="N17" s="81"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="82">
+        <v>6</v>
+      </c>
+      <c r="R17" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="S17" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="T17" s="88" t="s">
+        <v>252</v>
+      </c>
+      <c r="U17" s="82" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D18" s="74" t="s">
+        <v>229</v>
+      </c>
+      <c r="E18" s="85"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="54" t="s">
+        <v>253</v>
+      </c>
+      <c r="H18" s="76">
+        <v>14</v>
+      </c>
+      <c r="I18" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="78" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="82">
+        <v>6</v>
+      </c>
+      <c r="R18" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="S18" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="T18" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="U18" s="82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" s="74" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" s="85"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" s="76">
+        <v>15</v>
+      </c>
+      <c r="I19" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="82">
+        <v>6</v>
+      </c>
+      <c r="R19" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="S19" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="T19" s="88" t="s">
+        <v>159</v>
+      </c>
+      <c r="U19" s="82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20" s="74" t="s">
+        <v>229</v>
+      </c>
+      <c r="E20" s="85" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="75"/>
+      <c r="G20" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="H20" s="76">
+        <v>16</v>
+      </c>
+      <c r="I20" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="K20" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="82">
+        <v>6</v>
+      </c>
+      <c r="R20" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="S20" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="T20" s="88" t="s">
+        <v>248</v>
+      </c>
+      <c r="U20" s="82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="74" t="s">
+        <v>229</v>
+      </c>
+      <c r="E21" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" s="75"/>
+      <c r="G21" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="H21" s="76">
+        <v>17</v>
+      </c>
+      <c r="I21" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="K21" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="82">
+        <v>6</v>
+      </c>
+      <c r="R21" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="S21" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="T21" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="U21" s="82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D22" s="74" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22" s="75"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="83"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="88"/>
+      <c r="U22" s="82"/>
+    </row>
+    <row r="23" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D23" s="74" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="75"/>
+      <c r="G23" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="H23" s="76">
+        <v>18</v>
+      </c>
+      <c r="I23" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="K23" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="82">
+        <v>6</v>
+      </c>
+      <c r="R23" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="S23" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="T23" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="U23" s="82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D24" s="74" t="s">
+        <v>229</v>
+      </c>
+      <c r="E24" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="75"/>
+      <c r="G24" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="H24" s="76">
+        <v>19</v>
+      </c>
+      <c r="I24" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="78" t="s">
+        <v>257</v>
+      </c>
+      <c r="K24" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="82">
+        <v>6</v>
+      </c>
+      <c r="R24" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="S24" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="T24" s="88" t="s">
+        <v>169</v>
+      </c>
+      <c r="U24" s="82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D25" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="E25" s="85" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="75"/>
+      <c r="G25" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="H25" s="76">
+        <v>20</v>
+      </c>
+      <c r="I25" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="78" t="s">
+        <v>259</v>
+      </c>
+      <c r="K25" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="M25" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="N25" s="81"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="R25" s="83" t="s">
+        <v>176</v>
+      </c>
+      <c r="S25" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="T25" s="88" t="s">
+        <v>258</v>
+      </c>
+      <c r="U25" s="82" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D26" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="E26" s="85" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" s="75"/>
+      <c r="G26" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="H26" s="76">
+        <v>21</v>
+      </c>
+      <c r="I26" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="K26" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="R26" s="83" t="s">
+        <v>176</v>
+      </c>
+      <c r="S26" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="T26" s="88" t="s">
+        <v>173</v>
+      </c>
+      <c r="U26" s="82" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D27" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="E27" s="85" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27" s="75"/>
+      <c r="G27" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="H27" s="76">
+        <v>22</v>
+      </c>
+      <c r="I27" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="78" t="s">
+        <v>179</v>
+      </c>
+      <c r="K27" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81" t="s">
+        <v>119</v>
+      </c>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="82">
+        <v>6</v>
+      </c>
+      <c r="R27" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="S27" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="T27" s="88" t="s">
+        <v>260</v>
+      </c>
+      <c r="U27" s="82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D28" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="E28" s="85" t="s">
+        <v>171</v>
+      </c>
+      <c r="F28" s="75"/>
+      <c r="G28" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H28" s="76">
+        <v>23</v>
+      </c>
+      <c r="I28" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="78" t="s">
+        <v>267</v>
+      </c>
+      <c r="K28" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="M28" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="N28" s="81"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="82">
+        <v>6</v>
+      </c>
+      <c r="R28" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="S28" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="T28" s="88" t="s">
+        <v>268</v>
+      </c>
+      <c r="U28" s="82" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D29" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="E29" s="85" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" s="75"/>
+      <c r="G29" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="H29" s="76">
+        <v>24</v>
+      </c>
+      <c r="I29" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="K29" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="N29" s="81"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="R29" s="83" t="s">
+        <v>176</v>
+      </c>
+      <c r="S29" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="T29" s="88" t="s">
+        <v>182</v>
+      </c>
+      <c r="U29" s="82" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D30" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="E30" s="85" t="s">
+        <v>181</v>
+      </c>
+      <c r="F30" s="75"/>
+      <c r="G30" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="H30" s="76">
+        <v>25</v>
+      </c>
+      <c r="I30" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="K30" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" s="81"/>
+      <c r="N30" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="O30" s="75"/>
+      <c r="P30" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q30" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="R30" s="83" t="s">
+        <v>176</v>
+      </c>
+      <c r="S30" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="T30" s="88" t="s">
+        <v>186</v>
+      </c>
+      <c r="U30" s="82" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D31" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="E31" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="75"/>
+      <c r="G31" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="H31" s="76">
+        <v>26</v>
+      </c>
+      <c r="I31" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="K31" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="O31" s="75"/>
+      <c r="P31" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q31" s="82">
+        <v>6</v>
+      </c>
+      <c r="R31" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="S31" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="T31" s="88" t="s">
+        <v>189</v>
+      </c>
+      <c r="U31" s="82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D32" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="E32" s="85"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="H32" s="76">
+        <v>27</v>
+      </c>
+      <c r="I32" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="K32" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81" t="s">
+        <v>193</v>
+      </c>
+      <c r="O32" s="75"/>
+      <c r="P32" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q32" s="82" t="s">
+        <v>194</v>
+      </c>
+      <c r="R32" s="83" t="s">
+        <v>176</v>
+      </c>
+      <c r="S32" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="T32" s="88" t="s">
+        <v>191</v>
+      </c>
+      <c r="U32" s="82" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D33" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33" s="85"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="H33" s="76">
+        <v>28</v>
+      </c>
+      <c r="I33" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="78" t="s">
+        <v>198</v>
+      </c>
+      <c r="K33" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="81"/>
+      <c r="N33" s="81" t="s">
+        <v>193</v>
+      </c>
+      <c r="O33" s="75"/>
+      <c r="P33" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q33" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="R33" s="83" t="s">
+        <v>176</v>
+      </c>
+      <c r="S33" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="T33" s="88" t="s">
+        <v>197</v>
+      </c>
+      <c r="U33" s="82" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D34" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" s="85"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="H34" s="76">
+        <v>29</v>
+      </c>
+      <c r="I34" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="78" t="s">
+        <v>200</v>
+      </c>
+      <c r="K34" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34" s="81"/>
+      <c r="N34" s="81" t="s">
+        <v>193</v>
+      </c>
+      <c r="O34" s="75"/>
+      <c r="P34" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q34" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="R34" s="83" t="s">
+        <v>176</v>
+      </c>
+      <c r="S34" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="T34" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="U34" s="82" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" s="70" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="71"/>
+      <c r="B35" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D35" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="85"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="H35" s="76">
+        <v>30</v>
+      </c>
+      <c r="I35" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K35" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81" t="s">
+        <v>193</v>
+      </c>
+      <c r="O35" s="75"/>
+      <c r="P35" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q35" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="R35" s="83" t="s">
+        <v>176</v>
+      </c>
+      <c r="S35" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="T35" s="88" t="s">
+        <v>264</v>
+      </c>
+      <c r="U35" s="82" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" s="74" t="s">
+        <v>201</v>
+      </c>
+      <c r="E36" s="85"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="H36" s="76">
+        <v>31</v>
+      </c>
+      <c r="I36" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="K36" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="M36" s="81"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="75"/>
+      <c r="P36" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q36" s="82"/>
+      <c r="R36" s="83"/>
+      <c r="S36" s="82"/>
+      <c r="T36" s="88"/>
+      <c r="U36" s="82"/>
+    </row>
+    <row r="37" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D37" s="74" t="s">
+        <v>201</v>
+      </c>
+      <c r="E37" s="85"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="H37" s="76">
+        <v>32</v>
+      </c>
+      <c r="I37" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="78" t="s">
+        <v>205</v>
+      </c>
+      <c r="K37" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M37" s="81"/>
+      <c r="N37" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="O37" s="75"/>
+      <c r="P37" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q37" s="82">
+        <v>6</v>
+      </c>
+      <c r="R37" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="S37" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="T37" s="88" t="s">
+        <v>206</v>
+      </c>
+      <c r="U37" s="82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D38" s="74" t="s">
+        <v>201</v>
+      </c>
+      <c r="E38" s="85"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="H38" s="76">
         <v>33</v>
       </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="10">
+      <c r="I38" s="77" t="s">
+        <v>208</v>
+      </c>
+      <c r="J38" s="78" t="s">
+        <v>231</v>
+      </c>
+      <c r="K38" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M38" s="81"/>
+      <c r="N38" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="O38" s="75"/>
+      <c r="P38" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="82">
         <v>6</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R38" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="S38" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="S4" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="10"/>
-    </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="H6" s="28">
-        <v>3</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>6</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="S6" s="10" t="s">
+      <c r="T38" s="88" t="s">
+        <v>209</v>
+      </c>
+      <c r="U38" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="T6" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="U6" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="28">
-        <v>4</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>6</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="U7" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="H8" s="28">
-        <v>5</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>6</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="S8" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="U8" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="H9" s="28">
-        <v>6</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>6</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="T9" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="U9" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="H10" s="28">
-        <v>7</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>6</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="S10" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="T10" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="U10" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="H11" s="28">
-        <v>8</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>6</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="S11" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="T11" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="U11" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="H12" s="28">
-        <v>9</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="10">
-        <v>6</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="S12" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="T12" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="U12" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="10"/>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="H14" s="28">
-        <v>10</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="10">
-        <v>6</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="S14" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="T14" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="U14" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="H15" s="28">
-        <v>11</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="10">
-        <v>6</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="S15" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="T15" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="U15" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="H16" s="28">
-        <v>12</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="10">
-        <v>6</v>
-      </c>
-      <c r="R16" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="S16" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="T16" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="U16" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="H17" s="28">
-        <v>13</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="N17" s="8"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="10">
-        <v>6</v>
-      </c>
-      <c r="R17" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="S17" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="T17" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="U17" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="H18" s="28">
-        <v>14</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="10">
-        <v>6</v>
-      </c>
-      <c r="R18" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="T18" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="U18" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="H19" s="28">
-        <v>15</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="10">
-        <v>6</v>
-      </c>
-      <c r="R19" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="S19" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="T19" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="U19" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="H20" s="28">
-        <v>16</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="10">
-        <v>6</v>
-      </c>
-      <c r="R20" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="S20" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="T20" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="U20" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="H21" s="28">
-        <v>17</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="10">
-        <v>6</v>
-      </c>
-      <c r="R21" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="S21" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="T21" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="U21" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="10"/>
-    </row>
-    <row r="23" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="H23" s="28">
-        <v>18</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O23" s="9"/>
-      <c r="P23" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="10">
-        <v>6</v>
-      </c>
-      <c r="R23" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="S23" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="T23" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="U23" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="H24" s="28">
-        <v>19</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="10">
-        <v>6</v>
-      </c>
-      <c r="R24" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="S24" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="T24" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="U24" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="H25" s="28">
-        <v>20</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N25" s="8"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="10">
-        <v>6</v>
-      </c>
-      <c r="R25" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="S25" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="T25" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="U25" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="H26" s="28">
-        <v>21</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="R26" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="S26" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="T26" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="U26" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="H27" s="28">
-        <v>22</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="10">
-        <v>6</v>
-      </c>
-      <c r="R27" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="S27" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="T27" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="U27" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="H28" s="28">
-        <v>23</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q28" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="R28" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="S28" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="T28" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="U28" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="H29" s="28">
-        <v>24</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q29" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="R29" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="S29" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="T29" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="U29" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="H30" s="28">
-        <v>25</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q30" s="10">
-        <v>6</v>
-      </c>
-      <c r="R30" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="S30" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="T30" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="U30" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="H31" s="28">
-        <v>26</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q31" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="R31" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="S31" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="T31" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="U31" s="10" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="H32" s="28">
-        <v>27</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q32" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="R32" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="S32" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="T32" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="U32" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="H33" s="28">
-        <v>28</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q33" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="R33" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="S33" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="T33" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="U33" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="H34" s="28">
-        <v>29</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="10"/>
-    </row>
-    <row r="35" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="H35" s="28">
-        <v>30</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q35" s="10">
-        <v>6</v>
-      </c>
-      <c r="R35" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="S35" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="T35" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="U35" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="H36" s="28">
-        <v>31</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="J36" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q36" s="10">
-        <v>6</v>
-      </c>
-      <c r="R36" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="S36" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="T36" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="U36" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="10"/>
-    </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="10"/>
     </row>
     <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="13"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="86"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="28"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="15"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="36"/>
+      <c r="J39" s="20"/>
       <c r="K39" s="7"/>
       <c r="L39" s="6"/>
       <c r="M39" s="8"/>
@@ -3595,20 +3768,20 @@
       <c r="Q39" s="10"/>
       <c r="R39" s="11"/>
       <c r="S39" s="10"/>
-      <c r="T39" s="12"/>
+      <c r="T39" s="89"/>
       <c r="U39" s="10"/>
     </row>
     <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="13"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="86"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="28"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="15"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="36"/>
+      <c r="J40" s="20"/>
       <c r="K40" s="7"/>
       <c r="L40" s="6"/>
       <c r="M40" s="8"/>
@@ -3618,20 +3791,20 @@
       <c r="Q40" s="10"/>
       <c r="R40" s="11"/>
       <c r="S40" s="10"/>
-      <c r="T40" s="12"/>
+      <c r="T40" s="89"/>
       <c r="U40" s="10"/>
     </row>
     <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="13"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="86"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="28"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="15"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="36"/>
+      <c r="J41" s="20"/>
       <c r="K41" s="7"/>
       <c r="L41" s="6"/>
       <c r="M41" s="8"/>
@@ -3641,20 +3814,20 @@
       <c r="Q41" s="10"/>
       <c r="R41" s="11"/>
       <c r="S41" s="10"/>
-      <c r="T41" s="12"/>
+      <c r="T41" s="89"/>
       <c r="U41" s="10"/>
     </row>
     <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="13"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="86"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="28"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="15"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="36"/>
+      <c r="J42" s="20"/>
       <c r="K42" s="7"/>
       <c r="L42" s="6"/>
       <c r="M42" s="8"/>
@@ -3664,20 +3837,20 @@
       <c r="Q42" s="10"/>
       <c r="R42" s="11"/>
       <c r="S42" s="10"/>
-      <c r="T42" s="12"/>
+      <c r="T42" s="89"/>
       <c r="U42" s="10"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="13"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="86"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="28"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="15"/>
       <c r="I43" s="5"/>
-      <c r="J43" s="36"/>
+      <c r="J43" s="20"/>
       <c r="K43" s="7"/>
       <c r="L43" s="6"/>
       <c r="M43" s="8"/>
@@ -3687,20 +3860,20 @@
       <c r="Q43" s="10"/>
       <c r="R43" s="11"/>
       <c r="S43" s="10"/>
-      <c r="T43" s="12"/>
+      <c r="T43" s="89"/>
       <c r="U43" s="10"/>
     </row>
     <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="13"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="86"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="28"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="15"/>
       <c r="I44" s="5"/>
-      <c r="J44" s="36"/>
+      <c r="J44" s="20"/>
       <c r="K44" s="7"/>
       <c r="L44" s="6"/>
       <c r="M44" s="8"/>
@@ -3710,20 +3883,20 @@
       <c r="Q44" s="10"/>
       <c r="R44" s="11"/>
       <c r="S44" s="10"/>
-      <c r="T44" s="12"/>
+      <c r="T44" s="89"/>
       <c r="U44" s="10"/>
     </row>
     <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="13"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="86"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="28"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="15"/>
       <c r="I45" s="5"/>
-      <c r="J45" s="36"/>
+      <c r="J45" s="20"/>
       <c r="K45" s="7"/>
       <c r="L45" s="6"/>
       <c r="M45" s="8"/>
@@ -3733,20 +3906,20 @@
       <c r="Q45" s="10"/>
       <c r="R45" s="11"/>
       <c r="S45" s="10"/>
-      <c r="T45" s="12"/>
+      <c r="T45" s="89"/>
       <c r="U45" s="10"/>
     </row>
     <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="13"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="86"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="28"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="15"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="36"/>
+      <c r="J46" s="20"/>
       <c r="K46" s="7"/>
       <c r="L46" s="6"/>
       <c r="M46" s="8"/>
@@ -3756,20 +3929,20 @@
       <c r="Q46" s="10"/>
       <c r="R46" s="11"/>
       <c r="S46" s="10"/>
-      <c r="T46" s="12"/>
+      <c r="T46" s="89"/>
       <c r="U46" s="10"/>
     </row>
     <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="13"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="86"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="28"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="15"/>
       <c r="I47" s="5"/>
-      <c r="J47" s="36"/>
+      <c r="J47" s="20"/>
       <c r="K47" s="7"/>
       <c r="L47" s="6"/>
       <c r="M47" s="8"/>
@@ -3779,20 +3952,20 @@
       <c r="Q47" s="10"/>
       <c r="R47" s="11"/>
       <c r="S47" s="10"/>
-      <c r="T47" s="12"/>
+      <c r="T47" s="89"/>
       <c r="U47" s="10"/>
     </row>
     <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="13"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="86"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="28"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="15"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="36"/>
+      <c r="J48" s="20"/>
       <c r="K48" s="7"/>
       <c r="L48" s="6"/>
       <c r="M48" s="8"/>
@@ -3802,20 +3975,20 @@
       <c r="Q48" s="10"/>
       <c r="R48" s="11"/>
       <c r="S48" s="10"/>
-      <c r="T48" s="12"/>
+      <c r="T48" s="89"/>
       <c r="U48" s="10"/>
     </row>
     <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="13"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="86"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="28"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="15"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="36"/>
+      <c r="J49" s="20"/>
       <c r="K49" s="7"/>
       <c r="L49" s="6"/>
       <c r="M49" s="8"/>
@@ -3825,20 +3998,20 @@
       <c r="Q49" s="10"/>
       <c r="R49" s="11"/>
       <c r="S49" s="10"/>
-      <c r="T49" s="12"/>
+      <c r="T49" s="89"/>
       <c r="U49" s="10"/>
     </row>
     <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="13"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="86"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="28"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="15"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="36"/>
+      <c r="J50" s="20"/>
       <c r="K50" s="7"/>
       <c r="L50" s="6"/>
       <c r="M50" s="8"/>
@@ -3848,20 +4021,20 @@
       <c r="Q50" s="10"/>
       <c r="R50" s="11"/>
       <c r="S50" s="10"/>
-      <c r="T50" s="12"/>
+      <c r="T50" s="89"/>
       <c r="U50" s="10"/>
     </row>
     <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="13"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="86"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="28"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="15"/>
       <c r="I51" s="5"/>
-      <c r="J51" s="36"/>
+      <c r="J51" s="20"/>
       <c r="K51" s="7"/>
       <c r="L51" s="6"/>
       <c r="M51" s="8"/>
@@ -3871,20 +4044,20 @@
       <c r="Q51" s="10"/>
       <c r="R51" s="11"/>
       <c r="S51" s="10"/>
-      <c r="T51" s="12"/>
+      <c r="T51" s="89"/>
       <c r="U51" s="10"/>
     </row>
     <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="13"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="86"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="28"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="15"/>
       <c r="I52" s="5"/>
-      <c r="J52" s="36"/>
+      <c r="J52" s="20"/>
       <c r="K52" s="7"/>
       <c r="L52" s="6"/>
       <c r="M52" s="8"/>
@@ -3894,20 +4067,20 @@
       <c r="Q52" s="10"/>
       <c r="R52" s="11"/>
       <c r="S52" s="10"/>
-      <c r="T52" s="12"/>
+      <c r="T52" s="89"/>
       <c r="U52" s="10"/>
     </row>
     <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="13"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="86"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="28"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="15"/>
       <c r="I53" s="5"/>
-      <c r="J53" s="36"/>
+      <c r="J53" s="20"/>
       <c r="K53" s="7"/>
       <c r="L53" s="6"/>
       <c r="M53" s="8"/>
@@ -3917,20 +4090,20 @@
       <c r="Q53" s="10"/>
       <c r="R53" s="11"/>
       <c r="S53" s="10"/>
-      <c r="T53" s="12"/>
+      <c r="T53" s="89"/>
       <c r="U53" s="10"/>
     </row>
     <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="13"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="86"/>
       <c r="F54" s="9"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="28"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="15"/>
       <c r="I54" s="5"/>
-      <c r="J54" s="36"/>
+      <c r="J54" s="20"/>
       <c r="K54" s="7"/>
       <c r="L54" s="6"/>
       <c r="M54" s="8"/>
@@ -3940,20 +4113,20 @@
       <c r="Q54" s="10"/>
       <c r="R54" s="11"/>
       <c r="S54" s="10"/>
-      <c r="T54" s="12"/>
+      <c r="T54" s="89"/>
       <c r="U54" s="10"/>
     </row>
     <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="13"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="86"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="28"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="15"/>
       <c r="I55" s="5"/>
-      <c r="J55" s="36"/>
+      <c r="J55" s="20"/>
       <c r="K55" s="7"/>
       <c r="L55" s="6"/>
       <c r="M55" s="8"/>
@@ -3963,20 +4136,20 @@
       <c r="Q55" s="10"/>
       <c r="R55" s="11"/>
       <c r="S55" s="10"/>
-      <c r="T55" s="12"/>
+      <c r="T55" s="89"/>
       <c r="U55" s="10"/>
     </row>
     <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="13"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="86"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="28"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="15"/>
       <c r="I56" s="5"/>
-      <c r="J56" s="36"/>
+      <c r="J56" s="20"/>
       <c r="K56" s="7"/>
       <c r="L56" s="6"/>
       <c r="M56" s="8"/>
@@ -3986,20 +4159,20 @@
       <c r="Q56" s="10"/>
       <c r="R56" s="11"/>
       <c r="S56" s="10"/>
-      <c r="T56" s="12"/>
+      <c r="T56" s="89"/>
       <c r="U56" s="10"/>
     </row>
     <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="13"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="86"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="28"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="15"/>
       <c r="I57" s="5"/>
-      <c r="J57" s="36"/>
+      <c r="J57" s="20"/>
       <c r="K57" s="7"/>
       <c r="L57" s="6"/>
       <c r="M57" s="8"/>
@@ -4009,20 +4182,20 @@
       <c r="Q57" s="10"/>
       <c r="R57" s="11"/>
       <c r="S57" s="10"/>
-      <c r="T57" s="12"/>
+      <c r="T57" s="89"/>
       <c r="U57" s="10"/>
     </row>
     <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="13"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="86"/>
       <c r="F58" s="9"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="28"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="15"/>
       <c r="I58" s="5"/>
-      <c r="J58" s="36"/>
+      <c r="J58" s="20"/>
       <c r="K58" s="7"/>
       <c r="L58" s="6"/>
       <c r="M58" s="8"/>
@@ -4032,20 +4205,20 @@
       <c r="Q58" s="10"/>
       <c r="R58" s="11"/>
       <c r="S58" s="10"/>
-      <c r="T58" s="12"/>
+      <c r="T58" s="89"/>
       <c r="U58" s="10"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="13"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="86"/>
       <c r="F59" s="9"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="28"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="15"/>
       <c r="I59" s="5"/>
-      <c r="J59" s="36"/>
+      <c r="J59" s="20"/>
       <c r="K59" s="7"/>
       <c r="L59" s="6"/>
       <c r="M59" s="8"/>
@@ -4055,20 +4228,20 @@
       <c r="Q59" s="10"/>
       <c r="R59" s="11"/>
       <c r="S59" s="10"/>
-      <c r="T59" s="12"/>
+      <c r="T59" s="89"/>
       <c r="U59" s="10"/>
     </row>
     <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="13"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="28"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="15"/>
       <c r="I60" s="5"/>
-      <c r="J60" s="36"/>
+      <c r="J60" s="20"/>
       <c r="K60" s="7"/>
       <c r="L60" s="6"/>
       <c r="M60" s="8"/>
@@ -4078,20 +4251,20 @@
       <c r="Q60" s="10"/>
       <c r="R60" s="11"/>
       <c r="S60" s="10"/>
-      <c r="T60" s="12"/>
+      <c r="T60" s="89"/>
       <c r="U60" s="10"/>
     </row>
     <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="13"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="86"/>
       <c r="F61" s="9"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="28"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="15"/>
       <c r="I61" s="5"/>
-      <c r="J61" s="36"/>
+      <c r="J61" s="20"/>
       <c r="K61" s="7"/>
       <c r="L61" s="6"/>
       <c r="M61" s="8"/>
@@ -4101,20 +4274,20 @@
       <c r="Q61" s="10"/>
       <c r="R61" s="11"/>
       <c r="S61" s="10"/>
-      <c r="T61" s="12"/>
+      <c r="T61" s="89"/>
       <c r="U61" s="10"/>
     </row>
     <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="13"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="86"/>
       <c r="F62" s="9"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="28"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="15"/>
       <c r="I62" s="5"/>
-      <c r="J62" s="36"/>
+      <c r="J62" s="20"/>
       <c r="K62" s="7"/>
       <c r="L62" s="6"/>
       <c r="M62" s="8"/>
@@ -4124,20 +4297,20 @@
       <c r="Q62" s="10"/>
       <c r="R62" s="11"/>
       <c r="S62" s="10"/>
-      <c r="T62" s="12"/>
+      <c r="T62" s="89"/>
       <c r="U62" s="10"/>
     </row>
     <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="13"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="86"/>
       <c r="F63" s="9"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="28"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="15"/>
       <c r="I63" s="5"/>
-      <c r="J63" s="36"/>
+      <c r="J63" s="20"/>
       <c r="K63" s="7"/>
       <c r="L63" s="6"/>
       <c r="M63" s="8"/>
@@ -4147,20 +4320,20 @@
       <c r="Q63" s="10"/>
       <c r="R63" s="11"/>
       <c r="S63" s="10"/>
-      <c r="T63" s="12"/>
+      <c r="T63" s="89"/>
       <c r="U63" s="10"/>
     </row>
     <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="13"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="86"/>
       <c r="F64" s="9"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="28"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="15"/>
       <c r="I64" s="5"/>
-      <c r="J64" s="36"/>
+      <c r="J64" s="20"/>
       <c r="K64" s="7"/>
       <c r="L64" s="6"/>
       <c r="M64" s="8"/>
@@ -4170,20 +4343,20 @@
       <c r="Q64" s="10"/>
       <c r="R64" s="11"/>
       <c r="S64" s="10"/>
-      <c r="T64" s="12"/>
+      <c r="T64" s="89"/>
       <c r="U64" s="10"/>
     </row>
     <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="13"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="86"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="28"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="15"/>
       <c r="I65" s="5"/>
-      <c r="J65" s="36"/>
+      <c r="J65" s="20"/>
       <c r="K65" s="7"/>
       <c r="L65" s="6"/>
       <c r="M65" s="8"/>
@@ -4193,20 +4366,20 @@
       <c r="Q65" s="10"/>
       <c r="R65" s="11"/>
       <c r="S65" s="10"/>
-      <c r="T65" s="12"/>
+      <c r="T65" s="89"/>
       <c r="U65" s="10"/>
     </row>
     <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="13"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="86"/>
       <c r="F66" s="9"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="28"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="15"/>
       <c r="I66" s="5"/>
-      <c r="J66" s="36"/>
+      <c r="J66" s="20"/>
       <c r="K66" s="7"/>
       <c r="L66" s="6"/>
       <c r="M66" s="8"/>
@@ -4216,20 +4389,20 @@
       <c r="Q66" s="10"/>
       <c r="R66" s="11"/>
       <c r="S66" s="10"/>
-      <c r="T66" s="12"/>
+      <c r="T66" s="89"/>
       <c r="U66" s="10"/>
     </row>
     <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="13"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="86"/>
       <c r="F67" s="9"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="28"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="15"/>
       <c r="I67" s="5"/>
-      <c r="J67" s="36"/>
+      <c r="J67" s="20"/>
       <c r="K67" s="7"/>
       <c r="L67" s="6"/>
       <c r="M67" s="8"/>
@@ -4239,20 +4412,20 @@
       <c r="Q67" s="10"/>
       <c r="R67" s="11"/>
       <c r="S67" s="10"/>
-      <c r="T67" s="12"/>
+      <c r="T67" s="89"/>
       <c r="U67" s="10"/>
     </row>
     <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="13"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="86"/>
       <c r="F68" s="9"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="28"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="15"/>
       <c r="I68" s="5"/>
-      <c r="J68" s="36"/>
+      <c r="J68" s="20"/>
       <c r="K68" s="7"/>
       <c r="L68" s="6"/>
       <c r="M68" s="8"/>
@@ -4262,20 +4435,20 @@
       <c r="Q68" s="10"/>
       <c r="R68" s="11"/>
       <c r="S68" s="10"/>
-      <c r="T68" s="12"/>
+      <c r="T68" s="89"/>
       <c r="U68" s="10"/>
     </row>
     <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="13"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="86"/>
       <c r="F69" s="9"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="28"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="15"/>
       <c r="I69" s="5"/>
-      <c r="J69" s="36"/>
+      <c r="J69" s="20"/>
       <c r="K69" s="7"/>
       <c r="L69" s="6"/>
       <c r="M69" s="8"/>
@@ -4285,20 +4458,20 @@
       <c r="Q69" s="10"/>
       <c r="R69" s="11"/>
       <c r="S69" s="10"/>
-      <c r="T69" s="12"/>
+      <c r="T69" s="89"/>
       <c r="U69" s="10"/>
     </row>
     <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="13"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="86"/>
       <c r="F70" s="9"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="28"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="15"/>
       <c r="I70" s="5"/>
-      <c r="J70" s="36"/>
+      <c r="J70" s="20"/>
       <c r="K70" s="7"/>
       <c r="L70" s="6"/>
       <c r="M70" s="8"/>
@@ -4308,196 +4481,249 @@
       <c r="Q70" s="10"/>
       <c r="R70" s="11"/>
       <c r="S70" s="10"/>
-      <c r="T70" s="12"/>
+      <c r="T70" s="89"/>
       <c r="U70" s="10"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>93</v>
-      </c>
+    <row r="71" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="89"/>
+      <c r="U71" s="10"/>
+    </row>
+    <row r="72" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="86"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="10"/>
+      <c r="T72" s="89"/>
+      <c r="U72" s="10"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:U38"/>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4512,12 +4738,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4528,31 +4748,31 @@
           <x14:formula1>
             <xm:f>DATOS!$E$14:$E$48</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N70</xm:sqref>
+          <xm:sqref>N3:N72</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A70</xm:sqref>
+          <xm:sqref>A3:A72</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K70 P3:P70 I3:I70</xm:sqref>
+          <xm:sqref>K3:K72 P3:P72 I3:I72</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L70</xm:sqref>
+          <xm:sqref>L3:L72</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$1:$E$13</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M70</xm:sqref>
+          <xm:sqref>M3:M72</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4574,124 +4794,124 @@
     <col min="1" max="1" width="39.7109375" customWidth="1"/>
     <col min="2" max="3" width="35.85546875" customWidth="1"/>
     <col min="4" max="4" width="81.85546875" customWidth="1"/>
-    <col min="5" max="5" width="50.7109375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>250</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>251</v>
+      <c r="A2" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="E3" s="43"/>
+      <c r="A3" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="E4" s="43"/>
+      <c r="A4" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="E5" s="43"/>
+      <c r="A5" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="E6" s="43"/>
+      <c r="A6" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="E7" s="43"/>
+      <c r="A7" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45" t="s">
-        <v>258</v>
-      </c>
-      <c r="E8" s="46"/>
+      <c r="A8" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="E9" s="46"/>
+      <c r="A9" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="E10" s="46"/>
+      <c r="A10" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="29"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="23"/>
+      <c r="D11" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fuentes/contenidos/grado06/guion04/Escaleta CN_06_04_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion04/Escaleta CN_06_04_CO.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Dropbox\Editorial planeta\1. Autor\Escaletas\CN_06_04_CO\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Escaleta" sheetId="2" r:id="rId1"/>
     <sheet name="VER" sheetId="3" r:id="rId2"/>
-    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId3"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Escaleta!$A$2:$U$38</definedName>
@@ -1132,75 +1127,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1293,6 +1219,75 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1354,7 +1349,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1389,7 +1384,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1601,8 +1596,8 @@
   <dimension ref="A1:U123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,8 +1614,8 @@
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="25.7109375" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="3.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -1629,2122 +1624,2122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="45"/>
-      <c r="O1" s="33" t="s">
+      <c r="N1" s="87"/>
+      <c r="O1" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="Q1" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="52" t="s">
+      <c r="R1" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="S1" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="50" t="s">
+      <c r="T1" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="48" t="s">
+      <c r="U1" s="69" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="40"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="82"/>
       <c r="M2" s="14" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="49"/>
-    </row>
-    <row r="3" spans="1:21" s="70" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="70"/>
+    </row>
+    <row r="3" spans="1:21" s="47" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="55" t="s">
+      <c r="F3" s="37"/>
+      <c r="G3" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="61">
+      <c r="H3" s="38">
         <v>1</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="K3" s="64" t="s">
+      <c r="K3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="65" t="s">
+      <c r="L3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="66" t="s">
+      <c r="M3" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67" t="s">
+      <c r="N3" s="43"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="68">
+      <c r="Q3" s="45">
         <v>6</v>
       </c>
-      <c r="R3" s="69" t="s">
+      <c r="R3" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="S3" s="68" t="s">
+      <c r="S3" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="T3" s="87" t="s">
+      <c r="T3" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="U3" s="68" t="s">
+      <c r="U3" s="45" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+    <row r="4" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="E4" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="54" t="s">
+      <c r="F4" s="52"/>
+      <c r="G4" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="H4" s="76">
+      <c r="H4" s="53">
         <v>2</v>
       </c>
-      <c r="I4" s="77" t="s">
+      <c r="I4" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="78" t="s">
+      <c r="J4" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="80" t="s">
+      <c r="L4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81" t="s">
+      <c r="M4" s="58"/>
+      <c r="N4" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75" t="s">
+      <c r="O4" s="52"/>
+      <c r="P4" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="82">
+      <c r="Q4" s="59">
         <v>6</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="T4" s="88" t="s">
+      <c r="T4" s="65" t="s">
         <v>240</v>
       </c>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="59" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+    <row r="5" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="88"/>
-      <c r="U5" s="82"/>
-    </row>
-    <row r="6" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+      <c r="G5" s="31"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="59"/>
+    </row>
+    <row r="6" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="F6" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="H6" s="76">
+      <c r="H6" s="53">
         <v>3</v>
       </c>
-      <c r="I6" s="77" t="s">
+      <c r="I6" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="78" t="s">
+      <c r="J6" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="K6" s="79" t="s">
+      <c r="K6" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="80" t="s">
+      <c r="L6" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="81" t="s">
+      <c r="M6" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="81"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75" t="s">
+      <c r="N6" s="58"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="82">
+      <c r="Q6" s="59">
         <v>6</v>
       </c>
-      <c r="R6" s="83" t="s">
+      <c r="R6" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="S6" s="82" t="s">
+      <c r="S6" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="T6" s="88" t="s">
+      <c r="T6" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="59" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
+    <row r="7" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="H7" s="76">
+      <c r="H7" s="53">
         <v>4</v>
       </c>
-      <c r="I7" s="77" t="s">
+      <c r="I7" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="78" t="s">
+      <c r="J7" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="K7" s="79" t="s">
+      <c r="K7" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="80" t="s">
+      <c r="L7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81" t="s">
+      <c r="M7" s="58"/>
+      <c r="N7" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75" t="s">
+      <c r="O7" s="52"/>
+      <c r="P7" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="82">
+      <c r="Q7" s="59">
         <v>6</v>
       </c>
-      <c r="R7" s="83" t="s">
+      <c r="R7" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="S7" s="82" t="s">
+      <c r="S7" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="T7" s="88" t="s">
+      <c r="T7" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="U7" s="82" t="s">
+      <c r="U7" s="59" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="71" t="s">
+    <row r="8" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="H8" s="76">
+      <c r="H8" s="53">
         <v>5</v>
       </c>
-      <c r="I8" s="77" t="s">
+      <c r="I8" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="78" t="s">
+      <c r="J8" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="K8" s="79" t="s">
+      <c r="K8" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="80" t="s">
+      <c r="L8" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81" t="s">
+      <c r="M8" s="58"/>
+      <c r="N8" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75" t="s">
+      <c r="O8" s="52"/>
+      <c r="P8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="82">
+      <c r="Q8" s="59">
         <v>6</v>
       </c>
-      <c r="R8" s="83" t="s">
+      <c r="R8" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="S8" s="82" t="s">
+      <c r="S8" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="T8" s="88" t="s">
+      <c r="T8" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="U8" s="82" t="s">
+      <c r="U8" s="59" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="71" t="s">
+    <row r="9" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="E9" s="85" t="s">
+      <c r="E9" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="G9" s="54" t="s">
+      <c r="G9" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="76">
+      <c r="H9" s="53">
         <v>6</v>
       </c>
-      <c r="I9" s="77" t="s">
+      <c r="I9" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="78" t="s">
+      <c r="J9" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="K9" s="79" t="s">
+      <c r="K9" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="80" t="s">
+      <c r="L9" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81" t="s">
+      <c r="M9" s="58"/>
+      <c r="N9" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="75"/>
+      <c r="O9" s="52"/>
       <c r="P9" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="82">
+      <c r="Q9" s="59">
         <v>6</v>
       </c>
-      <c r="R9" s="83" t="s">
+      <c r="R9" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="S9" s="82" t="s">
+      <c r="S9" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="T9" s="88" t="s">
+      <c r="T9" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="U9" s="82" t="s">
+      <c r="U9" s="59" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+    <row r="10" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="E10" s="85" t="s">
+      <c r="E10" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="75"/>
-      <c r="G10" s="54" t="s">
+      <c r="F10" s="52"/>
+      <c r="G10" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="H10" s="76">
+      <c r="H10" s="53">
         <v>7</v>
       </c>
-      <c r="I10" s="77" t="s">
+      <c r="I10" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="78" t="s">
+      <c r="J10" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="K10" s="79" t="s">
+      <c r="K10" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="80" t="s">
+      <c r="L10" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81" t="s">
+      <c r="M10" s="58"/>
+      <c r="N10" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75" t="s">
+      <c r="O10" s="52"/>
+      <c r="P10" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="82">
+      <c r="Q10" s="59">
         <v>6</v>
       </c>
-      <c r="R10" s="83" t="s">
+      <c r="R10" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="S10" s="82" t="s">
+      <c r="S10" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="T10" s="88" t="s">
+      <c r="T10" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="U10" s="82" t="s">
+      <c r="U10" s="59" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="71" t="s">
+    <row r="11" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="E11" s="85" t="s">
+      <c r="E11" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="F11" s="75"/>
-      <c r="G11" s="54" t="s">
+      <c r="F11" s="52"/>
+      <c r="G11" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="H11" s="76">
+      <c r="H11" s="53">
         <v>8</v>
       </c>
-      <c r="I11" s="77" t="s">
+      <c r="I11" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="78" t="s">
+      <c r="J11" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="K11" s="79" t="s">
+      <c r="K11" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="80" t="s">
+      <c r="L11" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="81" t="s">
+      <c r="M11" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="N11" s="81"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="75" t="s">
+      <c r="N11" s="58"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="82">
+      <c r="Q11" s="59">
         <v>6</v>
       </c>
-      <c r="R11" s="83" t="s">
+      <c r="R11" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="S11" s="82" t="s">
+      <c r="S11" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="T11" s="88" t="s">
+      <c r="T11" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="U11" s="82" t="s">
+      <c r="U11" s="59" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="71" t="s">
+    <row r="12" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="E12" s="85" t="s">
+      <c r="E12" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="F12" s="75" t="s">
+      <c r="F12" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="G12" s="54" t="s">
+      <c r="G12" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="H12" s="76">
+      <c r="H12" s="53">
         <v>9</v>
       </c>
-      <c r="I12" s="77" t="s">
+      <c r="I12" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="78" t="s">
+      <c r="J12" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="K12" s="79" t="s">
+      <c r="K12" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="80" t="s">
+      <c r="L12" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81" t="s">
+      <c r="M12" s="58"/>
+      <c r="N12" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75" t="s">
+      <c r="O12" s="52"/>
+      <c r="P12" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="82">
+      <c r="Q12" s="59">
         <v>6</v>
       </c>
-      <c r="R12" s="83" t="s">
+      <c r="R12" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="S12" s="82" t="s">
+      <c r="S12" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="T12" s="88" t="s">
+      <c r="T12" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="59" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="71" t="s">
+    <row r="13" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="E13" s="85" t="s">
+      <c r="E13" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="F13" s="75" t="s">
+      <c r="F13" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="88"/>
-      <c r="U13" s="82"/>
-    </row>
-    <row r="14" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+      <c r="G13" s="31"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="59"/>
+    </row>
+    <row r="14" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="D14" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="E14" s="85" t="s">
+      <c r="E14" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="F14" s="75" t="s">
+      <c r="F14" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="G14" s="54" t="s">
+      <c r="G14" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="H14" s="76">
+      <c r="H14" s="53">
         <v>10</v>
       </c>
-      <c r="I14" s="77" t="s">
+      <c r="I14" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="78" t="s">
+      <c r="J14" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="K14" s="79" t="s">
+      <c r="K14" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="80" t="s">
+      <c r="L14" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81" t="s">
+      <c r="M14" s="58"/>
+      <c r="N14" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75" t="s">
+      <c r="O14" s="52"/>
+      <c r="P14" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="82">
+      <c r="Q14" s="59">
         <v>6</v>
       </c>
-      <c r="R14" s="83" t="s">
+      <c r="R14" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="S14" s="82" t="s">
+      <c r="S14" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="T14" s="88" t="s">
+      <c r="T14" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="U14" s="82" t="s">
+      <c r="U14" s="59" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="71" t="s">
+    <row r="15" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D15" s="74" t="s">
+      <c r="D15" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="E15" s="85" t="s">
+      <c r="E15" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="F15" s="75" t="s">
+      <c r="F15" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="G15" s="54" t="s">
+      <c r="G15" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="H15" s="76">
+      <c r="H15" s="53">
         <v>11</v>
       </c>
-      <c r="I15" s="77" t="s">
+      <c r="I15" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="78" t="s">
+      <c r="J15" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="K15" s="79" t="s">
+      <c r="K15" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="80" t="s">
+      <c r="L15" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81" t="s">
+      <c r="M15" s="58"/>
+      <c r="N15" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75" t="s">
+      <c r="O15" s="52"/>
+      <c r="P15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="82">
+      <c r="Q15" s="59">
         <v>6</v>
       </c>
-      <c r="R15" s="83" t="s">
+      <c r="R15" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="S15" s="82" t="s">
+      <c r="S15" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="T15" s="88" t="s">
+      <c r="T15" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="U15" s="82" t="s">
+      <c r="U15" s="59" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
+    <row r="16" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="E16" s="85" t="s">
+      <c r="E16" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="75"/>
-      <c r="G16" s="54" t="s">
+      <c r="F16" s="52"/>
+      <c r="G16" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H16" s="76">
+      <c r="H16" s="53">
         <v>12</v>
       </c>
-      <c r="I16" s="77" t="s">
+      <c r="I16" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="78" t="s">
+      <c r="J16" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="K16" s="79" t="s">
+      <c r="K16" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="80" t="s">
+      <c r="L16" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81" t="s">
+      <c r="M16" s="58"/>
+      <c r="N16" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="O16" s="75"/>
-      <c r="P16" s="75" t="s">
+      <c r="O16" s="52"/>
+      <c r="P16" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="82">
+      <c r="Q16" s="59">
         <v>6</v>
       </c>
-      <c r="R16" s="83" t="s">
+      <c r="R16" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="S16" s="82" t="s">
+      <c r="S16" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="T16" s="88" t="s">
+      <c r="T16" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="U16" s="82" t="s">
+      <c r="U16" s="59" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="71" t="s">
+    <row r="17" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="E17" s="85"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="54" t="s">
+      <c r="E17" s="62"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="H17" s="76">
+      <c r="H17" s="53">
         <v>13</v>
       </c>
-      <c r="I17" s="77" t="s">
+      <c r="I17" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="78" t="s">
+      <c r="J17" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="K17" s="79" t="s">
+      <c r="K17" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="80" t="s">
+      <c r="L17" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="M17" s="81" t="s">
+      <c r="M17" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="N17" s="81"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75" t="s">
+      <c r="N17" s="58"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="82">
+      <c r="Q17" s="59">
         <v>6</v>
       </c>
-      <c r="R17" s="83" t="s">
+      <c r="R17" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="S17" s="82" t="s">
+      <c r="S17" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="T17" s="88" t="s">
+      <c r="T17" s="65" t="s">
         <v>252</v>
       </c>
-      <c r="U17" s="82" t="s">
+      <c r="U17" s="59" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="71" t="s">
+    <row r="18" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="E18" s="85"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="54" t="s">
+      <c r="E18" s="62"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="H18" s="76">
+      <c r="H18" s="53">
         <v>14</v>
       </c>
-      <c r="I18" s="77" t="s">
+      <c r="I18" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="78" t="s">
+      <c r="J18" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="K18" s="79" t="s">
+      <c r="K18" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="80" t="s">
+      <c r="L18" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81" t="s">
+      <c r="M18" s="58"/>
+      <c r="N18" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75" t="s">
+      <c r="O18" s="52"/>
+      <c r="P18" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="82">
+      <c r="Q18" s="59">
         <v>6</v>
       </c>
-      <c r="R18" s="83" t="s">
+      <c r="R18" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="S18" s="82" t="s">
+      <c r="S18" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="T18" s="88" t="s">
+      <c r="T18" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="U18" s="82" t="s">
+      <c r="U18" s="59" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
+    <row r="19" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D19" s="74" t="s">
+      <c r="D19" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="E19" s="85"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="54" t="s">
+      <c r="E19" s="62"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="H19" s="76">
+      <c r="H19" s="53">
         <v>15</v>
       </c>
-      <c r="I19" s="77" t="s">
+      <c r="I19" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="78" t="s">
+      <c r="J19" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="K19" s="79" t="s">
+      <c r="K19" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="80" t="s">
+      <c r="L19" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81" t="s">
+      <c r="M19" s="58"/>
+      <c r="N19" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="O19" s="75"/>
-      <c r="P19" s="75" t="s">
+      <c r="O19" s="52"/>
+      <c r="P19" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="82">
+      <c r="Q19" s="59">
         <v>6</v>
       </c>
-      <c r="R19" s="83" t="s">
+      <c r="R19" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="S19" s="82" t="s">
+      <c r="S19" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="T19" s="88" t="s">
+      <c r="T19" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="U19" s="82" t="s">
+      <c r="U19" s="59" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="71" t="s">
+    <row r="20" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="E20" s="85" t="s">
+      <c r="E20" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="F20" s="75"/>
-      <c r="G20" s="54" t="s">
+      <c r="F20" s="52"/>
+      <c r="G20" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="H20" s="76">
+      <c r="H20" s="53">
         <v>16</v>
       </c>
-      <c r="I20" s="77" t="s">
+      <c r="I20" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="78" t="s">
+      <c r="J20" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="K20" s="79" t="s">
+      <c r="K20" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="80" t="s">
+      <c r="L20" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81" t="s">
+      <c r="M20" s="58"/>
+      <c r="N20" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75" t="s">
+      <c r="O20" s="52"/>
+      <c r="P20" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="82">
+      <c r="Q20" s="59">
         <v>6</v>
       </c>
-      <c r="R20" s="83" t="s">
+      <c r="R20" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="S20" s="82" t="s">
+      <c r="S20" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="T20" s="88" t="s">
+      <c r="T20" s="65" t="s">
         <v>248</v>
       </c>
-      <c r="U20" s="82" t="s">
+      <c r="U20" s="59" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="71" t="s">
+    <row r="21" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D21" s="74" t="s">
+      <c r="D21" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="E21" s="85" t="s">
+      <c r="E21" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="F21" s="75"/>
-      <c r="G21" s="54" t="s">
+      <c r="F21" s="52"/>
+      <c r="G21" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="H21" s="76">
+      <c r="H21" s="53">
         <v>17</v>
       </c>
-      <c r="I21" s="77" t="s">
+      <c r="I21" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="78" t="s">
+      <c r="J21" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="K21" s="79" t="s">
+      <c r="K21" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="80" t="s">
+      <c r="L21" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="81"/>
-      <c r="N21" s="81" t="s">
+      <c r="M21" s="58"/>
+      <c r="N21" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="O21" s="75"/>
-      <c r="P21" s="75" t="s">
+      <c r="O21" s="52"/>
+      <c r="P21" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="82">
+      <c r="Q21" s="59">
         <v>6</v>
       </c>
-      <c r="R21" s="83" t="s">
+      <c r="R21" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="S21" s="82" t="s">
+      <c r="S21" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="T21" s="88" t="s">
+      <c r="T21" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="U21" s="82" t="s">
+      <c r="U21" s="59" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="71" t="s">
+    <row r="22" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D22" s="74" t="s">
+      <c r="D22" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="E22" s="85" t="s">
+      <c r="E22" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="F22" s="75"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="83"/>
-      <c r="S22" s="82"/>
-      <c r="T22" s="88"/>
-      <c r="U22" s="82"/>
-    </row>
-    <row r="23" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="71" t="s">
+      <c r="F22" s="52"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="59"/>
+    </row>
+    <row r="23" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="E23" s="85" t="s">
+      <c r="E23" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="F23" s="75"/>
-      <c r="G23" s="54" t="s">
+      <c r="F23" s="52"/>
+      <c r="G23" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="H23" s="76">
+      <c r="H23" s="53">
         <v>18</v>
       </c>
-      <c r="I23" s="77" t="s">
+      <c r="I23" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="78" t="s">
+      <c r="J23" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="K23" s="79" t="s">
+      <c r="K23" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="80" t="s">
+      <c r="L23" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81" t="s">
+      <c r="M23" s="58"/>
+      <c r="N23" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="75"/>
-      <c r="P23" s="75" t="s">
+      <c r="O23" s="52"/>
+      <c r="P23" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="82">
+      <c r="Q23" s="59">
         <v>6</v>
       </c>
-      <c r="R23" s="83" t="s">
+      <c r="R23" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="S23" s="82" t="s">
+      <c r="S23" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="T23" s="88" t="s">
+      <c r="T23" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="U23" s="82" t="s">
+      <c r="U23" s="59" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="71" t="s">
+    <row r="24" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D24" s="74" t="s">
+      <c r="D24" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="E24" s="85" t="s">
+      <c r="E24" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="75"/>
-      <c r="G24" s="54" t="s">
+      <c r="F24" s="52"/>
+      <c r="G24" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="H24" s="76">
+      <c r="H24" s="53">
         <v>19</v>
       </c>
-      <c r="I24" s="77" t="s">
+      <c r="I24" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="78" t="s">
+      <c r="J24" s="55" t="s">
         <v>257</v>
       </c>
-      <c r="K24" s="79" t="s">
+      <c r="K24" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="80" t="s">
+      <c r="L24" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81" t="s">
+      <c r="M24" s="58"/>
+      <c r="N24" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="O24" s="75"/>
-      <c r="P24" s="75" t="s">
+      <c r="O24" s="52"/>
+      <c r="P24" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="82">
+      <c r="Q24" s="59">
         <v>6</v>
       </c>
-      <c r="R24" s="83" t="s">
+      <c r="R24" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="S24" s="82" t="s">
+      <c r="S24" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="T24" s="88" t="s">
+      <c r="T24" s="65" t="s">
         <v>169</v>
       </c>
-      <c r="U24" s="82" t="s">
+      <c r="U24" s="59" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="71" t="s">
+    <row r="25" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D25" s="74" t="s">
+      <c r="D25" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="E25" s="85" t="s">
+      <c r="E25" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="75"/>
-      <c r="G25" s="54" t="s">
+      <c r="F25" s="52"/>
+      <c r="G25" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="H25" s="76">
+      <c r="H25" s="53">
         <v>20</v>
       </c>
-      <c r="I25" s="77" t="s">
+      <c r="I25" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="78" t="s">
+      <c r="J25" s="55" t="s">
         <v>259</v>
       </c>
-      <c r="K25" s="79" t="s">
+      <c r="K25" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="80" t="s">
+      <c r="L25" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="M25" s="81" t="s">
+      <c r="M25" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="N25" s="81"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75" t="s">
+      <c r="N25" s="58"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="82" t="s">
+      <c r="Q25" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="R25" s="83" t="s">
+      <c r="R25" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="S25" s="82" t="s">
+      <c r="S25" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="T25" s="88" t="s">
+      <c r="T25" s="65" t="s">
         <v>258</v>
       </c>
-      <c r="U25" s="82" t="s">
+      <c r="U25" s="59" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="71" t="s">
+    <row r="26" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D26" s="74" t="s">
+      <c r="D26" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="E26" s="85" t="s">
+      <c r="E26" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="F26" s="75"/>
-      <c r="G26" s="54" t="s">
+      <c r="F26" s="52"/>
+      <c r="G26" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="H26" s="76">
+      <c r="H26" s="53">
         <v>21</v>
       </c>
-      <c r="I26" s="77" t="s">
+      <c r="I26" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="78" t="s">
+      <c r="J26" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="K26" s="79" t="s">
+      <c r="K26" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="80" t="s">
+      <c r="L26" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81" t="s">
+      <c r="M26" s="58"/>
+      <c r="N26" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75" t="s">
+      <c r="O26" s="52"/>
+      <c r="P26" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="82" t="s">
+      <c r="Q26" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="R26" s="83" t="s">
+      <c r="R26" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="S26" s="82" t="s">
+      <c r="S26" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="T26" s="88" t="s">
+      <c r="T26" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="U26" s="82" t="s">
+      <c r="U26" s="59" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="71" t="s">
+    <row r="27" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="73" t="s">
+      <c r="C27" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D27" s="74" t="s">
+      <c r="D27" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="E27" s="85" t="s">
+      <c r="E27" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="F27" s="75"/>
-      <c r="G27" s="54" t="s">
+      <c r="F27" s="52"/>
+      <c r="G27" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="H27" s="76">
+      <c r="H27" s="53">
         <v>22</v>
       </c>
-      <c r="I27" s="77" t="s">
+      <c r="I27" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="78" t="s">
+      <c r="J27" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="K27" s="79" t="s">
+      <c r="K27" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="80" t="s">
+      <c r="L27" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81" t="s">
+      <c r="M27" s="58"/>
+      <c r="N27" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75" t="s">
+      <c r="O27" s="52"/>
+      <c r="P27" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="82">
+      <c r="Q27" s="59">
         <v>6</v>
       </c>
-      <c r="R27" s="83" t="s">
+      <c r="R27" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="S27" s="82" t="s">
+      <c r="S27" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="T27" s="88" t="s">
+      <c r="T27" s="65" t="s">
         <v>260</v>
       </c>
-      <c r="U27" s="82" t="s">
+      <c r="U27" s="59" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="71" t="s">
+    <row r="28" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="73" t="s">
+      <c r="C28" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D28" s="74" t="s">
+      <c r="D28" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="E28" s="85" t="s">
+      <c r="E28" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="F28" s="75"/>
-      <c r="G28" s="54" t="s">
+      <c r="F28" s="52"/>
+      <c r="G28" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="H28" s="76">
+      <c r="H28" s="53">
         <v>23</v>
       </c>
-      <c r="I28" s="77" t="s">
+      <c r="I28" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="78" t="s">
+      <c r="J28" s="55" t="s">
         <v>267</v>
       </c>
-      <c r="K28" s="79" t="s">
+      <c r="K28" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="80" t="s">
+      <c r="L28" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="M28" s="81" t="s">
+      <c r="M28" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="N28" s="81"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="75" t="s">
+      <c r="N28" s="58"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="82">
+      <c r="Q28" s="59">
         <v>6</v>
       </c>
-      <c r="R28" s="83" t="s">
+      <c r="R28" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="S28" s="82" t="s">
+      <c r="S28" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="T28" s="88" t="s">
+      <c r="T28" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="U28" s="82" t="s">
+      <c r="U28" s="59" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="71" t="s">
+    <row r="29" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="73" t="s">
+      <c r="C29" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D29" s="74" t="s">
+      <c r="D29" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="E29" s="85" t="s">
+      <c r="E29" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="F29" s="75"/>
-      <c r="G29" s="54" t="s">
+      <c r="F29" s="52"/>
+      <c r="G29" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="H29" s="76">
+      <c r="H29" s="53">
         <v>24</v>
       </c>
-      <c r="I29" s="77" t="s">
+      <c r="I29" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="78" t="s">
+      <c r="J29" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="K29" s="79" t="s">
+      <c r="K29" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="80" t="s">
+      <c r="L29" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="81" t="s">
+      <c r="M29" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="N29" s="81"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75" t="s">
+      <c r="N29" s="58"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="82" t="s">
+      <c r="Q29" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="R29" s="83" t="s">
+      <c r="R29" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="S29" s="82" t="s">
+      <c r="S29" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="T29" s="88" t="s">
+      <c r="T29" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="U29" s="82" t="s">
+      <c r="U29" s="59" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="71" t="s">
+    <row r="30" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="73" t="s">
+      <c r="C30" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D30" s="74" t="s">
+      <c r="D30" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="E30" s="85" t="s">
+      <c r="E30" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="F30" s="75"/>
-      <c r="G30" s="54" t="s">
+      <c r="F30" s="52"/>
+      <c r="G30" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="H30" s="76">
+      <c r="H30" s="53">
         <v>25</v>
       </c>
-      <c r="I30" s="77" t="s">
+      <c r="I30" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="78" t="s">
+      <c r="J30" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="K30" s="79" t="s">
+      <c r="K30" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="L30" s="80" t="s">
+      <c r="L30" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="81"/>
-      <c r="N30" s="81" t="s">
+      <c r="M30" s="58"/>
+      <c r="N30" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="O30" s="75"/>
-      <c r="P30" s="75" t="s">
+      <c r="O30" s="52"/>
+      <c r="P30" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="82" t="s">
+      <c r="Q30" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="R30" s="83" t="s">
+      <c r="R30" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="S30" s="82" t="s">
+      <c r="S30" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="T30" s="88" t="s">
+      <c r="T30" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="U30" s="82" t="s">
+      <c r="U30" s="59" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="71" t="s">
+    <row r="31" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D31" s="74" t="s">
+      <c r="D31" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="E31" s="85" t="s">
+      <c r="E31" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="F31" s="75"/>
-      <c r="G31" s="54" t="s">
+      <c r="F31" s="52"/>
+      <c r="G31" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="H31" s="76">
+      <c r="H31" s="53">
         <v>26</v>
       </c>
-      <c r="I31" s="77" t="s">
+      <c r="I31" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="78" t="s">
+      <c r="J31" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="K31" s="79" t="s">
+      <c r="K31" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="80" t="s">
+      <c r="L31" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="81"/>
-      <c r="N31" s="81" t="s">
+      <c r="M31" s="58"/>
+      <c r="N31" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="O31" s="75"/>
-      <c r="P31" s="75" t="s">
+      <c r="O31" s="52"/>
+      <c r="P31" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="82">
+      <c r="Q31" s="59">
         <v>6</v>
       </c>
-      <c r="R31" s="83" t="s">
+      <c r="R31" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="S31" s="82" t="s">
+      <c r="S31" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="T31" s="88" t="s">
+      <c r="T31" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="U31" s="82" t="s">
+      <c r="U31" s="59" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="71" t="s">
+    <row r="32" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="73" t="s">
+      <c r="C32" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D32" s="74" t="s">
+      <c r="D32" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="E32" s="85"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="54" t="s">
+      <c r="E32" s="62"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="H32" s="76">
+      <c r="H32" s="53">
         <v>27</v>
       </c>
-      <c r="I32" s="77" t="s">
+      <c r="I32" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="78" t="s">
+      <c r="J32" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="K32" s="79" t="s">
+      <c r="K32" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="L32" s="80" t="s">
+      <c r="L32" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="81"/>
-      <c r="N32" s="81" t="s">
+      <c r="M32" s="58"/>
+      <c r="N32" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="O32" s="75"/>
-      <c r="P32" s="75" t="s">
+      <c r="O32" s="52"/>
+      <c r="P32" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="82" t="s">
+      <c r="Q32" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="R32" s="83" t="s">
+      <c r="R32" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="S32" s="82" t="s">
+      <c r="S32" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="T32" s="88" t="s">
+      <c r="T32" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="U32" s="82" t="s">
+      <c r="U32" s="59" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="71" t="s">
+    <row r="33" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="73" t="s">
+      <c r="C33" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D33" s="74" t="s">
+      <c r="D33" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="E33" s="85"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="54" t="s">
+      <c r="E33" s="62"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="H33" s="76">
+      <c r="H33" s="53">
         <v>28</v>
       </c>
-      <c r="I33" s="77" t="s">
+      <c r="I33" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="78" t="s">
+      <c r="J33" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="K33" s="79" t="s">
+      <c r="K33" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="L33" s="80" t="s">
+      <c r="L33" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M33" s="81"/>
-      <c r="N33" s="81" t="s">
+      <c r="M33" s="58"/>
+      <c r="N33" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="O33" s="75"/>
-      <c r="P33" s="75" t="s">
+      <c r="O33" s="52"/>
+      <c r="P33" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="82" t="s">
+      <c r="Q33" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="R33" s="83" t="s">
+      <c r="R33" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="S33" s="82" t="s">
+      <c r="S33" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="T33" s="88" t="s">
+      <c r="T33" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="U33" s="82" t="s">
+      <c r="U33" s="59" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="71" t="s">
+    <row r="34" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="73" t="s">
+      <c r="C34" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D34" s="74" t="s">
+      <c r="D34" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="E34" s="85"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="54" t="s">
+      <c r="E34" s="62"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="H34" s="76">
+      <c r="H34" s="53">
         <v>29</v>
       </c>
-      <c r="I34" s="77" t="s">
+      <c r="I34" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="78" t="s">
+      <c r="J34" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="K34" s="79" t="s">
+      <c r="K34" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="L34" s="80" t="s">
+      <c r="L34" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81" t="s">
+      <c r="M34" s="58"/>
+      <c r="N34" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="O34" s="75"/>
-      <c r="P34" s="75" t="s">
+      <c r="O34" s="52"/>
+      <c r="P34" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="82" t="s">
+      <c r="Q34" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="R34" s="83" t="s">
+      <c r="R34" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="S34" s="82" t="s">
+      <c r="S34" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="T34" s="88" t="s">
+      <c r="T34" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="U34" s="82" t="s">
+      <c r="U34" s="59" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="70" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
-      <c r="B35" s="72" t="s">
+    <row r="35" spans="1:21" s="47" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="48"/>
+      <c r="B35" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="73" t="s">
+      <c r="C35" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D35" s="74" t="s">
+      <c r="D35" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="E35" s="85"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="54" t="s">
+      <c r="E35" s="62"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="H35" s="76">
+      <c r="H35" s="53">
         <v>30</v>
       </c>
-      <c r="I35" s="77" t="s">
+      <c r="I35" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="78" t="s">
+      <c r="J35" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="K35" s="79" t="s">
+      <c r="K35" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="L35" s="80" t="s">
+      <c r="L35" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="81"/>
-      <c r="N35" s="81" t="s">
+      <c r="M35" s="58"/>
+      <c r="N35" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="O35" s="75"/>
-      <c r="P35" s="75" t="s">
+      <c r="O35" s="52"/>
+      <c r="P35" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="82" t="s">
+      <c r="Q35" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="R35" s="83" t="s">
+      <c r="R35" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="S35" s="82" t="s">
+      <c r="S35" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="T35" s="88" t="s">
+      <c r="T35" s="65" t="s">
         <v>264</v>
       </c>
-      <c r="U35" s="82" t="s">
+      <c r="U35" s="59" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="71" t="s">
+    <row r="36" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="72" t="s">
+      <c r="B36" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="73" t="s">
+      <c r="C36" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D36" s="74" t="s">
+      <c r="D36" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="E36" s="85"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="54" t="s">
+      <c r="E36" s="62"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="H36" s="76">
+      <c r="H36" s="53">
         <v>31</v>
       </c>
-      <c r="I36" s="77" t="s">
+      <c r="I36" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="78" t="s">
+      <c r="J36" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="K36" s="79" t="s">
+      <c r="K36" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L36" s="80" t="s">
+      <c r="L36" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="M36" s="81"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="75"/>
-      <c r="P36" s="75" t="s">
+      <c r="M36" s="58"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="83"/>
-      <c r="S36" s="82"/>
-      <c r="T36" s="88"/>
-      <c r="U36" s="82"/>
-    </row>
-    <row r="37" spans="1:21" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="71" t="s">
+      <c r="Q36" s="59"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="65"/>
+      <c r="U36" s="59"/>
+    </row>
+    <row r="37" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="72" t="s">
+      <c r="B37" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="73" t="s">
+      <c r="C37" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D37" s="74" t="s">
+      <c r="D37" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="54" t="s">
+      <c r="E37" s="62"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="H37" s="76">
+      <c r="H37" s="53">
         <v>32</v>
       </c>
-      <c r="I37" s="77" t="s">
+      <c r="I37" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="78" t="s">
+      <c r="J37" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="K37" s="79" t="s">
+      <c r="K37" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L37" s="80" t="s">
+      <c r="L37" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M37" s="81"/>
-      <c r="N37" s="81" t="s">
+      <c r="M37" s="58"/>
+      <c r="N37" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="O37" s="75"/>
-      <c r="P37" s="75" t="s">
+      <c r="O37" s="52"/>
+      <c r="P37" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="82">
+      <c r="Q37" s="59">
         <v>6</v>
       </c>
-      <c r="R37" s="83" t="s">
+      <c r="R37" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="S37" s="82" t="s">
+      <c r="S37" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="T37" s="88" t="s">
+      <c r="T37" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="U37" s="82" t="s">
+      <c r="U37" s="59" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="71" t="s">
+    <row r="38" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="72" t="s">
+      <c r="B38" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="73" t="s">
+      <c r="C38" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D38" s="74" t="s">
+      <c r="D38" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="E38" s="85"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="54" t="s">
+      <c r="E38" s="62"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="H38" s="76">
+      <c r="H38" s="53">
         <v>33</v>
       </c>
-      <c r="I38" s="77" t="s">
+      <c r="I38" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="J38" s="78" t="s">
+      <c r="J38" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="K38" s="79" t="s">
+      <c r="K38" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="80" t="s">
+      <c r="L38" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="81"/>
-      <c r="N38" s="81" t="s">
+      <c r="M38" s="58"/>
+      <c r="N38" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="O38" s="75"/>
-      <c r="P38" s="75" t="s">
+      <c r="O38" s="52"/>
+      <c r="P38" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="Q38" s="82">
+      <c r="Q38" s="59">
         <v>6</v>
       </c>
-      <c r="R38" s="83" t="s">
+      <c r="R38" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="S38" s="82" t="s">
+      <c r="S38" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="T38" s="88" t="s">
+      <c r="T38" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="U38" s="82" t="s">
+      <c r="U38" s="59" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3753,7 +3748,7 @@
       <c r="B39" s="12"/>
       <c r="C39" s="17"/>
       <c r="D39" s="18"/>
-      <c r="E39" s="86"/>
+      <c r="E39" s="63"/>
       <c r="F39" s="9"/>
       <c r="G39" s="19"/>
       <c r="H39" s="15"/>
@@ -3768,7 +3763,7 @@
       <c r="Q39" s="10"/>
       <c r="R39" s="11"/>
       <c r="S39" s="10"/>
-      <c r="T39" s="89"/>
+      <c r="T39" s="66"/>
       <c r="U39" s="10"/>
     </row>
     <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3776,7 +3771,7 @@
       <c r="B40" s="12"/>
       <c r="C40" s="17"/>
       <c r="D40" s="18"/>
-      <c r="E40" s="86"/>
+      <c r="E40" s="63"/>
       <c r="F40" s="9"/>
       <c r="G40" s="19"/>
       <c r="H40" s="15"/>
@@ -3791,7 +3786,7 @@
       <c r="Q40" s="10"/>
       <c r="R40" s="11"/>
       <c r="S40" s="10"/>
-      <c r="T40" s="89"/>
+      <c r="T40" s="66"/>
       <c r="U40" s="10"/>
     </row>
     <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3799,7 +3794,7 @@
       <c r="B41" s="12"/>
       <c r="C41" s="17"/>
       <c r="D41" s="18"/>
-      <c r="E41" s="86"/>
+      <c r="E41" s="63"/>
       <c r="F41" s="9"/>
       <c r="G41" s="19"/>
       <c r="H41" s="15"/>
@@ -3814,7 +3809,7 @@
       <c r="Q41" s="10"/>
       <c r="R41" s="11"/>
       <c r="S41" s="10"/>
-      <c r="T41" s="89"/>
+      <c r="T41" s="66"/>
       <c r="U41" s="10"/>
     </row>
     <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3822,7 +3817,7 @@
       <c r="B42" s="12"/>
       <c r="C42" s="17"/>
       <c r="D42" s="18"/>
-      <c r="E42" s="86"/>
+      <c r="E42" s="63"/>
       <c r="F42" s="9"/>
       <c r="G42" s="19"/>
       <c r="H42" s="15"/>
@@ -3837,7 +3832,7 @@
       <c r="Q42" s="10"/>
       <c r="R42" s="11"/>
       <c r="S42" s="10"/>
-      <c r="T42" s="89"/>
+      <c r="T42" s="66"/>
       <c r="U42" s="10"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3845,7 +3840,7 @@
       <c r="B43" s="12"/>
       <c r="C43" s="17"/>
       <c r="D43" s="18"/>
-      <c r="E43" s="86"/>
+      <c r="E43" s="63"/>
       <c r="F43" s="9"/>
       <c r="G43" s="19"/>
       <c r="H43" s="15"/>
@@ -3860,7 +3855,7 @@
       <c r="Q43" s="10"/>
       <c r="R43" s="11"/>
       <c r="S43" s="10"/>
-      <c r="T43" s="89"/>
+      <c r="T43" s="66"/>
       <c r="U43" s="10"/>
     </row>
     <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3868,7 +3863,7 @@
       <c r="B44" s="12"/>
       <c r="C44" s="17"/>
       <c r="D44" s="18"/>
-      <c r="E44" s="86"/>
+      <c r="E44" s="63"/>
       <c r="F44" s="9"/>
       <c r="G44" s="19"/>
       <c r="H44" s="15"/>
@@ -3883,7 +3878,7 @@
       <c r="Q44" s="10"/>
       <c r="R44" s="11"/>
       <c r="S44" s="10"/>
-      <c r="T44" s="89"/>
+      <c r="T44" s="66"/>
       <c r="U44" s="10"/>
     </row>
     <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3891,7 +3886,7 @@
       <c r="B45" s="12"/>
       <c r="C45" s="17"/>
       <c r="D45" s="18"/>
-      <c r="E45" s="86"/>
+      <c r="E45" s="63"/>
       <c r="F45" s="9"/>
       <c r="G45" s="19"/>
       <c r="H45" s="15"/>
@@ -3906,7 +3901,7 @@
       <c r="Q45" s="10"/>
       <c r="R45" s="11"/>
       <c r="S45" s="10"/>
-      <c r="T45" s="89"/>
+      <c r="T45" s="66"/>
       <c r="U45" s="10"/>
     </row>
     <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3914,7 +3909,7 @@
       <c r="B46" s="12"/>
       <c r="C46" s="17"/>
       <c r="D46" s="18"/>
-      <c r="E46" s="86"/>
+      <c r="E46" s="63"/>
       <c r="F46" s="9"/>
       <c r="G46" s="19"/>
       <c r="H46" s="15"/>
@@ -3929,7 +3924,7 @@
       <c r="Q46" s="10"/>
       <c r="R46" s="11"/>
       <c r="S46" s="10"/>
-      <c r="T46" s="89"/>
+      <c r="T46" s="66"/>
       <c r="U46" s="10"/>
     </row>
     <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3937,7 +3932,7 @@
       <c r="B47" s="12"/>
       <c r="C47" s="17"/>
       <c r="D47" s="18"/>
-      <c r="E47" s="86"/>
+      <c r="E47" s="63"/>
       <c r="F47" s="9"/>
       <c r="G47" s="19"/>
       <c r="H47" s="15"/>
@@ -3952,7 +3947,7 @@
       <c r="Q47" s="10"/>
       <c r="R47" s="11"/>
       <c r="S47" s="10"/>
-      <c r="T47" s="89"/>
+      <c r="T47" s="66"/>
       <c r="U47" s="10"/>
     </row>
     <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3960,7 +3955,7 @@
       <c r="B48" s="12"/>
       <c r="C48" s="17"/>
       <c r="D48" s="18"/>
-      <c r="E48" s="86"/>
+      <c r="E48" s="63"/>
       <c r="F48" s="9"/>
       <c r="G48" s="19"/>
       <c r="H48" s="15"/>
@@ -3975,7 +3970,7 @@
       <c r="Q48" s="10"/>
       <c r="R48" s="11"/>
       <c r="S48" s="10"/>
-      <c r="T48" s="89"/>
+      <c r="T48" s="66"/>
       <c r="U48" s="10"/>
     </row>
     <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3983,7 +3978,7 @@
       <c r="B49" s="12"/>
       <c r="C49" s="17"/>
       <c r="D49" s="18"/>
-      <c r="E49" s="86"/>
+      <c r="E49" s="63"/>
       <c r="F49" s="9"/>
       <c r="G49" s="19"/>
       <c r="H49" s="15"/>
@@ -3998,7 +3993,7 @@
       <c r="Q49" s="10"/>
       <c r="R49" s="11"/>
       <c r="S49" s="10"/>
-      <c r="T49" s="89"/>
+      <c r="T49" s="66"/>
       <c r="U49" s="10"/>
     </row>
     <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4006,7 +4001,7 @@
       <c r="B50" s="12"/>
       <c r="C50" s="17"/>
       <c r="D50" s="18"/>
-      <c r="E50" s="86"/>
+      <c r="E50" s="63"/>
       <c r="F50" s="9"/>
       <c r="G50" s="19"/>
       <c r="H50" s="15"/>
@@ -4021,7 +4016,7 @@
       <c r="Q50" s="10"/>
       <c r="R50" s="11"/>
       <c r="S50" s="10"/>
-      <c r="T50" s="89"/>
+      <c r="T50" s="66"/>
       <c r="U50" s="10"/>
     </row>
     <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4029,7 +4024,7 @@
       <c r="B51" s="12"/>
       <c r="C51" s="17"/>
       <c r="D51" s="18"/>
-      <c r="E51" s="86"/>
+      <c r="E51" s="63"/>
       <c r="F51" s="9"/>
       <c r="G51" s="19"/>
       <c r="H51" s="15"/>
@@ -4044,7 +4039,7 @@
       <c r="Q51" s="10"/>
       <c r="R51" s="11"/>
       <c r="S51" s="10"/>
-      <c r="T51" s="89"/>
+      <c r="T51" s="66"/>
       <c r="U51" s="10"/>
     </row>
     <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4052,7 +4047,7 @@
       <c r="B52" s="12"/>
       <c r="C52" s="17"/>
       <c r="D52" s="18"/>
-      <c r="E52" s="86"/>
+      <c r="E52" s="63"/>
       <c r="F52" s="9"/>
       <c r="G52" s="19"/>
       <c r="H52" s="15"/>
@@ -4067,7 +4062,7 @@
       <c r="Q52" s="10"/>
       <c r="R52" s="11"/>
       <c r="S52" s="10"/>
-      <c r="T52" s="89"/>
+      <c r="T52" s="66"/>
       <c r="U52" s="10"/>
     </row>
     <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4075,7 +4070,7 @@
       <c r="B53" s="12"/>
       <c r="C53" s="17"/>
       <c r="D53" s="18"/>
-      <c r="E53" s="86"/>
+      <c r="E53" s="63"/>
       <c r="F53" s="9"/>
       <c r="G53" s="19"/>
       <c r="H53" s="15"/>
@@ -4090,7 +4085,7 @@
       <c r="Q53" s="10"/>
       <c r="R53" s="11"/>
       <c r="S53" s="10"/>
-      <c r="T53" s="89"/>
+      <c r="T53" s="66"/>
       <c r="U53" s="10"/>
     </row>
     <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4098,7 +4093,7 @@
       <c r="B54" s="12"/>
       <c r="C54" s="17"/>
       <c r="D54" s="18"/>
-      <c r="E54" s="86"/>
+      <c r="E54" s="63"/>
       <c r="F54" s="9"/>
       <c r="G54" s="19"/>
       <c r="H54" s="15"/>
@@ -4113,7 +4108,7 @@
       <c r="Q54" s="10"/>
       <c r="R54" s="11"/>
       <c r="S54" s="10"/>
-      <c r="T54" s="89"/>
+      <c r="T54" s="66"/>
       <c r="U54" s="10"/>
     </row>
     <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4121,7 +4116,7 @@
       <c r="B55" s="12"/>
       <c r="C55" s="17"/>
       <c r="D55" s="18"/>
-      <c r="E55" s="86"/>
+      <c r="E55" s="63"/>
       <c r="F55" s="9"/>
       <c r="G55" s="19"/>
       <c r="H55" s="15"/>
@@ -4136,7 +4131,7 @@
       <c r="Q55" s="10"/>
       <c r="R55" s="11"/>
       <c r="S55" s="10"/>
-      <c r="T55" s="89"/>
+      <c r="T55" s="66"/>
       <c r="U55" s="10"/>
     </row>
     <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4144,7 +4139,7 @@
       <c r="B56" s="12"/>
       <c r="C56" s="17"/>
       <c r="D56" s="18"/>
-      <c r="E56" s="86"/>
+      <c r="E56" s="63"/>
       <c r="F56" s="9"/>
       <c r="G56" s="19"/>
       <c r="H56" s="15"/>
@@ -4159,7 +4154,7 @@
       <c r="Q56" s="10"/>
       <c r="R56" s="11"/>
       <c r="S56" s="10"/>
-      <c r="T56" s="89"/>
+      <c r="T56" s="66"/>
       <c r="U56" s="10"/>
     </row>
     <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4167,7 +4162,7 @@
       <c r="B57" s="12"/>
       <c r="C57" s="17"/>
       <c r="D57" s="18"/>
-      <c r="E57" s="86"/>
+      <c r="E57" s="63"/>
       <c r="F57" s="9"/>
       <c r="G57" s="19"/>
       <c r="H57" s="15"/>
@@ -4182,7 +4177,7 @@
       <c r="Q57" s="10"/>
       <c r="R57" s="11"/>
       <c r="S57" s="10"/>
-      <c r="T57" s="89"/>
+      <c r="T57" s="66"/>
       <c r="U57" s="10"/>
     </row>
     <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4190,7 +4185,7 @@
       <c r="B58" s="12"/>
       <c r="C58" s="17"/>
       <c r="D58" s="18"/>
-      <c r="E58" s="86"/>
+      <c r="E58" s="63"/>
       <c r="F58" s="9"/>
       <c r="G58" s="19"/>
       <c r="H58" s="15"/>
@@ -4205,7 +4200,7 @@
       <c r="Q58" s="10"/>
       <c r="R58" s="11"/>
       <c r="S58" s="10"/>
-      <c r="T58" s="89"/>
+      <c r="T58" s="66"/>
       <c r="U58" s="10"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4213,7 +4208,7 @@
       <c r="B59" s="12"/>
       <c r="C59" s="17"/>
       <c r="D59" s="18"/>
-      <c r="E59" s="86"/>
+      <c r="E59" s="63"/>
       <c r="F59" s="9"/>
       <c r="G59" s="19"/>
       <c r="H59" s="15"/>
@@ -4228,7 +4223,7 @@
       <c r="Q59" s="10"/>
       <c r="R59" s="11"/>
       <c r="S59" s="10"/>
-      <c r="T59" s="89"/>
+      <c r="T59" s="66"/>
       <c r="U59" s="10"/>
     </row>
     <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4236,7 +4231,7 @@
       <c r="B60" s="12"/>
       <c r="C60" s="17"/>
       <c r="D60" s="18"/>
-      <c r="E60" s="86"/>
+      <c r="E60" s="63"/>
       <c r="F60" s="9"/>
       <c r="G60" s="19"/>
       <c r="H60" s="15"/>
@@ -4251,7 +4246,7 @@
       <c r="Q60" s="10"/>
       <c r="R60" s="11"/>
       <c r="S60" s="10"/>
-      <c r="T60" s="89"/>
+      <c r="T60" s="66"/>
       <c r="U60" s="10"/>
     </row>
     <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4259,7 +4254,7 @@
       <c r="B61" s="12"/>
       <c r="C61" s="17"/>
       <c r="D61" s="18"/>
-      <c r="E61" s="86"/>
+      <c r="E61" s="63"/>
       <c r="F61" s="9"/>
       <c r="G61" s="19"/>
       <c r="H61" s="15"/>
@@ -4274,7 +4269,7 @@
       <c r="Q61" s="10"/>
       <c r="R61" s="11"/>
       <c r="S61" s="10"/>
-      <c r="T61" s="89"/>
+      <c r="T61" s="66"/>
       <c r="U61" s="10"/>
     </row>
     <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4282,7 +4277,7 @@
       <c r="B62" s="12"/>
       <c r="C62" s="17"/>
       <c r="D62" s="18"/>
-      <c r="E62" s="86"/>
+      <c r="E62" s="63"/>
       <c r="F62" s="9"/>
       <c r="G62" s="19"/>
       <c r="H62" s="15"/>
@@ -4297,7 +4292,7 @@
       <c r="Q62" s="10"/>
       <c r="R62" s="11"/>
       <c r="S62" s="10"/>
-      <c r="T62" s="89"/>
+      <c r="T62" s="66"/>
       <c r="U62" s="10"/>
     </row>
     <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4305,7 +4300,7 @@
       <c r="B63" s="12"/>
       <c r="C63" s="17"/>
       <c r="D63" s="18"/>
-      <c r="E63" s="86"/>
+      <c r="E63" s="63"/>
       <c r="F63" s="9"/>
       <c r="G63" s="19"/>
       <c r="H63" s="15"/>
@@ -4320,7 +4315,7 @@
       <c r="Q63" s="10"/>
       <c r="R63" s="11"/>
       <c r="S63" s="10"/>
-      <c r="T63" s="89"/>
+      <c r="T63" s="66"/>
       <c r="U63" s="10"/>
     </row>
     <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4328,7 +4323,7 @@
       <c r="B64" s="12"/>
       <c r="C64" s="17"/>
       <c r="D64" s="18"/>
-      <c r="E64" s="86"/>
+      <c r="E64" s="63"/>
       <c r="F64" s="9"/>
       <c r="G64" s="19"/>
       <c r="H64" s="15"/>
@@ -4343,7 +4338,7 @@
       <c r="Q64" s="10"/>
       <c r="R64" s="11"/>
       <c r="S64" s="10"/>
-      <c r="T64" s="89"/>
+      <c r="T64" s="66"/>
       <c r="U64" s="10"/>
     </row>
     <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4351,7 +4346,7 @@
       <c r="B65" s="12"/>
       <c r="C65" s="17"/>
       <c r="D65" s="18"/>
-      <c r="E65" s="86"/>
+      <c r="E65" s="63"/>
       <c r="F65" s="9"/>
       <c r="G65" s="19"/>
       <c r="H65" s="15"/>
@@ -4366,7 +4361,7 @@
       <c r="Q65" s="10"/>
       <c r="R65" s="11"/>
       <c r="S65" s="10"/>
-      <c r="T65" s="89"/>
+      <c r="T65" s="66"/>
       <c r="U65" s="10"/>
     </row>
     <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4374,7 +4369,7 @@
       <c r="B66" s="12"/>
       <c r="C66" s="17"/>
       <c r="D66" s="18"/>
-      <c r="E66" s="86"/>
+      <c r="E66" s="63"/>
       <c r="F66" s="9"/>
       <c r="G66" s="19"/>
       <c r="H66" s="15"/>
@@ -4389,7 +4384,7 @@
       <c r="Q66" s="10"/>
       <c r="R66" s="11"/>
       <c r="S66" s="10"/>
-      <c r="T66" s="89"/>
+      <c r="T66" s="66"/>
       <c r="U66" s="10"/>
     </row>
     <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4397,7 +4392,7 @@
       <c r="B67" s="12"/>
       <c r="C67" s="17"/>
       <c r="D67" s="18"/>
-      <c r="E67" s="86"/>
+      <c r="E67" s="63"/>
       <c r="F67" s="9"/>
       <c r="G67" s="19"/>
       <c r="H67" s="15"/>
@@ -4412,7 +4407,7 @@
       <c r="Q67" s="10"/>
       <c r="R67" s="11"/>
       <c r="S67" s="10"/>
-      <c r="T67" s="89"/>
+      <c r="T67" s="66"/>
       <c r="U67" s="10"/>
     </row>
     <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4420,7 +4415,7 @@
       <c r="B68" s="12"/>
       <c r="C68" s="17"/>
       <c r="D68" s="18"/>
-      <c r="E68" s="86"/>
+      <c r="E68" s="63"/>
       <c r="F68" s="9"/>
       <c r="G68" s="19"/>
       <c r="H68" s="15"/>
@@ -4435,7 +4430,7 @@
       <c r="Q68" s="10"/>
       <c r="R68" s="11"/>
       <c r="S68" s="10"/>
-      <c r="T68" s="89"/>
+      <c r="T68" s="66"/>
       <c r="U68" s="10"/>
     </row>
     <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4443,7 +4438,7 @@
       <c r="B69" s="12"/>
       <c r="C69" s="17"/>
       <c r="D69" s="18"/>
-      <c r="E69" s="86"/>
+      <c r="E69" s="63"/>
       <c r="F69" s="9"/>
       <c r="G69" s="19"/>
       <c r="H69" s="15"/>
@@ -4458,7 +4453,7 @@
       <c r="Q69" s="10"/>
       <c r="R69" s="11"/>
       <c r="S69" s="10"/>
-      <c r="T69" s="89"/>
+      <c r="T69" s="66"/>
       <c r="U69" s="10"/>
     </row>
     <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4466,7 +4461,7 @@
       <c r="B70" s="12"/>
       <c r="C70" s="17"/>
       <c r="D70" s="18"/>
-      <c r="E70" s="86"/>
+      <c r="E70" s="63"/>
       <c r="F70" s="9"/>
       <c r="G70" s="19"/>
       <c r="H70" s="15"/>
@@ -4481,7 +4476,7 @@
       <c r="Q70" s="10"/>
       <c r="R70" s="11"/>
       <c r="S70" s="10"/>
-      <c r="T70" s="89"/>
+      <c r="T70" s="66"/>
       <c r="U70" s="10"/>
     </row>
     <row r="71" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4489,7 +4484,7 @@
       <c r="B71" s="12"/>
       <c r="C71" s="17"/>
       <c r="D71" s="18"/>
-      <c r="E71" s="86"/>
+      <c r="E71" s="63"/>
       <c r="F71" s="9"/>
       <c r="G71" s="19"/>
       <c r="H71" s="15"/>
@@ -4504,7 +4499,7 @@
       <c r="Q71" s="10"/>
       <c r="R71" s="11"/>
       <c r="S71" s="10"/>
-      <c r="T71" s="89"/>
+      <c r="T71" s="66"/>
       <c r="U71" s="10"/>
     </row>
     <row r="72" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4512,7 +4507,7 @@
       <c r="B72" s="12"/>
       <c r="C72" s="17"/>
       <c r="D72" s="18"/>
-      <c r="E72" s="86"/>
+      <c r="E72" s="63"/>
       <c r="F72" s="9"/>
       <c r="G72" s="19"/>
       <c r="H72" s="15"/>
@@ -4527,7 +4522,7 @@
       <c r="Q72" s="10"/>
       <c r="R72" s="11"/>
       <c r="S72" s="10"/>
-      <c r="T72" s="89"/>
+      <c r="T72" s="66"/>
       <c r="U72" s="10"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
@@ -4716,14 +4711,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:U38"/>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4738,6 +4726,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado06/guion04/Escaleta CN_06_04_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion04/Escaleta CN_06_04_CO.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Dropbox\Editorial planeta\1. Autor\Escaletas\CN_06_04_CO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Escaleta" sheetId="2" r:id="rId1"/>
     <sheet name="VER" sheetId="3" r:id="rId2"/>
-    <sheet name="DATOS" sheetId="1" r:id="rId3"/>
+    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Escaleta!$A$2:$U$38</definedName>
@@ -391,9 +396,6 @@
     <t>CN_06_04_CO</t>
   </si>
   <si>
-    <t>La nutrición</t>
-  </si>
-  <si>
     <t>RM</t>
   </si>
   <si>
@@ -830,6 +832,9 @@
   </si>
   <si>
     <t>La nutrición de los seres vivos</t>
+  </si>
+  <si>
+    <t>La nutrición en los seres vivos</t>
   </si>
 </sst>
 </file>
@@ -1219,34 +1224,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1286,6 +1273,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1349,7 +1354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1384,7 +1389,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1593,11 +1598,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K35" sqref="A35:XFD35"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,8 +1620,8 @@
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="25.7109375" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="3.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="1" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -1624,94 +1630,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="H1" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="I1" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="81" t="s">
+      <c r="L1" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="87" t="s">
+      <c r="M1" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="87"/>
-      <c r="O1" s="67" t="s">
+      <c r="N1" s="81"/>
+      <c r="O1" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="67" t="s">
+      <c r="P1" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="69" t="s">
+      <c r="Q1" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="73" t="s">
+      <c r="R1" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="69" t="s">
+      <c r="S1" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="71" t="s">
+      <c r="T1" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="69" t="s">
+      <c r="U1" s="84" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="82"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="76"/>
       <c r="M2" s="14" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="85"/>
     </row>
     <row r="3" spans="1:21" s="47" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
@@ -1721,17 +1727,17 @@
         <v>122</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D3" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3" s="61" t="s">
         <v>224</v>
-      </c>
-      <c r="E3" s="61" t="s">
-        <v>225</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="32" t="s">
-        <v>123</v>
+        <v>269</v>
       </c>
       <c r="H3" s="38">
         <v>1</v>
@@ -1740,7 +1746,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K3" s="41" t="s">
         <v>20</v>
@@ -1760,16 +1766,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="S3" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="S3" s="45" t="s">
+      <c r="T3" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="T3" s="64" t="s">
+      <c r="U3" s="45" t="s">
         <v>126</v>
-      </c>
-      <c r="U3" s="45" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1780,17 +1786,17 @@
         <v>122</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D4" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" s="62" t="s">
         <v>224</v>
-      </c>
-      <c r="E4" s="62" t="s">
-        <v>225</v>
       </c>
       <c r="F4" s="52"/>
       <c r="G4" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H4" s="53">
         <v>2</v>
@@ -1799,7 +1805,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="55" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K4" s="56" t="s">
         <v>20</v>
@@ -1819,19 +1825,19 @@
         <v>6</v>
       </c>
       <c r="R4" s="60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S4" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="T4" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="U4" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="T4" s="65" t="s">
-        <v>240</v>
-      </c>
-      <c r="U4" s="59" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:21" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>17</v>
       </c>
@@ -1839,16 +1845,16 @@
         <v>122</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G5" s="31"/>
       <c r="H5" s="53"/>
@@ -1874,19 +1880,19 @@
         <v>122</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H6" s="53">
         <v>3</v>
@@ -1895,7 +1901,7 @@
         <v>19</v>
       </c>
       <c r="J6" s="55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K6" s="56" t="s">
         <v>20</v>
@@ -1915,16 +1921,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="S6" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="S6" s="59" t="s">
+      <c r="T6" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="U6" s="59" t="s">
         <v>141</v>
-      </c>
-      <c r="T6" s="65" t="s">
-        <v>237</v>
-      </c>
-      <c r="U6" s="59" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1935,19 +1941,19 @@
         <v>122</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E7" s="62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H7" s="53">
         <v>4</v>
@@ -1956,7 +1962,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K7" s="56" t="s">
         <v>20</v>
@@ -1976,16 +1982,16 @@
         <v>6</v>
       </c>
       <c r="R7" s="60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S7" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="T7" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="U7" s="59" t="s">
         <v>128</v>
-      </c>
-      <c r="T7" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="U7" s="59" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
@@ -1996,19 +2002,19 @@
         <v>122</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H8" s="53">
         <v>5</v>
@@ -2017,7 +2023,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="55" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K8" s="56" t="s">
         <v>20</v>
@@ -2037,16 +2043,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S8" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="T8" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="U8" s="59" t="s">
         <v>128</v>
-      </c>
-      <c r="T8" s="65" t="s">
-        <v>241</v>
-      </c>
-      <c r="U8" s="59" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2057,19 +2063,19 @@
         <v>122</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H9" s="53">
         <v>6</v>
@@ -2078,7 +2084,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K9" s="56" t="s">
         <v>20</v>
@@ -2098,16 +2104,16 @@
         <v>6</v>
       </c>
       <c r="R9" s="60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S9" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="T9" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="U9" s="59" t="s">
         <v>128</v>
-      </c>
-      <c r="T9" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="U9" s="59" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2118,17 +2124,17 @@
         <v>122</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E10" s="62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F10" s="52"/>
       <c r="G10" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H10" s="53">
         <v>7</v>
@@ -2137,7 +2143,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="55" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K10" s="56" t="s">
         <v>20</v>
@@ -2157,16 +2163,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S10" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="T10" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="U10" s="59" t="s">
         <v>128</v>
-      </c>
-      <c r="T10" s="65" t="s">
-        <v>137</v>
-      </c>
-      <c r="U10" s="59" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2177,17 +2183,17 @@
         <v>122</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F11" s="52"/>
       <c r="G11" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H11" s="53">
         <v>8</v>
@@ -2196,7 +2202,7 @@
         <v>19</v>
       </c>
       <c r="J11" s="55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K11" s="56" t="s">
         <v>20</v>
@@ -2205,7 +2211,7 @@
         <v>5</v>
       </c>
       <c r="M11" s="58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N11" s="58"/>
       <c r="O11" s="52"/>
@@ -2216,16 +2222,16 @@
         <v>6</v>
       </c>
       <c r="R11" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="S11" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="S11" s="59" t="s">
+      <c r="T11" s="65" t="s">
+        <v>244</v>
+      </c>
+      <c r="U11" s="59" t="s">
         <v>141</v>
-      </c>
-      <c r="T11" s="65" t="s">
-        <v>245</v>
-      </c>
-      <c r="U11" s="59" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2236,19 +2242,19 @@
         <v>122</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F12" s="52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H12" s="53">
         <v>9</v>
@@ -2257,7 +2263,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K12" s="56" t="s">
         <v>20</v>
@@ -2277,19 +2283,19 @@
         <v>6</v>
       </c>
       <c r="R12" s="60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S12" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="T12" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="U12" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="T12" s="65" t="s">
-        <v>163</v>
-      </c>
-      <c r="U12" s="59" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
         <v>17</v>
       </c>
@@ -2297,16 +2303,16 @@
         <v>122</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E13" s="62" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G13" s="31"/>
       <c r="H13" s="53"/>
@@ -2332,19 +2338,19 @@
         <v>122</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E14" s="62" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F14" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="31" t="s">
         <v>146</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>147</v>
       </c>
       <c r="H14" s="53">
         <v>10</v>
@@ -2353,7 +2359,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K14" s="56" t="s">
         <v>20</v>
@@ -2373,16 +2379,16 @@
         <v>6</v>
       </c>
       <c r="R14" s="60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S14" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="T14" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="U14" s="59" t="s">
         <v>128</v>
-      </c>
-      <c r="T14" s="65" t="s">
-        <v>149</v>
-      </c>
-      <c r="U14" s="59" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2393,19 +2399,19 @@
         <v>122</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E15" s="62" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H15" s="53">
         <v>11</v>
@@ -2414,7 +2420,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K15" s="56" t="s">
         <v>20</v>
@@ -2434,16 +2440,16 @@
         <v>6</v>
       </c>
       <c r="R15" s="60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S15" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="T15" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="U15" s="59" t="s">
         <v>128</v>
-      </c>
-      <c r="T15" s="65" t="s">
-        <v>180</v>
-      </c>
-      <c r="U15" s="59" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
@@ -2454,17 +2460,17 @@
         <v>122</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E16" s="62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F16" s="52"/>
       <c r="G16" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H16" s="53">
         <v>12</v>
@@ -2473,7 +2479,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="55" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K16" s="56" t="s">
         <v>20</v>
@@ -2493,16 +2499,16 @@
         <v>6</v>
       </c>
       <c r="R16" s="60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S16" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="T16" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="U16" s="59" t="s">
         <v>128</v>
-      </c>
-      <c r="T16" s="65" t="s">
-        <v>152</v>
-      </c>
-      <c r="U16" s="59" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2513,15 +2519,15 @@
         <v>122</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E17" s="62"/>
       <c r="F17" s="52"/>
       <c r="G17" s="31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H17" s="53">
         <v>13</v>
@@ -2530,7 +2536,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K17" s="56" t="s">
         <v>20</v>
@@ -2550,16 +2556,16 @@
         <v>6</v>
       </c>
       <c r="R17" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="S17" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="S17" s="59" t="s">
+      <c r="T17" s="65" t="s">
+        <v>251</v>
+      </c>
+      <c r="U17" s="59" t="s">
         <v>141</v>
-      </c>
-      <c r="T17" s="65" t="s">
-        <v>252</v>
-      </c>
-      <c r="U17" s="59" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2570,15 +2576,15 @@
         <v>122</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E18" s="62"/>
       <c r="F18" s="52"/>
       <c r="G18" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H18" s="53">
         <v>14</v>
@@ -2587,7 +2593,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K18" s="56" t="s">
         <v>20</v>
@@ -2607,16 +2613,16 @@
         <v>6</v>
       </c>
       <c r="R18" s="60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S18" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="T18" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="U18" s="59" t="s">
         <v>128</v>
-      </c>
-      <c r="T18" s="65" t="s">
-        <v>156</v>
-      </c>
-      <c r="U18" s="59" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2627,15 +2633,15 @@
         <v>122</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E19" s="62"/>
       <c r="F19" s="52"/>
       <c r="G19" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H19" s="53">
         <v>15</v>
@@ -2644,7 +2650,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K19" s="56" t="s">
         <v>20</v>
@@ -2664,16 +2670,16 @@
         <v>6</v>
       </c>
       <c r="R19" s="60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S19" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="T19" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="U19" s="59" t="s">
         <v>128</v>
-      </c>
-      <c r="T19" s="65" t="s">
-        <v>159</v>
-      </c>
-      <c r="U19" s="59" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2684,17 +2690,17 @@
         <v>122</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E20" s="62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F20" s="52"/>
       <c r="G20" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H20" s="53">
         <v>16</v>
@@ -2703,7 +2709,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K20" s="56" t="s">
         <v>20</v>
@@ -2723,16 +2729,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S20" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="T20" s="65" t="s">
+        <v>247</v>
+      </c>
+      <c r="U20" s="59" t="s">
         <v>128</v>
-      </c>
-      <c r="T20" s="65" t="s">
-        <v>248</v>
-      </c>
-      <c r="U20" s="59" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
@@ -2743,17 +2749,17 @@
         <v>122</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E21" s="62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F21" s="52"/>
       <c r="G21" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H21" s="53">
         <v>17</v>
@@ -2762,7 +2768,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="55" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K21" s="56" t="s">
         <v>20</v>
@@ -2782,19 +2788,19 @@
         <v>6</v>
       </c>
       <c r="R21" s="60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S21" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="T21" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="U21" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="T21" s="65" t="s">
-        <v>144</v>
-      </c>
-      <c r="U21" s="59" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:21" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>17</v>
       </c>
@@ -2802,13 +2808,13 @@
         <v>122</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E22" s="62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F22" s="52"/>
       <c r="G22" s="31"/>
@@ -2835,17 +2841,17 @@
         <v>122</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E23" s="62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F23" s="52"/>
       <c r="G23" s="31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H23" s="53">
         <v>18</v>
@@ -2854,7 +2860,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K23" s="56" t="s">
         <v>20</v>
@@ -2874,16 +2880,16 @@
         <v>6</v>
       </c>
       <c r="R23" s="60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S23" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="T23" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="U23" s="59" t="s">
         <v>128</v>
-      </c>
-      <c r="T23" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="U23" s="59" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2894,17 +2900,17 @@
         <v>122</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E24" s="62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F24" s="52"/>
       <c r="G24" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H24" s="53">
         <v>19</v>
@@ -2913,7 +2919,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="55" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K24" s="56" t="s">
         <v>20</v>
@@ -2933,19 +2939,19 @@
         <v>6</v>
       </c>
       <c r="R24" s="60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S24" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="T24" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="U24" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="T24" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="U24" s="59" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>17</v>
       </c>
@@ -2953,17 +2959,17 @@
         <v>122</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E25" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F25" s="52"/>
       <c r="G25" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H25" s="53">
         <v>20</v>
@@ -2972,7 +2978,7 @@
         <v>19</v>
       </c>
       <c r="J25" s="55" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K25" s="56" t="s">
         <v>19</v>
@@ -2989,22 +2995,22 @@
         <v>19</v>
       </c>
       <c r="Q25" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="R25" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="R25" s="60" t="s">
+      <c r="S25" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="S25" s="59" t="s">
+      <c r="T25" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="U25" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="T25" s="65" t="s">
-        <v>258</v>
-      </c>
-      <c r="U25" s="59" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>17</v>
       </c>
@@ -3012,17 +3018,17 @@
         <v>122</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E26" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F26" s="52"/>
       <c r="G26" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H26" s="53">
         <v>21</v>
@@ -3031,7 +3037,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K26" s="56" t="s">
         <v>19</v>
@@ -3048,19 +3054,19 @@
         <v>19</v>
       </c>
       <c r="Q26" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="R26" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="R26" s="60" t="s">
+      <c r="S26" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="S26" s="59" t="s">
+      <c r="T26" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="U26" s="59" t="s">
         <v>177</v>
-      </c>
-      <c r="T26" s="65" t="s">
-        <v>173</v>
-      </c>
-      <c r="U26" s="59" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3071,17 +3077,17 @@
         <v>122</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E27" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F27" s="52"/>
       <c r="G27" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H27" s="53">
         <v>22</v>
@@ -3090,7 +3096,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K27" s="56" t="s">
         <v>20</v>
@@ -3110,16 +3116,16 @@
         <v>6</v>
       </c>
       <c r="R27" s="60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S27" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="T27" s="65" t="s">
+        <v>259</v>
+      </c>
+      <c r="U27" s="59" t="s">
         <v>128</v>
-      </c>
-      <c r="T27" s="65" t="s">
-        <v>260</v>
-      </c>
-      <c r="U27" s="59" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3130,17 +3136,17 @@
         <v>122</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E28" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F28" s="52"/>
       <c r="G28" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H28" s="53">
         <v>23</v>
@@ -3149,7 +3155,7 @@
         <v>19</v>
       </c>
       <c r="J28" s="55" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K28" s="56" t="s">
         <v>20</v>
@@ -3169,19 +3175,19 @@
         <v>6</v>
       </c>
       <c r="R28" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="S28" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="S28" s="59" t="s">
+      <c r="T28" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="U28" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="T28" s="65" t="s">
-        <v>268</v>
-      </c>
-      <c r="U28" s="59" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
         <v>17</v>
       </c>
@@ -3189,17 +3195,17 @@
         <v>122</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E29" s="62" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F29" s="52"/>
       <c r="G29" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H29" s="53">
         <v>24</v>
@@ -3208,7 +3214,7 @@
         <v>19</v>
       </c>
       <c r="J29" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K29" s="56" t="s">
         <v>19</v>
@@ -3225,22 +3231,22 @@
         <v>19</v>
       </c>
       <c r="Q29" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="R29" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="R29" s="60" t="s">
-        <v>176</v>
-      </c>
       <c r="S29" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="T29" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="U29" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="T29" s="65" t="s">
-        <v>182</v>
-      </c>
-      <c r="U29" s="59" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>17</v>
       </c>
@@ -3248,17 +3254,17 @@
         <v>122</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E30" s="62" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F30" s="52"/>
       <c r="G30" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H30" s="53">
         <v>25</v>
@@ -3267,7 +3273,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K30" s="56" t="s">
         <v>19</v>
@@ -3284,19 +3290,19 @@
         <v>19</v>
       </c>
       <c r="Q30" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="R30" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="R30" s="60" t="s">
-        <v>176</v>
-      </c>
       <c r="S30" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="T30" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="U30" s="59" t="s">
         <v>184</v>
-      </c>
-      <c r="T30" s="65" t="s">
-        <v>186</v>
-      </c>
-      <c r="U30" s="59" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3307,17 +3313,17 @@
         <v>122</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E31" s="62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F31" s="52"/>
       <c r="G31" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H31" s="53">
         <v>26</v>
@@ -3326,7 +3332,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="55" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K31" s="56" t="s">
         <v>20</v>
@@ -3346,19 +3352,19 @@
         <v>6</v>
       </c>
       <c r="R31" s="60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S31" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="T31" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="U31" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="T31" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="U31" s="59" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>17</v>
       </c>
@@ -3366,15 +3372,15 @@
         <v>122</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E32" s="62"/>
       <c r="F32" s="52"/>
       <c r="G32" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H32" s="53">
         <v>27</v>
@@ -3383,7 +3389,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="55" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K32" s="56" t="s">
         <v>19</v>
@@ -3393,29 +3399,29 @@
       </c>
       <c r="M32" s="58"/>
       <c r="N32" s="58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O32" s="52"/>
       <c r="P32" s="52" t="s">
         <v>19</v>
       </c>
       <c r="Q32" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="R32" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="S32" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="R32" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="S32" s="59" t="s">
+      <c r="T32" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="U32" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="T32" s="65" t="s">
-        <v>191</v>
-      </c>
-      <c r="U32" s="59" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
         <v>17</v>
       </c>
@@ -3423,15 +3429,15 @@
         <v>122</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E33" s="62"/>
       <c r="F33" s="52"/>
       <c r="G33" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H33" s="53">
         <v>28</v>
@@ -3440,7 +3446,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="55" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K33" s="56" t="s">
         <v>19</v>
@@ -3450,29 +3456,29 @@
       </c>
       <c r="M33" s="58"/>
       <c r="N33" s="58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O33" s="52"/>
       <c r="P33" s="52" t="s">
         <v>19</v>
       </c>
       <c r="Q33" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="R33" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="R33" s="60" t="s">
+      <c r="S33" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="S33" s="59" t="s">
+      <c r="T33" s="65" t="s">
+        <v>196</v>
+      </c>
+      <c r="U33" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="T33" s="65" t="s">
-        <v>197</v>
-      </c>
-      <c r="U33" s="59" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
         <v>17</v>
       </c>
@@ -3480,15 +3486,15 @@
         <v>122</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E34" s="62"/>
       <c r="F34" s="52"/>
       <c r="G34" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H34" s="53">
         <v>29</v>
@@ -3497,7 +3503,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="55" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K34" s="56" t="s">
         <v>19</v>
@@ -3507,43 +3513,43 @@
       </c>
       <c r="M34" s="58"/>
       <c r="N34" s="58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O34" s="52"/>
       <c r="P34" s="52" t="s">
         <v>19</v>
       </c>
       <c r="Q34" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="R34" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="R34" s="60" t="s">
-        <v>176</v>
-      </c>
       <c r="S34" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="T34" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="U34" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="T34" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="U34" s="59" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" s="47" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:21" s="47" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="48"/>
       <c r="B35" s="49" t="s">
         <v>122</v>
       </c>
       <c r="C35" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E35" s="62"/>
       <c r="F35" s="52"/>
       <c r="G35" s="31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H35" s="53">
         <v>30</v>
@@ -3552,7 +3558,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K35" s="56" t="s">
         <v>19</v>
@@ -3562,26 +3568,26 @@
       </c>
       <c r="M35" s="58"/>
       <c r="N35" s="58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O35" s="52"/>
       <c r="P35" s="52" t="s">
         <v>19</v>
       </c>
       <c r="Q35" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="R35" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="R35" s="60" t="s">
-        <v>176</v>
-      </c>
       <c r="S35" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="T35" s="65" t="s">
+        <v>263</v>
+      </c>
+      <c r="U35" s="59" t="s">
         <v>184</v>
-      </c>
-      <c r="T35" s="65" t="s">
-        <v>264</v>
-      </c>
-      <c r="U35" s="59" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
@@ -3592,15 +3598,15 @@
         <v>122</v>
       </c>
       <c r="C36" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E36" s="62"/>
       <c r="F36" s="52"/>
       <c r="G36" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H36" s="53">
         <v>31</v>
@@ -3609,7 +3615,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K36" s="56" t="s">
         <v>20</v>
@@ -3637,15 +3643,15 @@
         <v>122</v>
       </c>
       <c r="C37" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D37" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E37" s="62"/>
       <c r="F37" s="52"/>
       <c r="G37" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H37" s="53">
         <v>32</v>
@@ -3654,7 +3660,7 @@
         <v>20</v>
       </c>
       <c r="J37" s="55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K37" s="56" t="s">
         <v>20</v>
@@ -3674,16 +3680,16 @@
         <v>6</v>
       </c>
       <c r="R37" s="60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S37" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="T37" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="U37" s="59" t="s">
         <v>128</v>
-      </c>
-      <c r="T37" s="65" t="s">
-        <v>206</v>
-      </c>
-      <c r="U37" s="59" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
@@ -3694,24 +3700,24 @@
         <v>122</v>
       </c>
       <c r="C38" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D38" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E38" s="62"/>
       <c r="F38" s="52"/>
       <c r="G38" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H38" s="53">
         <v>33</v>
       </c>
       <c r="I38" s="54" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J38" s="55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K38" s="56" t="s">
         <v>20</v>
@@ -3731,16 +3737,16 @@
         <v>6</v>
       </c>
       <c r="R38" s="60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S38" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="T38" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="U38" s="59" t="s">
         <v>128</v>
-      </c>
-      <c r="T38" s="65" t="s">
-        <v>209</v>
-      </c>
-      <c r="U38" s="59" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4711,7 +4717,20 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:U38">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="NO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4726,12 +4745,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4793,114 +4806,114 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="E2" s="21" t="s">
         <v>213</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="24"/>
       <c r="D3" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
       <c r="D10" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E10" s="29"/>
     </row>

--- a/fuentes/contenidos/grado06/guion04/Escaleta CN_06_04_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion04/Escaleta CN_06_04_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Dropbox\Editorial planeta\1. Autor\Escaletas\CN_06_04_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado06\guion04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1224,16 +1224,34 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1273,24 +1291,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1598,12 +1598,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:U123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,94 +1629,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="J1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="77" t="s">
+      <c r="K1" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="75" t="s">
+      <c r="L1" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="81" t="s">
+      <c r="M1" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="81"/>
-      <c r="O1" s="69" t="s">
+      <c r="N1" s="87"/>
+      <c r="O1" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="69" t="s">
+      <c r="P1" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="84" t="s">
+      <c r="Q1" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="88" t="s">
+      <c r="R1" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="84" t="s">
+      <c r="S1" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="86" t="s">
+      <c r="T1" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="84" t="s">
+      <c r="U1" s="69" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="76"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="82"/>
       <c r="M2" s="14" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="85"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="70"/>
     </row>
     <row r="3" spans="1:21" s="47" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
@@ -1837,7 +1836,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>17</v>
       </c>
@@ -2295,7 +2294,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
         <v>17</v>
       </c>
@@ -2800,7 +2799,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>17</v>
       </c>
@@ -2951,7 +2950,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>17</v>
       </c>
@@ -3010,7 +3009,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>17</v>
       </c>
@@ -3187,7 +3186,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
         <v>17</v>
       </c>
@@ -3246,7 +3245,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>17</v>
       </c>
@@ -3364,7 +3363,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>17</v>
       </c>
@@ -3421,7 +3420,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
         <v>17</v>
       </c>
@@ -3478,7 +3477,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
         <v>17</v>
       </c>
@@ -3535,7 +3534,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="47" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" s="47" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="48"/>
       <c r="B35" s="49" t="s">
         <v>122</v>
@@ -4717,20 +4716,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:U38">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="NO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:U38"/>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4745,6 +4732,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado06/guion04/Escaleta CN_06_04_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion04/Escaleta CN_06_04_CO.xlsx
@@ -1224,34 +1224,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1291,6 +1273,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1600,9 +1600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,94 +1629,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="H1" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="I1" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="81" t="s">
+      <c r="L1" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="87" t="s">
+      <c r="M1" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="87"/>
-      <c r="O1" s="67" t="s">
+      <c r="N1" s="81"/>
+      <c r="O1" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="67" t="s">
+      <c r="P1" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="69" t="s">
+      <c r="Q1" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="73" t="s">
+      <c r="R1" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="69" t="s">
+      <c r="S1" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="71" t="s">
+      <c r="T1" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="69" t="s">
+      <c r="U1" s="84" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="82"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="76"/>
       <c r="M2" s="14" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="85"/>
     </row>
     <row r="3" spans="1:21" s="47" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
@@ -4718,6 +4718,12 @@
   </sheetData>
   <autoFilter ref="A2:U38"/>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4732,12 +4738,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado06/guion04/Escaleta CN_06_04_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion04/Escaleta CN_06_04_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado06\guion04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Dropbox\Editorial planeta\1. Autor\Escaletas\CN_06_04_CO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="271">
   <si>
     <t>Asignatura</t>
   </si>
@@ -747,9 +747,6 @@
     <t>Recurso M5A-01</t>
   </si>
   <si>
-    <t>Recurso M9B-01</t>
-  </si>
-  <si>
     <t>Actividad acerca del concepto de la nutrición</t>
   </si>
   <si>
@@ -835,6 +832,12 @@
   </si>
   <si>
     <t>La nutrición en los seres vivos</t>
+  </si>
+  <si>
+    <t>m12A</t>
+  </si>
+  <si>
+    <t>Recurso M12A-01</t>
   </si>
 </sst>
 </file>
@@ -1224,16 +1227,34 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1273,24 +1294,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1598,11 +1601,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,94 +1633,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="J1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="77" t="s">
+      <c r="K1" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="75" t="s">
+      <c r="L1" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="81" t="s">
+      <c r="M1" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="81"/>
-      <c r="O1" s="69" t="s">
+      <c r="N1" s="87"/>
+      <c r="O1" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="69" t="s">
+      <c r="P1" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="84" t="s">
+      <c r="Q1" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="88" t="s">
+      <c r="R1" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="84" t="s">
+      <c r="S1" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="86" t="s">
+      <c r="T1" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="84" t="s">
+      <c r="U1" s="69" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="76"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="82"/>
       <c r="M2" s="14" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="85"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="70"/>
     </row>
     <row r="3" spans="1:21" s="47" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
@@ -1726,7 +1730,7 @@
         <v>122</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D3" s="36" t="s">
         <v>223</v>
@@ -1736,7 +1740,7 @@
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H3" s="38">
         <v>1</v>
@@ -1785,7 +1789,7 @@
         <v>122</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D4" s="51" t="s">
         <v>223</v>
@@ -1836,7 +1840,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>17</v>
       </c>
@@ -1844,7 +1848,7 @@
         <v>122</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D5" s="51" t="s">
         <v>223</v>
@@ -1879,7 +1883,7 @@
         <v>122</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D6" s="51" t="s">
         <v>223</v>
@@ -1940,7 +1944,7 @@
         <v>122</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>223</v>
@@ -2001,7 +2005,7 @@
         <v>122</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D8" s="51" t="s">
         <v>223</v>
@@ -2022,7 +2026,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="55" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K8" s="56" t="s">
         <v>20</v>
@@ -2032,7 +2036,7 @@
       </c>
       <c r="M8" s="58"/>
       <c r="N8" s="58" t="s">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="O8" s="52"/>
       <c r="P8" s="52" t="s">
@@ -2048,7 +2052,7 @@
         <v>127</v>
       </c>
       <c r="T8" s="65" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="U8" s="59" t="s">
         <v>128</v>
@@ -2062,7 +2066,7 @@
         <v>122</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D9" s="51" t="s">
         <v>223</v>
@@ -2123,7 +2127,7 @@
         <v>122</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D10" s="51" t="s">
         <v>223</v>
@@ -2142,7 +2146,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="55" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K10" s="56" t="s">
         <v>20</v>
@@ -2182,7 +2186,7 @@
         <v>122</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D11" s="51" t="s">
         <v>137</v>
@@ -2201,7 +2205,7 @@
         <v>19</v>
       </c>
       <c r="J11" s="55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K11" s="56" t="s">
         <v>20</v>
@@ -2210,7 +2214,7 @@
         <v>5</v>
       </c>
       <c r="M11" s="58" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N11" s="58"/>
       <c r="O11" s="52"/>
@@ -2227,7 +2231,7 @@
         <v>140</v>
       </c>
       <c r="T11" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U11" s="59" t="s">
         <v>141</v>
@@ -2241,7 +2245,7 @@
         <v>122</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D12" s="51" t="s">
         <v>137</v>
@@ -2262,7 +2266,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K12" s="56" t="s">
         <v>20</v>
@@ -2294,7 +2298,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
         <v>17</v>
       </c>
@@ -2302,7 +2306,7 @@
         <v>122</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D13" s="51" t="s">
         <v>137</v>
@@ -2337,7 +2341,7 @@
         <v>122</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D14" s="51" t="s">
         <v>137</v>
@@ -2398,7 +2402,7 @@
         <v>122</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D15" s="51" t="s">
         <v>137</v>
@@ -2419,7 +2423,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K15" s="56" t="s">
         <v>20</v>
@@ -2459,7 +2463,7 @@
         <v>122</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D16" s="51" t="s">
         <v>137</v>
@@ -2478,7 +2482,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K16" s="56" t="s">
         <v>20</v>
@@ -2518,7 +2522,7 @@
         <v>122</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D17" s="51" t="s">
         <v>228</v>
@@ -2526,7 +2530,7 @@
       <c r="E17" s="62"/>
       <c r="F17" s="52"/>
       <c r="G17" s="31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H17" s="53">
         <v>13</v>
@@ -2561,7 +2565,7 @@
         <v>140</v>
       </c>
       <c r="T17" s="65" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="U17" s="59" t="s">
         <v>141</v>
@@ -2575,7 +2579,7 @@
         <v>122</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D18" s="51" t="s">
         <v>228</v>
@@ -2583,7 +2587,7 @@
       <c r="E18" s="62"/>
       <c r="F18" s="52"/>
       <c r="G18" s="31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H18" s="53">
         <v>14</v>
@@ -2632,7 +2636,7 @@
         <v>122</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D19" s="51" t="s">
         <v>228</v>
@@ -2689,7 +2693,7 @@
         <v>122</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D20" s="51" t="s">
         <v>228</v>
@@ -2734,7 +2738,7 @@
         <v>127</v>
       </c>
       <c r="T20" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U20" s="59" t="s">
         <v>128</v>
@@ -2748,7 +2752,7 @@
         <v>122</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D21" s="51" t="s">
         <v>228</v>
@@ -2758,7 +2762,7 @@
       </c>
       <c r="F21" s="52"/>
       <c r="G21" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H21" s="53">
         <v>17</v>
@@ -2799,7 +2803,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>17</v>
       </c>
@@ -2807,7 +2811,7 @@
         <v>122</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D22" s="51" t="s">
         <v>228</v>
@@ -2840,7 +2844,7 @@
         <v>122</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D23" s="51" t="s">
         <v>228</v>
@@ -2850,7 +2854,7 @@
       </c>
       <c r="F23" s="52"/>
       <c r="G23" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H23" s="53">
         <v>18</v>
@@ -2899,7 +2903,7 @@
         <v>122</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D24" s="51" t="s">
         <v>228</v>
@@ -2909,7 +2913,7 @@
       </c>
       <c r="F24" s="52"/>
       <c r="G24" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H24" s="53">
         <v>19</v>
@@ -2918,7 +2922,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="55" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K24" s="56" t="s">
         <v>20</v>
@@ -2950,7 +2954,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>17</v>
       </c>
@@ -2958,7 +2962,7 @@
         <v>122</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D25" s="51" t="s">
         <v>229</v>
@@ -2977,7 +2981,7 @@
         <v>19</v>
       </c>
       <c r="J25" s="55" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K25" s="56" t="s">
         <v>19</v>
@@ -3003,13 +3007,13 @@
         <v>176</v>
       </c>
       <c r="T25" s="65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="U25" s="59" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>17</v>
       </c>
@@ -3017,7 +3021,7 @@
         <v>122</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D26" s="51" t="s">
         <v>229</v>
@@ -3076,7 +3080,7 @@
         <v>122</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D27" s="51" t="s">
         <v>229</v>
@@ -3086,7 +3090,7 @@
       </c>
       <c r="F27" s="52"/>
       <c r="G27" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H27" s="53">
         <v>22</v>
@@ -3121,7 +3125,7 @@
         <v>127</v>
       </c>
       <c r="T27" s="65" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U27" s="59" t="s">
         <v>128</v>
@@ -3135,7 +3139,7 @@
         <v>122</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D28" s="51" t="s">
         <v>229</v>
@@ -3145,7 +3149,7 @@
       </c>
       <c r="F28" s="52"/>
       <c r="G28" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H28" s="53">
         <v>23</v>
@@ -3154,7 +3158,7 @@
         <v>19</v>
       </c>
       <c r="J28" s="55" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K28" s="56" t="s">
         <v>20</v>
@@ -3180,13 +3184,13 @@
         <v>140</v>
       </c>
       <c r="T28" s="65" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="U28" s="59" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
         <v>17</v>
       </c>
@@ -3194,7 +3198,7 @@
         <v>122</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D29" s="51" t="s">
         <v>229</v>
@@ -3204,7 +3208,7 @@
       </c>
       <c r="F29" s="52"/>
       <c r="G29" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H29" s="53">
         <v>24</v>
@@ -3245,7 +3249,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>17</v>
       </c>
@@ -3253,7 +3257,7 @@
         <v>122</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D30" s="51" t="s">
         <v>229</v>
@@ -3312,7 +3316,7 @@
         <v>122</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D31" s="51" t="s">
         <v>229</v>
@@ -3322,7 +3326,7 @@
       </c>
       <c r="F31" s="52"/>
       <c r="G31" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H31" s="53">
         <v>26</v>
@@ -3363,7 +3367,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>17</v>
       </c>
@@ -3371,7 +3375,7 @@
         <v>122</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D32" s="51" t="s">
         <v>189</v>
@@ -3420,7 +3424,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
         <v>17</v>
       </c>
@@ -3428,7 +3432,7 @@
         <v>122</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D33" s="51" t="s">
         <v>189</v>
@@ -3477,7 +3481,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
         <v>17</v>
       </c>
@@ -3485,7 +3489,7 @@
         <v>122</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D34" s="51" t="s">
         <v>189</v>
@@ -3534,13 +3538,13 @@
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="47" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" s="47" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="48"/>
       <c r="B35" s="49" t="s">
         <v>122</v>
       </c>
       <c r="C35" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D35" s="51" t="s">
         <v>189</v>
@@ -3548,7 +3552,7 @@
       <c r="E35" s="62"/>
       <c r="F35" s="52"/>
       <c r="G35" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H35" s="53">
         <v>30</v>
@@ -3557,7 +3561,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K35" s="56" t="s">
         <v>19</v>
@@ -3583,7 +3587,7 @@
         <v>183</v>
       </c>
       <c r="T35" s="65" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="U35" s="59" t="s">
         <v>184</v>
@@ -3597,7 +3601,7 @@
         <v>122</v>
       </c>
       <c r="C36" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D36" s="51" t="s">
         <v>200</v>
@@ -3642,7 +3646,7 @@
         <v>122</v>
       </c>
       <c r="C37" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D37" s="51" t="s">
         <v>200</v>
@@ -3699,7 +3703,7 @@
         <v>122</v>
       </c>
       <c r="C38" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D38" s="51" t="s">
         <v>200</v>
@@ -4716,14 +4720,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:U38"/>
+  <autoFilter ref="A2:U38">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="NO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4738,6 +4742,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado06/guion04/Escaleta CN_06_04_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion04/Escaleta CN_06_04_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Dropbox\Editorial planeta\1. Autor\Escaletas\CN_06_04_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado06\guion04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1227,34 +1227,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1294,6 +1276,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1601,12 +1601,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:U123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomLeft" activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,94 +1632,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="H1" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="I1" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="81" t="s">
+      <c r="L1" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="87" t="s">
+      <c r="M1" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="87"/>
-      <c r="O1" s="67" t="s">
+      <c r="N1" s="81"/>
+      <c r="O1" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="67" t="s">
+      <c r="P1" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="69" t="s">
+      <c r="Q1" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="73" t="s">
+      <c r="R1" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="69" t="s">
+      <c r="S1" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="71" t="s">
+      <c r="T1" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="69" t="s">
+      <c r="U1" s="84" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="82"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="76"/>
       <c r="M2" s="14" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="85"/>
     </row>
     <row r="3" spans="1:21" s="47" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
@@ -1840,7 +1839,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>17</v>
       </c>
@@ -2298,7 +2297,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
         <v>17</v>
       </c>
@@ -2803,7 +2802,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>17</v>
       </c>
@@ -2954,7 +2953,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>17</v>
       </c>
@@ -3013,7 +3012,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>17</v>
       </c>
@@ -3190,7 +3189,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
         <v>17</v>
       </c>
@@ -3249,7 +3248,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>17</v>
       </c>
@@ -3367,7 +3366,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>17</v>
       </c>
@@ -3424,7 +3423,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
         <v>17</v>
       </c>
@@ -3481,7 +3480,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="47" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
         <v>17</v>
       </c>
@@ -3538,7 +3537,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="47" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" s="47" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="48"/>
       <c r="B35" s="49" t="s">
         <v>122</v>
@@ -4720,14 +4719,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:U38">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="NO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:U38"/>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4742,12 +4741,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado06/guion04/Escaleta CN_06_04_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion04/Escaleta CN_06_04_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado06\guion04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Dropbox\Editorial planeta\1. Autor\Escaletas\CN_06_04_CO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -519,9 +519,6 @@
     <t>La nutrición de los protistos</t>
   </si>
   <si>
-    <t>Actividad para repasar el proceso de nutrición de los protistos</t>
-  </si>
-  <si>
     <t>La nutrición de los hongos</t>
   </si>
   <si>
@@ -783,9 +780,6 @@
     <t>Los mecanismos de nutrición en microorganismos</t>
   </si>
   <si>
-    <t>La nutrición en protistos</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: La nutrición en los microorganismos</t>
   </si>
   <si>
@@ -838,6 +832,12 @@
   </si>
   <si>
     <t>Recurso M12A-01</t>
+  </si>
+  <si>
+    <t>La nutrición en protistas</t>
+  </si>
+  <si>
+    <t>Actividad para repasar el proceso de nutrición de los protistas</t>
   </si>
 </sst>
 </file>
@@ -1227,16 +1227,34 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1276,24 +1294,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1603,9 +1603,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,94 +1632,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="J1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="77" t="s">
+      <c r="K1" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="75" t="s">
+      <c r="L1" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="81" t="s">
+      <c r="M1" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="81"/>
-      <c r="O1" s="69" t="s">
+      <c r="N1" s="87"/>
+      <c r="O1" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="69" t="s">
+      <c r="P1" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="84" t="s">
+      <c r="Q1" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="88" t="s">
+      <c r="R1" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="84" t="s">
+      <c r="S1" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="86" t="s">
+      <c r="T1" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="84" t="s">
+      <c r="U1" s="69" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="76"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="82"/>
       <c r="M2" s="14" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="85"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="70"/>
     </row>
     <row r="3" spans="1:21" s="47" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
@@ -1729,17 +1729,17 @@
         <v>122</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D3" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="61" t="s">
         <v>223</v>
-      </c>
-      <c r="E3" s="61" t="s">
-        <v>224</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="32" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H3" s="38">
         <v>1</v>
@@ -1748,7 +1748,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K3" s="41" t="s">
         <v>20</v>
@@ -1788,17 +1788,17 @@
         <v>122</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D4" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" s="62" t="s">
         <v>223</v>
-      </c>
-      <c r="E4" s="62" t="s">
-        <v>224</v>
       </c>
       <c r="F4" s="52"/>
       <c r="G4" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H4" s="53">
         <v>2</v>
@@ -1807,7 +1807,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K4" s="56" t="s">
         <v>20</v>
@@ -1833,7 +1833,7 @@
         <v>127</v>
       </c>
       <c r="T4" s="65" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U4" s="59" t="s">
         <v>128</v>
@@ -1847,16 +1847,16 @@
         <v>122</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E5" s="62" t="s">
         <v>132</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G5" s="31"/>
       <c r="H5" s="53"/>
@@ -1882,19 +1882,19 @@
         <v>122</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E6" s="62" t="s">
         <v>132</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H6" s="53">
         <v>3</v>
@@ -1903,7 +1903,7 @@
         <v>19</v>
       </c>
       <c r="J6" s="55" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K6" s="56" t="s">
         <v>20</v>
@@ -1929,7 +1929,7 @@
         <v>140</v>
       </c>
       <c r="T6" s="65" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U6" s="59" t="s">
         <v>141</v>
@@ -1943,19 +1943,19 @@
         <v>122</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E7" s="62" t="s">
         <v>132</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H7" s="53">
         <v>4</v>
@@ -2004,16 +2004,16 @@
         <v>122</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E8" s="62" t="s">
         <v>132</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G8" s="31" t="s">
         <v>131</v>
@@ -2025,7 +2025,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="55" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K8" s="56" t="s">
         <v>20</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="M8" s="58"/>
       <c r="N8" s="58" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O8" s="52"/>
       <c r="P8" s="52" t="s">
@@ -2051,7 +2051,7 @@
         <v>127</v>
       </c>
       <c r="T8" s="65" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="U8" s="59" t="s">
         <v>128</v>
@@ -2065,16 +2065,16 @@
         <v>122</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E9" s="62" t="s">
         <v>132</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G9" s="31" t="s">
         <v>132</v>
@@ -2126,17 +2126,17 @@
         <v>122</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E10" s="62" t="s">
         <v>135</v>
       </c>
       <c r="F10" s="52"/>
       <c r="G10" s="31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H10" s="53">
         <v>7</v>
@@ -2145,7 +2145,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K10" s="56" t="s">
         <v>20</v>
@@ -2185,13 +2185,13 @@
         <v>122</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D11" s="51" t="s">
         <v>137</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F11" s="52"/>
       <c r="G11" s="31" t="s">
@@ -2204,7 +2204,7 @@
         <v>19</v>
       </c>
       <c r="J11" s="55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K11" s="56" t="s">
         <v>20</v>
@@ -2213,7 +2213,7 @@
         <v>5</v>
       </c>
       <c r="M11" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N11" s="58"/>
       <c r="O11" s="52"/>
@@ -2230,7 +2230,7 @@
         <v>140</v>
       </c>
       <c r="T11" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U11" s="59" t="s">
         <v>141</v>
@@ -2244,13 +2244,13 @@
         <v>122</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D12" s="51" t="s">
         <v>137</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F12" s="52" t="s">
         <v>142</v>
@@ -2265,7 +2265,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K12" s="56" t="s">
         <v>20</v>
@@ -2305,13 +2305,13 @@
         <v>122</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D13" s="51" t="s">
         <v>137</v>
       </c>
       <c r="E13" s="62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F13" s="52" t="s">
         <v>144</v>
@@ -2340,13 +2340,13 @@
         <v>122</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D14" s="51" t="s">
         <v>137</v>
       </c>
       <c r="E14" s="62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F14" s="52" t="s">
         <v>145</v>
@@ -2401,13 +2401,13 @@
         <v>122</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D15" s="51" t="s">
         <v>137</v>
       </c>
       <c r="E15" s="62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F15" s="52" t="s">
         <v>145</v>
@@ -2422,7 +2422,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K15" s="56" t="s">
         <v>20</v>
@@ -2448,7 +2448,7 @@
         <v>127</v>
       </c>
       <c r="T15" s="65" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U15" s="59" t="s">
         <v>128</v>
@@ -2462,7 +2462,7 @@
         <v>122</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D16" s="51" t="s">
         <v>137</v>
@@ -2481,7 +2481,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K16" s="56" t="s">
         <v>20</v>
@@ -2521,15 +2521,15 @@
         <v>122</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E17" s="62"/>
       <c r="F17" s="52"/>
       <c r="G17" s="31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H17" s="53">
         <v>13</v>
@@ -2564,7 +2564,7 @@
         <v>140</v>
       </c>
       <c r="T17" s="65" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U17" s="59" t="s">
         <v>141</v>
@@ -2578,15 +2578,15 @@
         <v>122</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E18" s="62"/>
       <c r="F18" s="52"/>
       <c r="G18" s="31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H18" s="53">
         <v>14</v>
@@ -2635,10 +2635,10 @@
         <v>122</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E19" s="62"/>
       <c r="F19" s="52"/>
@@ -2692,10 +2692,10 @@
         <v>122</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E20" s="62" t="s">
         <v>159</v>
@@ -2737,7 +2737,7 @@
         <v>127</v>
       </c>
       <c r="T20" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U20" s="59" t="s">
         <v>128</v>
@@ -2751,17 +2751,17 @@
         <v>122</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E21" s="62" t="s">
         <v>163</v>
       </c>
       <c r="F21" s="52"/>
       <c r="G21" s="31" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="H21" s="53">
         <v>17</v>
@@ -2770,7 +2770,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="55" t="s">
-        <v>164</v>
+        <v>270</v>
       </c>
       <c r="K21" s="56" t="s">
         <v>20</v>
@@ -2810,13 +2810,13 @@
         <v>122</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E22" s="62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F22" s="52"/>
       <c r="G22" s="31"/>
@@ -2843,17 +2843,17 @@
         <v>122</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E23" s="62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F23" s="52"/>
       <c r="G23" s="31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H23" s="53">
         <v>18</v>
@@ -2862,7 +2862,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="55" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K23" s="56" t="s">
         <v>20</v>
@@ -2888,7 +2888,7 @@
         <v>127</v>
       </c>
       <c r="T23" s="65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U23" s="59" t="s">
         <v>128</v>
@@ -2902,17 +2902,17 @@
         <v>122</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E24" s="62" t="s">
         <v>135</v>
       </c>
       <c r="F24" s="52"/>
       <c r="G24" s="31" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H24" s="53">
         <v>19</v>
@@ -2921,7 +2921,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="55" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K24" s="56" t="s">
         <v>20</v>
@@ -2947,7 +2947,7 @@
         <v>127</v>
       </c>
       <c r="T24" s="65" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U24" s="59" t="s">
         <v>128</v>
@@ -2961,17 +2961,17 @@
         <v>122</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E25" s="62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F25" s="52"/>
       <c r="G25" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H25" s="53">
         <v>20</v>
@@ -2980,7 +2980,7 @@
         <v>19</v>
       </c>
       <c r="J25" s="55" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K25" s="56" t="s">
         <v>19</v>
@@ -2997,19 +2997,19 @@
         <v>19</v>
       </c>
       <c r="Q25" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="R25" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="R25" s="60" t="s">
+      <c r="S25" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="S25" s="59" t="s">
+      <c r="T25" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="U25" s="59" t="s">
         <v>176</v>
-      </c>
-      <c r="T25" s="65" t="s">
-        <v>256</v>
-      </c>
-      <c r="U25" s="59" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3020,17 +3020,17 @@
         <v>122</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E26" s="62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F26" s="52"/>
       <c r="G26" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H26" s="53">
         <v>21</v>
@@ -3039,7 +3039,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K26" s="56" t="s">
         <v>19</v>
@@ -3056,19 +3056,19 @@
         <v>19</v>
       </c>
       <c r="Q26" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="R26" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="R26" s="60" t="s">
+      <c r="S26" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="S26" s="59" t="s">
+      <c r="T26" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="U26" s="59" t="s">
         <v>176</v>
-      </c>
-      <c r="T26" s="65" t="s">
-        <v>172</v>
-      </c>
-      <c r="U26" s="59" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3079,17 +3079,17 @@
         <v>122</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E27" s="62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F27" s="52"/>
       <c r="G27" s="31" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H27" s="53">
         <v>22</v>
@@ -3098,7 +3098,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K27" s="56" t="s">
         <v>20</v>
@@ -3124,7 +3124,7 @@
         <v>127</v>
       </c>
       <c r="T27" s="65" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="U27" s="59" t="s">
         <v>128</v>
@@ -3138,17 +3138,17 @@
         <v>122</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E28" s="62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F28" s="52"/>
       <c r="G28" s="31" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H28" s="53">
         <v>23</v>
@@ -3157,7 +3157,7 @@
         <v>19</v>
       </c>
       <c r="J28" s="55" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K28" s="56" t="s">
         <v>20</v>
@@ -3183,7 +3183,7 @@
         <v>140</v>
       </c>
       <c r="T28" s="65" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="U28" s="59" t="s">
         <v>141</v>
@@ -3197,17 +3197,17 @@
         <v>122</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E29" s="62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F29" s="52"/>
       <c r="G29" s="31" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H29" s="53">
         <v>24</v>
@@ -3216,7 +3216,7 @@
         <v>19</v>
       </c>
       <c r="J29" s="55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K29" s="56" t="s">
         <v>19</v>
@@ -3233,19 +3233,19 @@
         <v>19</v>
       </c>
       <c r="Q29" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="R29" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="R29" s="60" t="s">
-        <v>175</v>
-      </c>
       <c r="S29" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="T29" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="U29" s="59" t="s">
         <v>183</v>
-      </c>
-      <c r="T29" s="65" t="s">
-        <v>181</v>
-      </c>
-      <c r="U29" s="59" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3256,17 +3256,17 @@
         <v>122</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E30" s="62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F30" s="52"/>
       <c r="G30" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H30" s="53">
         <v>25</v>
@@ -3275,7 +3275,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K30" s="56" t="s">
         <v>19</v>
@@ -3292,19 +3292,19 @@
         <v>19</v>
       </c>
       <c r="Q30" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="R30" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="R30" s="60" t="s">
-        <v>175</v>
-      </c>
       <c r="S30" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="T30" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="U30" s="59" t="s">
         <v>183</v>
-      </c>
-      <c r="T30" s="65" t="s">
-        <v>185</v>
-      </c>
-      <c r="U30" s="59" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3315,17 +3315,17 @@
         <v>122</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E31" s="62" t="s">
         <v>135</v>
       </c>
       <c r="F31" s="52"/>
       <c r="G31" s="31" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H31" s="53">
         <v>26</v>
@@ -3334,7 +3334,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K31" s="56" t="s">
         <v>20</v>
@@ -3360,7 +3360,7 @@
         <v>127</v>
       </c>
       <c r="T31" s="65" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U31" s="59" t="s">
         <v>128</v>
@@ -3374,15 +3374,15 @@
         <v>122</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E32" s="62"/>
       <c r="F32" s="52"/>
       <c r="G32" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H32" s="53">
         <v>27</v>
@@ -3391,7 +3391,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="55" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K32" s="56" t="s">
         <v>19</v>
@@ -3401,26 +3401,26 @@
       </c>
       <c r="M32" s="58"/>
       <c r="N32" s="58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O32" s="52"/>
       <c r="P32" s="52" t="s">
         <v>19</v>
       </c>
       <c r="Q32" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="R32" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="S32" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="R32" s="60" t="s">
-        <v>175</v>
-      </c>
-      <c r="S32" s="59" t="s">
+      <c r="T32" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="U32" s="59" t="s">
         <v>194</v>
-      </c>
-      <c r="T32" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="U32" s="59" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3431,15 +3431,15 @@
         <v>122</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E33" s="62"/>
       <c r="F33" s="52"/>
       <c r="G33" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H33" s="53">
         <v>28</v>
@@ -3448,7 +3448,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="55" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K33" s="56" t="s">
         <v>19</v>
@@ -3458,26 +3458,26 @@
       </c>
       <c r="M33" s="58"/>
       <c r="N33" s="58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O33" s="52"/>
       <c r="P33" s="52" t="s">
         <v>19</v>
       </c>
       <c r="Q33" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="R33" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="R33" s="60" t="s">
+      <c r="S33" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="S33" s="59" t="s">
+      <c r="T33" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="U33" s="59" t="s">
         <v>176</v>
-      </c>
-      <c r="T33" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="U33" s="59" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3488,15 +3488,15 @@
         <v>122</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E34" s="62"/>
       <c r="F34" s="52"/>
       <c r="G34" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H34" s="53">
         <v>29</v>
@@ -3505,7 +3505,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="55" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K34" s="56" t="s">
         <v>19</v>
@@ -3515,26 +3515,26 @@
       </c>
       <c r="M34" s="58"/>
       <c r="N34" s="58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O34" s="52"/>
       <c r="P34" s="52" t="s">
         <v>19</v>
       </c>
       <c r="Q34" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="R34" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="R34" s="60" t="s">
-        <v>175</v>
-      </c>
       <c r="S34" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="T34" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="U34" s="59" t="s">
         <v>183</v>
-      </c>
-      <c r="T34" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="U34" s="59" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:21" s="47" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3543,15 +3543,15 @@
         <v>122</v>
       </c>
       <c r="C35" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E35" s="62"/>
       <c r="F35" s="52"/>
       <c r="G35" s="31" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H35" s="53">
         <v>30</v>
@@ -3560,7 +3560,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K35" s="56" t="s">
         <v>19</v>
@@ -3570,26 +3570,26 @@
       </c>
       <c r="M35" s="58"/>
       <c r="N35" s="58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O35" s="52"/>
       <c r="P35" s="52" t="s">
         <v>19</v>
       </c>
       <c r="Q35" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="R35" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="R35" s="60" t="s">
-        <v>175</v>
-      </c>
       <c r="S35" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="T35" s="65" t="s">
+        <v>260</v>
+      </c>
+      <c r="U35" s="59" t="s">
         <v>183</v>
-      </c>
-      <c r="T35" s="65" t="s">
-        <v>262</v>
-      </c>
-      <c r="U35" s="59" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
@@ -3600,15 +3600,15 @@
         <v>122</v>
       </c>
       <c r="C36" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E36" s="62"/>
       <c r="F36" s="52"/>
       <c r="G36" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H36" s="53">
         <v>31</v>
@@ -3617,7 +3617,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="55" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K36" s="56" t="s">
         <v>20</v>
@@ -3645,15 +3645,15 @@
         <v>122</v>
       </c>
       <c r="C37" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D37" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E37" s="62"/>
       <c r="F37" s="52"/>
       <c r="G37" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H37" s="53">
         <v>32</v>
@@ -3662,7 +3662,7 @@
         <v>20</v>
       </c>
       <c r="J37" s="55" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K37" s="56" t="s">
         <v>20</v>
@@ -3688,7 +3688,7 @@
         <v>127</v>
       </c>
       <c r="T37" s="65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U37" s="59" t="s">
         <v>128</v>
@@ -3702,24 +3702,24 @@
         <v>122</v>
       </c>
       <c r="C38" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D38" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E38" s="62"/>
       <c r="F38" s="52"/>
       <c r="G38" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H38" s="53">
         <v>33</v>
       </c>
       <c r="I38" s="54" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J38" s="55" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K38" s="56" t="s">
         <v>20</v>
@@ -3745,7 +3745,7 @@
         <v>127</v>
       </c>
       <c r="T38" s="65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="U38" s="59" t="s">
         <v>128</v>
@@ -4721,12 +4721,6 @@
   </sheetData>
   <autoFilter ref="A2:U38"/>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4741,6 +4735,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4802,19 +4802,19 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="E2" s="21" t="s">
         <v>212</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4824,7 +4824,7 @@
       <c r="B3" s="23"/>
       <c r="C3" s="24"/>
       <c r="D3" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E3" s="26"/>
     </row>
@@ -4837,7 +4837,7 @@
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E4" s="26"/>
     </row>
@@ -4846,70 +4846,70 @@
         <v>152</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
       <c r="D10" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E10" s="29"/>
     </row>

--- a/fuentes/contenidos/grado06/guion04/Escaleta CN_06_04_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion04/Escaleta CN_06_04_CO.xlsx
@@ -510,9 +510,6 @@
     <t>La nutrición en arqueas y bacterias</t>
   </si>
   <si>
-    <t>Actividad relacionar los conceptos asociados a la nutrición de arqueas y bacterias</t>
-  </si>
-  <si>
     <t>Recurso M1B-01</t>
   </si>
   <si>
@@ -585,9 +582,6 @@
     <t xml:space="preserve">Actividad de relacionar procesos asociados a la nutrición </t>
   </si>
   <si>
-    <t>Actividad que permite reforzar los conocimientos acerca del proceso de la nutrición en plantas y animales</t>
-  </si>
-  <si>
     <t>Recurso M101A-04</t>
   </si>
   <si>
@@ -597,9 +591,6 @@
     <t>Competencias: diferenciación entre las estrategias de nutrición</t>
   </si>
   <si>
-    <t>Actividad que propone realizar el procedimiento de diferenciar entre las estrategias de nutrición que utilizan los seres vivos</t>
-  </si>
-  <si>
     <t>m102b</t>
   </si>
   <si>
@@ -621,24 +612,15 @@
     <t>Competencias: análisis de la nutrición en el reino animal</t>
   </si>
   <si>
-    <t>Actividad que propone realizar el procedimiento de análisis de la función de nutrición en el reino animal</t>
-  </si>
-  <si>
     <t>Fin de unidad</t>
   </si>
   <si>
     <t>Mapa Conceptual</t>
   </si>
   <si>
-    <t>Mapa conceptual del tema La nutrición en los seres vivos</t>
-  </si>
-  <si>
     <t>Evaluación</t>
   </si>
   <si>
-    <t>Evalúa tus conocimientos sobre el tema La nutrición en los seres vivos</t>
-  </si>
-  <si>
     <t>Recurso M4A-03</t>
   </si>
   <si>
@@ -714,9 +696,6 @@
     <t>La nutrición en las plantas y los animales</t>
   </si>
   <si>
-    <t>Banco de actividades del tema La nutrición en los seres vivos</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: El concepto de nutrición</t>
   </si>
   <si>
@@ -792,9 +771,6 @@
     <t>La fotosíntesis</t>
   </si>
   <si>
-    <t>Animación que muestra cómo se lleva a cabo el proceso de fotosíntesis en el interior de las células de las plantas</t>
-  </si>
-  <si>
     <t>Recurso M14A-02</t>
   </si>
   <si>
@@ -810,15 +786,9 @@
     <t>Competencias: comprensión del desarrollo de la nutrición</t>
   </si>
   <si>
-    <t>Actividad que propone realizar el procedimiento de identificar los pasos que se llevan a cabo en la función de nutrición en los animales</t>
-  </si>
-  <si>
     <t>Los aparatos bucales de los animales</t>
   </si>
   <si>
-    <t>Interactivo que permite identificar los aparatos bucales que les permite alimentarse a los animales</t>
-  </si>
-  <si>
     <t>Recurso F7B-01</t>
   </si>
   <si>
@@ -838,6 +808,36 @@
   </si>
   <si>
     <t>Actividad para repasar el proceso de nutrición de los protistas</t>
+  </si>
+  <si>
+    <t>Actividad para relacionar los conceptos asociados a la nutrición de arqueas y bacterias</t>
+  </si>
+  <si>
+    <t>Video explicativo que muestra los principales procesos y estructuras relacionadas con la fotosíntesis</t>
+  </si>
+  <si>
+    <t>Interactivo que permite identificar los aparatos bucales de los animales</t>
+  </si>
+  <si>
+    <t>Actividad que propone diferenciar las estrategias de nutrición que utilizan los seres vivos</t>
+  </si>
+  <si>
+    <t>Actividad que propone realizar el análisis de la función de nutrición en el reino animal</t>
+  </si>
+  <si>
+    <t>Evalúa tus conocimientos sobre el tema La nutrición de los seres vivos</t>
+  </si>
+  <si>
+    <t>Banco de actividades del tema La nutrición de los seres vivos</t>
+  </si>
+  <si>
+    <t>Mapa conceptual del tema La nutrición de los seres vivos</t>
+  </si>
+  <si>
+    <t>Actividad sobre la nutrición en plantas y animales</t>
+  </si>
+  <si>
+    <t>Actividad que propone identificar los pasos que se llevan a cabo en la función de nutrición en los animales</t>
   </si>
 </sst>
 </file>
@@ -1227,34 +1227,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1294,6 +1276,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1603,9 +1603,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,94 +1632,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="H1" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="I1" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="81" t="s">
+      <c r="L1" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="87" t="s">
+      <c r="M1" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="87"/>
-      <c r="O1" s="67" t="s">
+      <c r="N1" s="81"/>
+      <c r="O1" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="67" t="s">
+      <c r="P1" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="69" t="s">
+      <c r="Q1" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="73" t="s">
+      <c r="R1" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="69" t="s">
+      <c r="S1" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="71" t="s">
+      <c r="T1" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="69" t="s">
+      <c r="U1" s="84" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="82"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="76"/>
       <c r="M2" s="14" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="85"/>
     </row>
     <row r="3" spans="1:21" s="47" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
@@ -1729,17 +1729,17 @@
         <v>122</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E3" s="61" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="32" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="H3" s="38">
         <v>1</v>
@@ -1748,7 +1748,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="K3" s="41" t="s">
         <v>20</v>
@@ -1788,17 +1788,17 @@
         <v>122</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F4" s="52"/>
       <c r="G4" s="31" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="H4" s="53">
         <v>2</v>
@@ -1807,7 +1807,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="55" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="K4" s="56" t="s">
         <v>20</v>
@@ -1833,7 +1833,7 @@
         <v>127</v>
       </c>
       <c r="T4" s="65" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="U4" s="59" t="s">
         <v>128</v>
@@ -1847,16 +1847,16 @@
         <v>122</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E5" s="62" t="s">
         <v>132</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G5" s="31"/>
       <c r="H5" s="53"/>
@@ -1882,19 +1882,19 @@
         <v>122</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E6" s="62" t="s">
         <v>132</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="H6" s="53">
         <v>3</v>
@@ -1903,7 +1903,7 @@
         <v>19</v>
       </c>
       <c r="J6" s="55" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="K6" s="56" t="s">
         <v>20</v>
@@ -1929,7 +1929,7 @@
         <v>140</v>
       </c>
       <c r="T6" s="65" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="U6" s="59" t="s">
         <v>141</v>
@@ -1943,19 +1943,19 @@
         <v>122</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E7" s="62" t="s">
         <v>132</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H7" s="53">
         <v>4</v>
@@ -2004,16 +2004,16 @@
         <v>122</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E8" s="62" t="s">
         <v>132</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G8" s="31" t="s">
         <v>131</v>
@@ -2025,7 +2025,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="55" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="K8" s="56" t="s">
         <v>20</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="M8" s="58"/>
       <c r="N8" s="58" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="O8" s="52"/>
       <c r="P8" s="52" t="s">
@@ -2051,7 +2051,7 @@
         <v>127</v>
       </c>
       <c r="T8" s="65" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="U8" s="59" t="s">
         <v>128</v>
@@ -2065,16 +2065,16 @@
         <v>122</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E9" s="62" t="s">
         <v>132</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G9" s="31" t="s">
         <v>132</v>
@@ -2126,17 +2126,17 @@
         <v>122</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E10" s="62" t="s">
         <v>135</v>
       </c>
       <c r="F10" s="52"/>
       <c r="G10" s="31" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H10" s="53">
         <v>7</v>
@@ -2145,7 +2145,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="55" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="K10" s="56" t="s">
         <v>20</v>
@@ -2185,13 +2185,13 @@
         <v>122</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D11" s="51" t="s">
         <v>137</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F11" s="52"/>
       <c r="G11" s="31" t="s">
@@ -2204,7 +2204,7 @@
         <v>19</v>
       </c>
       <c r="J11" s="55" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="K11" s="56" t="s">
         <v>20</v>
@@ -2213,7 +2213,7 @@
         <v>5</v>
       </c>
       <c r="M11" s="58" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="N11" s="58"/>
       <c r="O11" s="52"/>
@@ -2230,7 +2230,7 @@
         <v>140</v>
       </c>
       <c r="T11" s="65" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="U11" s="59" t="s">
         <v>141</v>
@@ -2244,13 +2244,13 @@
         <v>122</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D12" s="51" t="s">
         <v>137</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F12" s="52" t="s">
         <v>142</v>
@@ -2265,7 +2265,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="55" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="K12" s="56" t="s">
         <v>20</v>
@@ -2291,7 +2291,7 @@
         <v>127</v>
       </c>
       <c r="T12" s="65" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U12" s="59" t="s">
         <v>128</v>
@@ -2305,13 +2305,13 @@
         <v>122</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D13" s="51" t="s">
         <v>137</v>
       </c>
       <c r="E13" s="62" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F13" s="52" t="s">
         <v>144</v>
@@ -2340,13 +2340,13 @@
         <v>122</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D14" s="51" t="s">
         <v>137</v>
       </c>
       <c r="E14" s="62" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F14" s="52" t="s">
         <v>145</v>
@@ -2401,13 +2401,13 @@
         <v>122</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D15" s="51" t="s">
         <v>137</v>
       </c>
       <c r="E15" s="62" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F15" s="52" t="s">
         <v>145</v>
@@ -2422,7 +2422,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="55" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="K15" s="56" t="s">
         <v>20</v>
@@ -2448,7 +2448,7 @@
         <v>127</v>
       </c>
       <c r="T15" s="65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U15" s="59" t="s">
         <v>128</v>
@@ -2462,7 +2462,7 @@
         <v>122</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D16" s="51" t="s">
         <v>137</v>
@@ -2481,7 +2481,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="55" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="K16" s="56" t="s">
         <v>20</v>
@@ -2521,15 +2521,15 @@
         <v>122</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E17" s="62"/>
       <c r="F17" s="52"/>
       <c r="G17" s="31" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H17" s="53">
         <v>13</v>
@@ -2564,7 +2564,7 @@
         <v>140</v>
       </c>
       <c r="T17" s="65" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="U17" s="59" t="s">
         <v>141</v>
@@ -2578,15 +2578,15 @@
         <v>122</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E18" s="62"/>
       <c r="F18" s="52"/>
       <c r="G18" s="31" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H18" s="53">
         <v>14</v>
@@ -2635,10 +2635,10 @@
         <v>122</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E19" s="62"/>
       <c r="F19" s="52"/>
@@ -2692,10 +2692,10 @@
         <v>122</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E20" s="62" t="s">
         <v>159</v>
@@ -2711,7 +2711,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="55" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
       <c r="K20" s="56" t="s">
         <v>20</v>
@@ -2737,7 +2737,7 @@
         <v>127</v>
       </c>
       <c r="T20" s="65" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="U20" s="59" t="s">
         <v>128</v>
@@ -2751,17 +2751,17 @@
         <v>122</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E21" s="62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F21" s="52"/>
       <c r="G21" s="31" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="H21" s="53">
         <v>17</v>
@@ -2770,7 +2770,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="55" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="K21" s="56" t="s">
         <v>20</v>
@@ -2810,13 +2810,13 @@
         <v>122</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E22" s="62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F22" s="52"/>
       <c r="G22" s="31"/>
@@ -2843,17 +2843,17 @@
         <v>122</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E23" s="62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F23" s="52"/>
       <c r="G23" s="31" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H23" s="53">
         <v>18</v>
@@ -2862,7 +2862,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="55" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K23" s="56" t="s">
         <v>20</v>
@@ -2888,7 +2888,7 @@
         <v>127</v>
       </c>
       <c r="T23" s="65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U23" s="59" t="s">
         <v>128</v>
@@ -2902,17 +2902,17 @@
         <v>122</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E24" s="62" t="s">
         <v>135</v>
       </c>
       <c r="F24" s="52"/>
       <c r="G24" s="31" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H24" s="53">
         <v>19</v>
@@ -2921,7 +2921,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="55" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="K24" s="56" t="s">
         <v>20</v>
@@ -2947,7 +2947,7 @@
         <v>127</v>
       </c>
       <c r="T24" s="65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U24" s="59" t="s">
         <v>128</v>
@@ -2961,17 +2961,17 @@
         <v>122</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E25" s="62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F25" s="52"/>
       <c r="G25" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H25" s="53">
         <v>20</v>
@@ -2980,7 +2980,7 @@
         <v>19</v>
       </c>
       <c r="J25" s="55" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="K25" s="56" t="s">
         <v>19</v>
@@ -2997,19 +2997,19 @@
         <v>19</v>
       </c>
       <c r="Q25" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="R25" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="R25" s="60" t="s">
+      <c r="S25" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="S25" s="59" t="s">
+      <c r="T25" s="65" t="s">
+        <v>247</v>
+      </c>
+      <c r="U25" s="59" t="s">
         <v>175</v>
-      </c>
-      <c r="T25" s="65" t="s">
-        <v>254</v>
-      </c>
-      <c r="U25" s="59" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3020,17 +3020,17 @@
         <v>122</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E26" s="62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F26" s="52"/>
       <c r="G26" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H26" s="53">
         <v>21</v>
@@ -3039,7 +3039,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K26" s="56" t="s">
         <v>19</v>
@@ -3056,19 +3056,19 @@
         <v>19</v>
       </c>
       <c r="Q26" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="R26" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="R26" s="60" t="s">
+      <c r="S26" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="S26" s="59" t="s">
+      <c r="T26" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="U26" s="59" t="s">
         <v>175</v>
-      </c>
-      <c r="T26" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="U26" s="59" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3079,17 +3079,17 @@
         <v>122</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E27" s="62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F27" s="52"/>
       <c r="G27" s="31" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H27" s="53">
         <v>22</v>
@@ -3098,7 +3098,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K27" s="56" t="s">
         <v>20</v>
@@ -3124,7 +3124,7 @@
         <v>127</v>
       </c>
       <c r="T27" s="65" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="U27" s="59" t="s">
         <v>128</v>
@@ -3138,17 +3138,17 @@
         <v>122</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E28" s="62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F28" s="52"/>
       <c r="G28" s="31" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="H28" s="53">
         <v>23</v>
@@ -3183,7 +3183,7 @@
         <v>140</v>
       </c>
       <c r="T28" s="65" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="U28" s="59" t="s">
         <v>141</v>
@@ -3197,17 +3197,17 @@
         <v>122</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E29" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F29" s="52"/>
       <c r="G29" s="31" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="H29" s="53">
         <v>24</v>
@@ -3216,7 +3216,7 @@
         <v>19</v>
       </c>
       <c r="J29" s="55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K29" s="56" t="s">
         <v>19</v>
@@ -3233,19 +3233,19 @@
         <v>19</v>
       </c>
       <c r="Q29" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="R29" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="R29" s="60" t="s">
-        <v>174</v>
-      </c>
       <c r="S29" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="T29" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="U29" s="59" t="s">
         <v>182</v>
-      </c>
-      <c r="T29" s="65" t="s">
-        <v>180</v>
-      </c>
-      <c r="U29" s="59" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3256,17 +3256,17 @@
         <v>122</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E30" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F30" s="52"/>
       <c r="G30" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H30" s="53">
         <v>25</v>
@@ -3275,7 +3275,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K30" s="56" t="s">
         <v>19</v>
@@ -3292,19 +3292,19 @@
         <v>19</v>
       </c>
       <c r="Q30" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="R30" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="R30" s="60" t="s">
-        <v>174</v>
-      </c>
       <c r="S30" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="T30" s="65" t="s">
+        <v>183</v>
+      </c>
+      <c r="U30" s="59" t="s">
         <v>182</v>
-      </c>
-      <c r="T30" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="U30" s="59" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3315,17 +3315,17 @@
         <v>122</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E31" s="62" t="s">
         <v>135</v>
       </c>
       <c r="F31" s="52"/>
       <c r="G31" s="31" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H31" s="53">
         <v>26</v>
@@ -3334,7 +3334,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="55" t="s">
-        <v>186</v>
+        <v>269</v>
       </c>
       <c r="K31" s="56" t="s">
         <v>20</v>
@@ -3360,7 +3360,7 @@
         <v>127</v>
       </c>
       <c r="T31" s="65" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="U31" s="59" t="s">
         <v>128</v>
@@ -3374,15 +3374,15 @@
         <v>122</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E32" s="62"/>
       <c r="F32" s="52"/>
       <c r="G32" s="31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H32" s="53">
         <v>27</v>
@@ -3391,7 +3391,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="55" t="s">
-        <v>190</v>
+        <v>264</v>
       </c>
       <c r="K32" s="56" t="s">
         <v>19</v>
@@ -3401,26 +3401,26 @@
       </c>
       <c r="M32" s="58"/>
       <c r="N32" s="58" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O32" s="52"/>
       <c r="P32" s="52" t="s">
         <v>19</v>
       </c>
       <c r="Q32" s="59" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="R32" s="60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S32" s="59" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="T32" s="65" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="U32" s="59" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3431,15 +3431,15 @@
         <v>122</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E33" s="62"/>
       <c r="F33" s="52"/>
       <c r="G33" s="31" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H33" s="53">
         <v>28</v>
@@ -3448,7 +3448,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="55" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K33" s="56" t="s">
         <v>19</v>
@@ -3458,26 +3458,26 @@
       </c>
       <c r="M33" s="58"/>
       <c r="N33" s="58" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O33" s="52"/>
       <c r="P33" s="52" t="s">
         <v>19</v>
       </c>
       <c r="Q33" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="R33" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="R33" s="60" t="s">
+      <c r="S33" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="S33" s="59" t="s">
+      <c r="T33" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="U33" s="59" t="s">
         <v>175</v>
-      </c>
-      <c r="T33" s="65" t="s">
-        <v>195</v>
-      </c>
-      <c r="U33" s="59" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3488,15 +3488,15 @@
         <v>122</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E34" s="62"/>
       <c r="F34" s="52"/>
       <c r="G34" s="31" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H34" s="53">
         <v>29</v>
@@ -3505,7 +3505,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="55" t="s">
-        <v>198</v>
+        <v>265</v>
       </c>
       <c r="K34" s="56" t="s">
         <v>19</v>
@@ -3515,26 +3515,26 @@
       </c>
       <c r="M34" s="58"/>
       <c r="N34" s="58" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O34" s="52"/>
       <c r="P34" s="52" t="s">
         <v>19</v>
       </c>
       <c r="Q34" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="R34" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="R34" s="60" t="s">
-        <v>174</v>
-      </c>
       <c r="S34" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="T34" s="65" t="s">
+        <v>194</v>
+      </c>
+      <c r="U34" s="59" t="s">
         <v>182</v>
-      </c>
-      <c r="T34" s="65" t="s">
-        <v>197</v>
-      </c>
-      <c r="U34" s="59" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:21" s="47" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3543,15 +3543,15 @@
         <v>122</v>
       </c>
       <c r="C35" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E35" s="62"/>
       <c r="F35" s="52"/>
       <c r="G35" s="31" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="H35" s="53">
         <v>30</v>
@@ -3560,7 +3560,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="55" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="K35" s="56" t="s">
         <v>19</v>
@@ -3570,26 +3570,26 @@
       </c>
       <c r="M35" s="58"/>
       <c r="N35" s="58" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O35" s="52"/>
       <c r="P35" s="52" t="s">
         <v>19</v>
       </c>
       <c r="Q35" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="R35" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="R35" s="60" t="s">
-        <v>174</v>
-      </c>
       <c r="S35" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="T35" s="65" t="s">
+        <v>252</v>
+      </c>
+      <c r="U35" s="59" t="s">
         <v>182</v>
-      </c>
-      <c r="T35" s="65" t="s">
-        <v>260</v>
-      </c>
-      <c r="U35" s="59" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
@@ -3600,15 +3600,15 @@
         <v>122</v>
       </c>
       <c r="C36" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E36" s="62"/>
       <c r="F36" s="52"/>
       <c r="G36" s="31" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H36" s="53">
         <v>31</v>
@@ -3617,7 +3617,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="55" t="s">
-        <v>201</v>
+        <v>268</v>
       </c>
       <c r="K36" s="56" t="s">
         <v>20</v>
@@ -3645,15 +3645,15 @@
         <v>122</v>
       </c>
       <c r="C37" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D37" s="51" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E37" s="62"/>
       <c r="F37" s="52"/>
       <c r="G37" s="31" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H37" s="53">
         <v>32</v>
@@ -3662,7 +3662,7 @@
         <v>20</v>
       </c>
       <c r="J37" s="55" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="K37" s="56" t="s">
         <v>20</v>
@@ -3688,7 +3688,7 @@
         <v>127</v>
       </c>
       <c r="T37" s="65" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="U37" s="59" t="s">
         <v>128</v>
@@ -3702,24 +3702,24 @@
         <v>122</v>
       </c>
       <c r="C38" s="50" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D38" s="51" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E38" s="62"/>
       <c r="F38" s="52"/>
       <c r="G38" s="31" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H38" s="53">
         <v>33</v>
       </c>
       <c r="I38" s="54" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="J38" s="55" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="K38" s="56" t="s">
         <v>20</v>
@@ -3745,7 +3745,7 @@
         <v>127</v>
       </c>
       <c r="T38" s="65" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="U38" s="59" t="s">
         <v>128</v>
@@ -4721,6 +4721,12 @@
   </sheetData>
   <autoFilter ref="A2:U38"/>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4735,12 +4741,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4802,19 +4802,19 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4824,7 +4824,7 @@
       <c r="B3" s="23"/>
       <c r="C3" s="24"/>
       <c r="D3" s="25" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E3" s="26"/>
     </row>
@@ -4833,11 +4833,11 @@
         <v>152</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="25" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E4" s="26"/>
     </row>
@@ -4846,70 +4846,70 @@
         <v>152</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="25" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="25" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="25" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="28" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
       <c r="D10" s="28" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E10" s="29"/>
     </row>

--- a/fuentes/contenidos/grado06/guion04/Escaleta CN_06_04_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion04/Escaleta CN_06_04_CO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="273">
   <si>
     <t>Asignatura</t>
   </si>
@@ -474,9 +474,6 @@
     <t>Recurso M10A-01</t>
   </si>
   <si>
-    <t>Funciones de los bioelementos</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: Los bioelementos</t>
   </si>
   <si>
@@ -495,9 +492,6 @@
     <t>Recurso M15A-01</t>
   </si>
   <si>
-    <t>¿Qué sabes sobre nutrición en microorganismos?</t>
-  </si>
-  <si>
     <t>Actividad para repasar los conocimientos sobre la nutrición de los microorganismos</t>
   </si>
   <si>
@@ -507,9 +501,6 @@
     <t>La nutrición de arqueas y bacterias</t>
   </si>
   <si>
-    <t>La nutrición en arqueas y bacterias</t>
-  </si>
-  <si>
     <t>Recurso M1B-01</t>
   </si>
   <si>
@@ -804,9 +795,6 @@
     <t>Recurso M12A-01</t>
   </si>
   <si>
-    <t>La nutrición en protistas</t>
-  </si>
-  <si>
     <t>Actividad para repasar el proceso de nutrición de los protistas</t>
   </si>
   <si>
@@ -838,6 +826,24 @@
   </si>
   <si>
     <t>Actividad que propone identificar los pasos que se llevan a cabo en la función de nutrición en los animales</t>
+  </si>
+  <si>
+    <t>Reconoce los tipos de nutrición</t>
+  </si>
+  <si>
+    <t>Las funciones de los bioelementos</t>
+  </si>
+  <si>
+    <t>¿Cómo es la nutrición en protistas?</t>
+  </si>
+  <si>
+    <t>¿Qué sabes sobre la nutrición en organismos microscópicos?</t>
+  </si>
+  <si>
+    <t>Identifica los bioelementos primarios y sus funciones</t>
+  </si>
+  <si>
+    <t>Relaciona conceptos de la nutrición en bacterias y arqueas</t>
   </si>
 </sst>
 </file>
@@ -1227,16 +1233,34 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1276,24 +1300,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1603,9 +1609,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,94 +1638,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="J1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="77" t="s">
+      <c r="K1" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="75" t="s">
+      <c r="L1" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="81" t="s">
+      <c r="M1" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="81"/>
-      <c r="O1" s="69" t="s">
+      <c r="N1" s="87"/>
+      <c r="O1" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="69" t="s">
+      <c r="P1" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="84" t="s">
+      <c r="Q1" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="88" t="s">
+      <c r="R1" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="84" t="s">
+      <c r="S1" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="86" t="s">
+      <c r="T1" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="84" t="s">
+      <c r="U1" s="69" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="76"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="82"/>
       <c r="M2" s="14" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="85"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="70"/>
     </row>
     <row r="3" spans="1:21" s="47" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
@@ -1729,17 +1735,17 @@
         <v>122</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E3" s="61" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="32" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H3" s="38">
         <v>1</v>
@@ -1748,7 +1754,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K3" s="41" t="s">
         <v>20</v>
@@ -1788,17 +1794,17 @@
         <v>122</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F4" s="52"/>
       <c r="G4" s="31" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H4" s="53">
         <v>2</v>
@@ -1807,7 +1813,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="55" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K4" s="56" t="s">
         <v>20</v>
@@ -1833,7 +1839,7 @@
         <v>127</v>
       </c>
       <c r="T4" s="65" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="U4" s="59" t="s">
         <v>128</v>
@@ -1847,16 +1853,16 @@
         <v>122</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E5" s="62" t="s">
         <v>132</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G5" s="31"/>
       <c r="H5" s="53"/>
@@ -1882,19 +1888,19 @@
         <v>122</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E6" s="62" t="s">
         <v>132</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H6" s="53">
         <v>3</v>
@@ -1903,7 +1909,7 @@
         <v>19</v>
       </c>
       <c r="J6" s="55" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K6" s="56" t="s">
         <v>20</v>
@@ -1929,7 +1935,7 @@
         <v>140</v>
       </c>
       <c r="T6" s="65" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="U6" s="59" t="s">
         <v>141</v>
@@ -1943,19 +1949,19 @@
         <v>122</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E7" s="62" t="s">
         <v>132</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H7" s="53">
         <v>4</v>
@@ -2004,16 +2010,16 @@
         <v>122</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E8" s="62" t="s">
         <v>132</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G8" s="31" t="s">
         <v>131</v>
@@ -2025,7 +2031,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="55" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K8" s="56" t="s">
         <v>20</v>
@@ -2035,7 +2041,7 @@
       </c>
       <c r="M8" s="58"/>
       <c r="N8" s="58" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O8" s="52"/>
       <c r="P8" s="52" t="s">
@@ -2051,7 +2057,7 @@
         <v>127</v>
       </c>
       <c r="T8" s="65" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="U8" s="59" t="s">
         <v>128</v>
@@ -2065,19 +2071,19 @@
         <v>122</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E9" s="62" t="s">
         <v>132</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>132</v>
+        <v>267</v>
       </c>
       <c r="H9" s="53">
         <v>6</v>
@@ -2126,17 +2132,17 @@
         <v>122</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E10" s="62" t="s">
         <v>135</v>
       </c>
       <c r="F10" s="52"/>
       <c r="G10" s="31" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H10" s="53">
         <v>7</v>
@@ -2145,7 +2151,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="55" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K10" s="56" t="s">
         <v>20</v>
@@ -2185,13 +2191,13 @@
         <v>122</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D11" s="51" t="s">
         <v>137</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F11" s="52"/>
       <c r="G11" s="31" t="s">
@@ -2204,7 +2210,7 @@
         <v>19</v>
       </c>
       <c r="J11" s="55" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K11" s="56" t="s">
         <v>20</v>
@@ -2213,7 +2219,7 @@
         <v>5</v>
       </c>
       <c r="M11" s="58" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N11" s="58"/>
       <c r="O11" s="52"/>
@@ -2230,7 +2236,7 @@
         <v>140</v>
       </c>
       <c r="T11" s="65" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="U11" s="59" t="s">
         <v>141</v>
@@ -2244,19 +2250,19 @@
         <v>122</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D12" s="51" t="s">
         <v>137</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F12" s="52" t="s">
         <v>142</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>142</v>
+        <v>271</v>
       </c>
       <c r="H12" s="53">
         <v>9</v>
@@ -2265,7 +2271,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="55" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K12" s="56" t="s">
         <v>20</v>
@@ -2291,7 +2297,7 @@
         <v>127</v>
       </c>
       <c r="T12" s="65" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="U12" s="59" t="s">
         <v>128</v>
@@ -2305,13 +2311,13 @@
         <v>122</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D13" s="51" t="s">
         <v>137</v>
       </c>
       <c r="E13" s="62" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F13" s="52" t="s">
         <v>144</v>
@@ -2340,13 +2346,13 @@
         <v>122</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D14" s="51" t="s">
         <v>137</v>
       </c>
       <c r="E14" s="62" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F14" s="52" t="s">
         <v>145</v>
@@ -2401,19 +2407,19 @@
         <v>122</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D15" s="51" t="s">
         <v>137</v>
       </c>
       <c r="E15" s="62" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F15" s="52" t="s">
         <v>145</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>149</v>
+        <v>268</v>
       </c>
       <c r="H15" s="53">
         <v>11</v>
@@ -2422,7 +2428,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="55" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K15" s="56" t="s">
         <v>20</v>
@@ -2448,7 +2454,7 @@
         <v>127</v>
       </c>
       <c r="T15" s="65" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="U15" s="59" t="s">
         <v>128</v>
@@ -2462,7 +2468,7 @@
         <v>122</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D16" s="51" t="s">
         <v>137</v>
@@ -2472,7 +2478,7 @@
       </c>
       <c r="F16" s="52"/>
       <c r="G16" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H16" s="53">
         <v>12</v>
@@ -2481,7 +2487,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="55" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K16" s="56" t="s">
         <v>20</v>
@@ -2507,7 +2513,7 @@
         <v>127</v>
       </c>
       <c r="T16" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U16" s="59" t="s">
         <v>128</v>
@@ -2521,15 +2527,15 @@
         <v>122</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E17" s="62"/>
       <c r="F17" s="52"/>
       <c r="G17" s="31" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H17" s="53">
         <v>13</v>
@@ -2538,7 +2544,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K17" s="56" t="s">
         <v>20</v>
@@ -2564,7 +2570,7 @@
         <v>140</v>
       </c>
       <c r="T17" s="65" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="U17" s="59" t="s">
         <v>141</v>
@@ -2578,15 +2584,15 @@
         <v>122</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E18" s="62"/>
       <c r="F18" s="52"/>
       <c r="G18" s="31" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H18" s="53">
         <v>14</v>
@@ -2595,7 +2601,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K18" s="56" t="s">
         <v>20</v>
@@ -2621,7 +2627,7 @@
         <v>127</v>
       </c>
       <c r="T18" s="65" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U18" s="59" t="s">
         <v>128</v>
@@ -2635,15 +2641,15 @@
         <v>122</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E19" s="62"/>
       <c r="F19" s="52"/>
       <c r="G19" s="31" t="s">
-        <v>156</v>
+        <v>242</v>
       </c>
       <c r="H19" s="53">
         <v>15</v>
@@ -2652,7 +2658,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="55" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K19" s="56" t="s">
         <v>20</v>
@@ -2678,7 +2684,7 @@
         <v>127</v>
       </c>
       <c r="T19" s="65" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="U19" s="59" t="s">
         <v>128</v>
@@ -2692,17 +2698,17 @@
         <v>122</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E20" s="62" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F20" s="52"/>
       <c r="G20" s="31" t="s">
-        <v>160</v>
+        <v>272</v>
       </c>
       <c r="H20" s="53">
         <v>16</v>
@@ -2711,7 +2717,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="55" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K20" s="56" t="s">
         <v>20</v>
@@ -2737,7 +2743,7 @@
         <v>127</v>
       </c>
       <c r="T20" s="65" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="U20" s="59" t="s">
         <v>128</v>
@@ -2751,17 +2757,17 @@
         <v>122</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E21" s="62" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F21" s="52"/>
       <c r="G21" s="31" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="H21" s="53">
         <v>17</v>
@@ -2770,7 +2776,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="55" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K21" s="56" t="s">
         <v>20</v>
@@ -2810,13 +2816,13 @@
         <v>122</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E22" s="62" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F22" s="52"/>
       <c r="G22" s="31"/>
@@ -2843,17 +2849,17 @@
         <v>122</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E23" s="62" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F23" s="52"/>
       <c r="G23" s="31" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H23" s="53">
         <v>18</v>
@@ -2862,7 +2868,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="55" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K23" s="56" t="s">
         <v>20</v>
@@ -2888,7 +2894,7 @@
         <v>127</v>
       </c>
       <c r="T23" s="65" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="U23" s="59" t="s">
         <v>128</v>
@@ -2902,17 +2908,17 @@
         <v>122</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E24" s="62" t="s">
         <v>135</v>
       </c>
       <c r="F24" s="52"/>
       <c r="G24" s="31" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H24" s="53">
         <v>19</v>
@@ -2921,7 +2927,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="55" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K24" s="56" t="s">
         <v>20</v>
@@ -2947,7 +2953,7 @@
         <v>127</v>
       </c>
       <c r="T24" s="65" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="U24" s="59" t="s">
         <v>128</v>
@@ -2961,17 +2967,17 @@
         <v>122</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E25" s="62" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F25" s="52"/>
       <c r="G25" s="31" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H25" s="53">
         <v>20</v>
@@ -2980,7 +2986,7 @@
         <v>19</v>
       </c>
       <c r="J25" s="55" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K25" s="56" t="s">
         <v>19</v>
@@ -2997,19 +3003,19 @@
         <v>19</v>
       </c>
       <c r="Q25" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="R25" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="S25" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="T25" s="65" t="s">
+        <v>244</v>
+      </c>
+      <c r="U25" s="59" t="s">
         <v>172</v>
-      </c>
-      <c r="R25" s="60" t="s">
-        <v>173</v>
-      </c>
-      <c r="S25" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="T25" s="65" t="s">
-        <v>247</v>
-      </c>
-      <c r="U25" s="59" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3020,17 +3026,17 @@
         <v>122</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E26" s="62" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F26" s="52"/>
       <c r="G26" s="31" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H26" s="53">
         <v>21</v>
@@ -3039,7 +3045,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="55" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K26" s="56" t="s">
         <v>19</v>
@@ -3056,19 +3062,19 @@
         <v>19</v>
       </c>
       <c r="Q26" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="R26" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="S26" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="T26" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="U26" s="59" t="s">
         <v>172</v>
-      </c>
-      <c r="R26" s="60" t="s">
-        <v>173</v>
-      </c>
-      <c r="S26" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="T26" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="U26" s="59" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3079,17 +3085,17 @@
         <v>122</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E27" s="62" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F27" s="52"/>
       <c r="G27" s="31" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H27" s="53">
         <v>22</v>
@@ -3098,7 +3104,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="55" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K27" s="56" t="s">
         <v>20</v>
@@ -3124,7 +3130,7 @@
         <v>127</v>
       </c>
       <c r="T27" s="65" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="U27" s="59" t="s">
         <v>128</v>
@@ -3138,17 +3144,17 @@
         <v>122</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E28" s="62" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F28" s="52"/>
       <c r="G28" s="31" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H28" s="53">
         <v>23</v>
@@ -3157,7 +3163,7 @@
         <v>19</v>
       </c>
       <c r="J28" s="55" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K28" s="56" t="s">
         <v>20</v>
@@ -3183,7 +3189,7 @@
         <v>140</v>
       </c>
       <c r="T28" s="65" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="U28" s="59" t="s">
         <v>141</v>
@@ -3197,17 +3203,17 @@
         <v>122</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E29" s="62" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F29" s="52"/>
       <c r="G29" s="31" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H29" s="53">
         <v>24</v>
@@ -3216,7 +3222,7 @@
         <v>19</v>
       </c>
       <c r="J29" s="55" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K29" s="56" t="s">
         <v>19</v>
@@ -3233,19 +3239,19 @@
         <v>19</v>
       </c>
       <c r="Q29" s="59" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="R29" s="60" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S29" s="59" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="T29" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="U29" s="59" t="s">
         <v>179</v>
-      </c>
-      <c r="U29" s="59" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3256,17 +3262,17 @@
         <v>122</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E30" s="62" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F30" s="52"/>
       <c r="G30" s="31" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H30" s="53">
         <v>25</v>
@@ -3275,7 +3281,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="55" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K30" s="56" t="s">
         <v>19</v>
@@ -3292,19 +3298,19 @@
         <v>19</v>
       </c>
       <c r="Q30" s="59" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="R30" s="60" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S30" s="59" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="T30" s="65" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="U30" s="59" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3315,17 +3321,17 @@
         <v>122</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E31" s="62" t="s">
         <v>135</v>
       </c>
       <c r="F31" s="52"/>
       <c r="G31" s="31" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H31" s="53">
         <v>26</v>
@@ -3334,7 +3340,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K31" s="56" t="s">
         <v>20</v>
@@ -3360,7 +3366,7 @@
         <v>127</v>
       </c>
       <c r="T31" s="65" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="U31" s="59" t="s">
         <v>128</v>
@@ -3374,15 +3380,15 @@
         <v>122</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E32" s="62"/>
       <c r="F32" s="52"/>
       <c r="G32" s="31" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H32" s="53">
         <v>27</v>
@@ -3391,7 +3397,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="55" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K32" s="56" t="s">
         <v>19</v>
@@ -3401,26 +3407,26 @@
       </c>
       <c r="M32" s="58"/>
       <c r="N32" s="58" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O32" s="52"/>
       <c r="P32" s="52" t="s">
         <v>19</v>
       </c>
       <c r="Q32" s="59" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="R32" s="60" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S32" s="59" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="T32" s="65" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="U32" s="59" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3431,15 +3437,15 @@
         <v>122</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E33" s="62"/>
       <c r="F33" s="52"/>
       <c r="G33" s="31" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H33" s="53">
         <v>28</v>
@@ -3448,7 +3454,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="55" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K33" s="56" t="s">
         <v>19</v>
@@ -3458,26 +3464,26 @@
       </c>
       <c r="M33" s="58"/>
       <c r="N33" s="58" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O33" s="52"/>
       <c r="P33" s="52" t="s">
         <v>19</v>
       </c>
       <c r="Q33" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="R33" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="S33" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="T33" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="U33" s="59" t="s">
         <v>172</v>
-      </c>
-      <c r="R33" s="60" t="s">
-        <v>173</v>
-      </c>
-      <c r="S33" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="T33" s="65" t="s">
-        <v>192</v>
-      </c>
-      <c r="U33" s="59" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3488,15 +3494,15 @@
         <v>122</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E34" s="62"/>
       <c r="F34" s="52"/>
       <c r="G34" s="31" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H34" s="53">
         <v>29</v>
@@ -3505,7 +3511,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="55" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K34" s="56" t="s">
         <v>19</v>
@@ -3515,26 +3521,26 @@
       </c>
       <c r="M34" s="58"/>
       <c r="N34" s="58" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O34" s="52"/>
       <c r="P34" s="52" t="s">
         <v>19</v>
       </c>
       <c r="Q34" s="59" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="R34" s="60" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S34" s="59" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="T34" s="65" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="U34" s="59" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:21" s="47" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3543,15 +3549,15 @@
         <v>122</v>
       </c>
       <c r="C35" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E35" s="62"/>
       <c r="F35" s="52"/>
       <c r="G35" s="31" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H35" s="53">
         <v>30</v>
@@ -3560,7 +3566,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="55" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K35" s="56" t="s">
         <v>19</v>
@@ -3570,26 +3576,26 @@
       </c>
       <c r="M35" s="58"/>
       <c r="N35" s="58" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O35" s="52"/>
       <c r="P35" s="52" t="s">
         <v>19</v>
       </c>
       <c r="Q35" s="59" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="R35" s="60" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S35" s="59" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="T35" s="65" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="U35" s="59" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
@@ -3600,15 +3606,15 @@
         <v>122</v>
       </c>
       <c r="C36" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E36" s="62"/>
       <c r="F36" s="52"/>
       <c r="G36" s="31" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H36" s="53">
         <v>31</v>
@@ -3617,7 +3623,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="55" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K36" s="56" t="s">
         <v>20</v>
@@ -3645,15 +3651,15 @@
         <v>122</v>
       </c>
       <c r="C37" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D37" s="51" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E37" s="62"/>
       <c r="F37" s="52"/>
       <c r="G37" s="31" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H37" s="53">
         <v>32</v>
@@ -3662,7 +3668,7 @@
         <v>20</v>
       </c>
       <c r="J37" s="55" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K37" s="56" t="s">
         <v>20</v>
@@ -3688,7 +3694,7 @@
         <v>127</v>
       </c>
       <c r="T37" s="65" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="U37" s="59" t="s">
         <v>128</v>
@@ -3702,24 +3708,24 @@
         <v>122</v>
       </c>
       <c r="C38" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D38" s="51" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E38" s="62"/>
       <c r="F38" s="52"/>
       <c r="G38" s="31" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H38" s="53">
         <v>33</v>
       </c>
       <c r="I38" s="54" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J38" s="55" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K38" s="56" t="s">
         <v>20</v>
@@ -3745,7 +3751,7 @@
         <v>127</v>
       </c>
       <c r="T38" s="65" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="U38" s="59" t="s">
         <v>128</v>
@@ -4721,12 +4727,6 @@
   </sheetData>
   <autoFilter ref="A2:U38"/>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4741,6 +4741,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4802,114 +4808,114 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="E2" s="21" t="s">
         <v>203</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="24"/>
       <c r="D3" s="25" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="25" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="25" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="25" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="25" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="28" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
       <c r="D10" s="28" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E10" s="29"/>
     </row>

--- a/fuentes/contenidos/grado06/guion04/Escaleta CN_06_04_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion04/Escaleta CN_06_04_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Dropbox\Editorial planeta\1. Autor\Escaletas\CN_06_04_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado06\guion04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,14 +17,14 @@
     <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Escaleta!$A$2:$U$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Escaleta!$A$2:$U$39</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="274">
   <si>
     <t>Asignatura</t>
   </si>
@@ -717,9 +717,6 @@
     <t>Actividad acerca del concepto de la nutrición</t>
   </si>
   <si>
-    <t>Actividad para reforzar los conocimientos sobre la cadena trófica</t>
-  </si>
-  <si>
     <t>F6B</t>
   </si>
   <si>
@@ -844,6 +841,12 @@
   </si>
   <si>
     <t>Relaciona conceptos de la nutrición en bacterias y arqueas</t>
+  </si>
+  <si>
+    <t>Reconoce la cadena alimenticia</t>
+  </si>
+  <si>
+    <t>Actividad para reforzar los conocimientos sobre la cadena alimenticia</t>
   </si>
 </sst>
 </file>
@@ -1607,11 +1610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U123"/>
+  <dimension ref="A1:U124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A2"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,7 +1738,7 @@
         <v>122</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D3" s="36" t="s">
         <v>213</v>
@@ -1745,7 +1748,7 @@
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H3" s="38">
         <v>1</v>
@@ -1794,7 +1797,7 @@
         <v>122</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D4" s="51" t="s">
         <v>213</v>
@@ -1853,7 +1856,7 @@
         <v>122</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D5" s="51" t="s">
         <v>213</v>
@@ -1880,7 +1883,7 @@
       <c r="T5" s="65"/>
       <c r="U5" s="59"/>
     </row>
-    <row r="6" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>17</v>
       </c>
@@ -1888,7 +1891,7 @@
         <v>122</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D6" s="51" t="s">
         <v>213</v>
@@ -1899,47 +1902,21 @@
       <c r="F6" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="G6" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="H6" s="53">
-        <v>3</v>
-      </c>
-      <c r="I6" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="K6" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="58" t="s">
-        <v>53</v>
-      </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="58"/>
       <c r="N6" s="58"/>
       <c r="O6" s="52"/>
-      <c r="P6" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="59">
-        <v>6</v>
-      </c>
-      <c r="R6" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="S6" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="T6" s="65" t="s">
-        <v>225</v>
-      </c>
-      <c r="U6" s="59" t="s">
-        <v>141</v>
-      </c>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="59"/>
     </row>
     <row r="7" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
@@ -1949,7 +1926,7 @@
         <v>122</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>213</v>
@@ -1958,30 +1935,30 @@
         <v>132</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H7" s="53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" s="54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" s="55" t="s">
-        <v>129</v>
+        <v>226</v>
       </c>
       <c r="K7" s="56" t="s">
         <v>20</v>
       </c>
       <c r="L7" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58" t="s">
-        <v>44</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="58"/>
       <c r="O7" s="52"/>
       <c r="P7" s="52" t="s">
         <v>19</v>
@@ -1990,19 +1967,19 @@
         <v>6</v>
       </c>
       <c r="R7" s="60" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="S7" s="59" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="T7" s="65" t="s">
-        <v>130</v>
+        <v>225</v>
       </c>
       <c r="U7" s="59" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>17</v>
       </c>
@@ -2010,7 +1987,7 @@
         <v>122</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D8" s="51" t="s">
         <v>213</v>
@@ -2019,19 +1996,19 @@
         <v>132</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="H8" s="53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I8" s="54" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="55" t="s">
-        <v>230</v>
+        <v>129</v>
       </c>
       <c r="K8" s="56" t="s">
         <v>20</v>
@@ -2041,7 +2018,7 @@
       </c>
       <c r="M8" s="58"/>
       <c r="N8" s="58" t="s">
-        <v>254</v>
+        <v>44</v>
       </c>
       <c r="O8" s="52"/>
       <c r="P8" s="52" t="s">
@@ -2057,7 +2034,7 @@
         <v>127</v>
       </c>
       <c r="T8" s="65" t="s">
-        <v>255</v>
+        <v>130</v>
       </c>
       <c r="U8" s="59" t="s">
         <v>128</v>
@@ -2071,7 +2048,7 @@
         <v>122</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D9" s="51" t="s">
         <v>213</v>
@@ -2080,19 +2057,19 @@
         <v>132</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="H9" s="53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I9" s="54" t="s">
         <v>20</v>
       </c>
       <c r="J9" s="55" t="s">
-        <v>133</v>
+        <v>273</v>
       </c>
       <c r="K9" s="56" t="s">
         <v>20</v>
@@ -2102,11 +2079,11 @@
       </c>
       <c r="M9" s="58"/>
       <c r="N9" s="58" t="s">
-        <v>32</v>
+        <v>253</v>
       </c>
       <c r="O9" s="52"/>
-      <c r="P9" s="30" t="s">
-        <v>20</v>
+      <c r="P9" s="52" t="s">
+        <v>19</v>
       </c>
       <c r="Q9" s="59">
         <v>6</v>
@@ -2118,7 +2095,7 @@
         <v>127</v>
       </c>
       <c r="T9" s="65" t="s">
-        <v>134</v>
+        <v>254</v>
       </c>
       <c r="U9" s="59" t="s">
         <v>128</v>
@@ -2132,26 +2109,28 @@
         <v>122</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D10" s="51" t="s">
         <v>213</v>
       </c>
       <c r="E10" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" s="52"/>
+        <v>132</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>131</v>
+      </c>
       <c r="G10" s="31" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="H10" s="53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I10" s="54" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="55" t="s">
-        <v>229</v>
+        <v>133</v>
       </c>
       <c r="K10" s="56" t="s">
         <v>20</v>
@@ -2161,11 +2140,11 @@
       </c>
       <c r="M10" s="58"/>
       <c r="N10" s="58" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="O10" s="52"/>
-      <c r="P10" s="52" t="s">
-        <v>19</v>
+      <c r="P10" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="Q10" s="59">
         <v>6</v>
@@ -2177,7 +2156,7 @@
         <v>127</v>
       </c>
       <c r="T10" s="65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="U10" s="59" t="s">
         <v>128</v>
@@ -2191,37 +2170,37 @@
         <v>122</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>217</v>
+        <v>135</v>
       </c>
       <c r="F11" s="52"/>
       <c r="G11" s="31" t="s">
-        <v>138</v>
+        <v>220</v>
       </c>
       <c r="H11" s="53">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I11" s="54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J11" s="55" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K11" s="56" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="58" t="s">
-        <v>231</v>
-      </c>
-      <c r="N11" s="58"/>
+        <v>8</v>
+      </c>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58" t="s">
+        <v>121</v>
+      </c>
       <c r="O11" s="52"/>
       <c r="P11" s="52" t="s">
         <v>19</v>
@@ -2230,16 +2209,16 @@
         <v>6</v>
       </c>
       <c r="R11" s="60" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="S11" s="59" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="T11" s="65" t="s">
-        <v>232</v>
+        <v>136</v>
       </c>
       <c r="U11" s="59" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2250,7 +2229,7 @@
         <v>122</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D12" s="51" t="s">
         <v>137</v>
@@ -2258,31 +2237,29 @@
       <c r="E12" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="F12" s="52" t="s">
-        <v>142</v>
-      </c>
+      <c r="F12" s="52"/>
       <c r="G12" s="31" t="s">
-        <v>271</v>
+        <v>138</v>
       </c>
       <c r="H12" s="53">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I12" s="54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" s="55" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K12" s="56" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58" t="s">
-        <v>23</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M12" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N12" s="58"/>
       <c r="O12" s="52"/>
       <c r="P12" s="52" t="s">
         <v>19</v>
@@ -2291,16 +2268,16 @@
         <v>6</v>
       </c>
       <c r="R12" s="60" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="S12" s="59" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="T12" s="65" t="s">
-        <v>158</v>
+        <v>231</v>
       </c>
       <c r="U12" s="59" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2311,7 +2288,7 @@
         <v>122</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D13" s="51" t="s">
         <v>137</v>
@@ -2320,23 +2297,49 @@
         <v>217</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="57"/>
+        <v>142</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="H13" s="53">
+        <v>9</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="K13" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="57" t="s">
+        <v>8</v>
+      </c>
       <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
+      <c r="N13" s="58" t="s">
+        <v>23</v>
+      </c>
       <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="59"/>
+      <c r="P13" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="59">
+        <v>6</v>
+      </c>
+      <c r="R13" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="S13" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="T13" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="U13" s="59" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="14" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
@@ -2346,7 +2349,7 @@
         <v>122</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D14" s="51" t="s">
         <v>137</v>
@@ -2355,49 +2358,23 @@
         <v>217</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="53">
-        <v>10</v>
-      </c>
-      <c r="I14" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="K14" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="57" t="s">
-        <v>8</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G14" s="31"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="57"/>
       <c r="M14" s="58"/>
-      <c r="N14" s="58" t="s">
-        <v>43</v>
-      </c>
+      <c r="N14" s="58"/>
       <c r="O14" s="52"/>
-      <c r="P14" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="59">
-        <v>6</v>
-      </c>
-      <c r="R14" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="S14" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="T14" s="65" t="s">
-        <v>148</v>
-      </c>
-      <c r="U14" s="59" t="s">
-        <v>128</v>
-      </c>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="59"/>
     </row>
     <row r="15" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
@@ -2407,7 +2384,7 @@
         <v>122</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D15" s="51" t="s">
         <v>137</v>
@@ -2419,16 +2396,16 @@
         <v>145</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>268</v>
+        <v>146</v>
       </c>
       <c r="H15" s="53">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" s="54" t="s">
         <v>20</v>
       </c>
       <c r="J15" s="55" t="s">
-        <v>236</v>
+        <v>147</v>
       </c>
       <c r="K15" s="56" t="s">
         <v>20</v>
@@ -2438,7 +2415,7 @@
       </c>
       <c r="M15" s="58"/>
       <c r="N15" s="58" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="O15" s="52"/>
       <c r="P15" s="52" t="s">
@@ -2454,13 +2431,13 @@
         <v>127</v>
       </c>
       <c r="T15" s="65" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="U15" s="59" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
         <v>17</v>
       </c>
@@ -2468,26 +2445,28 @@
         <v>122</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D16" s="51" t="s">
         <v>137</v>
       </c>
       <c r="E16" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="52"/>
+        <v>217</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>145</v>
+      </c>
       <c r="G16" s="31" t="s">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c r="H16" s="53">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="54" t="s">
         <v>20</v>
       </c>
       <c r="J16" s="55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K16" s="56" t="s">
         <v>20</v>
@@ -2497,7 +2476,7 @@
       </c>
       <c r="M16" s="58"/>
       <c r="N16" s="58" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O16" s="52"/>
       <c r="P16" s="52" t="s">
@@ -2513,13 +2492,13 @@
         <v>127</v>
       </c>
       <c r="T16" s="65" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="U16" s="59" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>17</v>
       </c>
@@ -2527,35 +2506,37 @@
         <v>122</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>218</v>
-      </c>
-      <c r="E17" s="62"/>
+        <v>137</v>
+      </c>
+      <c r="E17" s="62" t="s">
+        <v>135</v>
+      </c>
       <c r="F17" s="52"/>
       <c r="G17" s="31" t="s">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="H17" s="53">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J17" s="55" t="s">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="K17" s="56" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="N17" s="58"/>
+        <v>8</v>
+      </c>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58" t="s">
+        <v>121</v>
+      </c>
       <c r="O17" s="52"/>
       <c r="P17" s="52" t="s">
         <v>19</v>
@@ -2564,16 +2545,16 @@
         <v>6</v>
       </c>
       <c r="R17" s="60" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="S17" s="59" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="T17" s="65" t="s">
-        <v>239</v>
+        <v>150</v>
       </c>
       <c r="U17" s="59" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2584,7 +2565,7 @@
         <v>122</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D18" s="51" t="s">
         <v>218</v>
@@ -2592,27 +2573,27 @@
       <c r="E18" s="62"/>
       <c r="F18" s="52"/>
       <c r="G18" s="31" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H18" s="53">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18" s="55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K18" s="56" t="s">
         <v>20</v>
       </c>
       <c r="L18" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58" t="s">
-        <v>51</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M18" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="N18" s="58"/>
       <c r="O18" s="52"/>
       <c r="P18" s="52" t="s">
         <v>19</v>
@@ -2621,16 +2602,16 @@
         <v>6</v>
       </c>
       <c r="R18" s="60" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="S18" s="59" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="T18" s="65" t="s">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="U18" s="59" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2641,7 +2622,7 @@
         <v>122</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D19" s="51" t="s">
         <v>218</v>
@@ -2649,16 +2630,16 @@
       <c r="E19" s="62"/>
       <c r="F19" s="52"/>
       <c r="G19" s="31" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H19" s="53">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" s="54" t="s">
         <v>20</v>
       </c>
       <c r="J19" s="55" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K19" s="56" t="s">
         <v>20</v>
@@ -2668,7 +2649,7 @@
       </c>
       <c r="M19" s="58"/>
       <c r="N19" s="58" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="O19" s="52"/>
       <c r="P19" s="52" t="s">
@@ -2684,7 +2665,7 @@
         <v>127</v>
       </c>
       <c r="T19" s="65" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U19" s="59" t="s">
         <v>128</v>
@@ -2698,26 +2679,24 @@
         <v>122</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D20" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="E20" s="62" t="s">
-        <v>157</v>
-      </c>
+      <c r="E20" s="62"/>
       <c r="F20" s="52"/>
       <c r="G20" s="31" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="H20" s="53">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I20" s="54" t="s">
         <v>20</v>
       </c>
       <c r="J20" s="55" t="s">
-        <v>257</v>
+        <v>155</v>
       </c>
       <c r="K20" s="56" t="s">
         <v>20</v>
@@ -2727,7 +2706,7 @@
       </c>
       <c r="M20" s="58"/>
       <c r="N20" s="58" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O20" s="52"/>
       <c r="P20" s="52" t="s">
@@ -2743,13 +2722,13 @@
         <v>127</v>
       </c>
       <c r="T20" s="65" t="s">
-        <v>235</v>
+        <v>156</v>
       </c>
       <c r="U20" s="59" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
         <v>17</v>
       </c>
@@ -2757,20 +2736,20 @@
         <v>122</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D21" s="51" t="s">
         <v>218</v>
       </c>
       <c r="E21" s="62" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F21" s="52"/>
       <c r="G21" s="31" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H21" s="53">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I21" s="54" t="s">
         <v>20</v>
@@ -2786,7 +2765,7 @@
       </c>
       <c r="M21" s="58"/>
       <c r="N21" s="58" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O21" s="52"/>
       <c r="P21" s="52" t="s">
@@ -2802,7 +2781,7 @@
         <v>127</v>
       </c>
       <c r="T21" s="65" t="s">
-        <v>143</v>
+        <v>234</v>
       </c>
       <c r="U21" s="59" t="s">
         <v>128</v>
@@ -2816,32 +2795,58 @@
         <v>122</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D22" s="51" t="s">
         <v>218</v>
       </c>
       <c r="E22" s="62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F22" s="52"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="57"/>
+      <c r="G22" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H22" s="53">
+        <v>17</v>
+      </c>
+      <c r="I22" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="K22" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="57" t="s">
+        <v>8</v>
+      </c>
       <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
+      <c r="N22" s="58" t="s">
+        <v>27</v>
+      </c>
       <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="65"/>
-      <c r="U22" s="59"/>
-    </row>
-    <row r="23" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="P22" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="59">
+        <v>6</v>
+      </c>
+      <c r="R22" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="S22" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="T22" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="U22" s="59" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>17</v>
       </c>
@@ -2849,7 +2854,7 @@
         <v>122</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D23" s="51" t="s">
         <v>218</v>
@@ -2858,47 +2863,21 @@
         <v>160</v>
       </c>
       <c r="F23" s="52"/>
-      <c r="G23" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="H23" s="53">
-        <v>18</v>
-      </c>
-      <c r="I23" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="K23" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="57" t="s">
-        <v>8</v>
-      </c>
+      <c r="G23" s="31"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="57"/>
       <c r="M23" s="58"/>
-      <c r="N23" s="58" t="s">
-        <v>32</v>
-      </c>
+      <c r="N23" s="58"/>
       <c r="O23" s="52"/>
-      <c r="P23" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="59">
-        <v>6</v>
-      </c>
-      <c r="R23" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="S23" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="T23" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="U23" s="59" t="s">
-        <v>128</v>
-      </c>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="59"/>
     </row>
     <row r="24" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
@@ -2908,26 +2887,26 @@
         <v>122</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D24" s="51" t="s">
         <v>218</v>
       </c>
       <c r="E24" s="62" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="F24" s="52"/>
       <c r="G24" s="31" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="H24" s="53">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I24" s="54" t="s">
         <v>20</v>
       </c>
       <c r="J24" s="55" t="s">
-        <v>243</v>
+        <v>161</v>
       </c>
       <c r="K24" s="56" t="s">
         <v>20</v>
@@ -2937,7 +2916,7 @@
       </c>
       <c r="M24" s="58"/>
       <c r="N24" s="58" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="O24" s="52"/>
       <c r="P24" s="52" t="s">
@@ -2953,7 +2932,7 @@
         <v>127</v>
       </c>
       <c r="T24" s="65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="U24" s="59" t="s">
         <v>128</v>
@@ -2967,55 +2946,55 @@
         <v>122</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E25" s="62" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="F25" s="52"/>
       <c r="G25" s="31" t="s">
-        <v>166</v>
+        <v>240</v>
       </c>
       <c r="H25" s="53">
+        <v>19</v>
+      </c>
+      <c r="I25" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="54" t="s">
-        <v>19</v>
-      </c>
       <c r="J25" s="55" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="K25" s="56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L25" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="M25" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="N25" s="58"/>
+        <v>8</v>
+      </c>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58" t="s">
+        <v>121</v>
+      </c>
       <c r="O25" s="52"/>
       <c r="P25" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="59" t="s">
-        <v>169</v>
+      <c r="Q25" s="59">
+        <v>6</v>
       </c>
       <c r="R25" s="60" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="S25" s="59" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="T25" s="65" t="s">
-        <v>244</v>
+        <v>163</v>
       </c>
       <c r="U25" s="59" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3026,7 +3005,7 @@
         <v>122</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D26" s="51" t="s">
         <v>219</v>
@@ -3036,27 +3015,27 @@
       </c>
       <c r="F26" s="52"/>
       <c r="G26" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H26" s="53">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I26" s="54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J26" s="55" t="s">
-        <v>168</v>
+        <v>257</v>
       </c>
       <c r="K26" s="56" t="s">
         <v>19</v>
       </c>
       <c r="L26" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58" t="s">
-        <v>45</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M26" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="N26" s="58"/>
       <c r="O26" s="52"/>
       <c r="P26" s="52" t="s">
         <v>19</v>
@@ -3071,7 +3050,7 @@
         <v>171</v>
       </c>
       <c r="T26" s="65" t="s">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="U26" s="59" t="s">
         <v>172</v>
@@ -3085,7 +3064,7 @@
         <v>122</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D27" s="51" t="s">
         <v>219</v>
@@ -3095,45 +3074,45 @@
       </c>
       <c r="F27" s="52"/>
       <c r="G27" s="31" t="s">
-        <v>246</v>
+        <v>167</v>
       </c>
       <c r="H27" s="53">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I27" s="54" t="s">
         <v>20</v>
       </c>
       <c r="J27" s="55" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K27" s="56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L27" s="57" t="s">
         <v>8</v>
       </c>
       <c r="M27" s="58"/>
       <c r="N27" s="58" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="O27" s="52"/>
       <c r="P27" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="59">
-        <v>6</v>
+      <c r="Q27" s="59" t="s">
+        <v>169</v>
       </c>
       <c r="R27" s="60" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="S27" s="59" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="T27" s="65" t="s">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="U27" s="59" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3144,7 +3123,7 @@
         <v>122</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D28" s="51" t="s">
         <v>219</v>
@@ -3154,27 +3133,27 @@
       </c>
       <c r="F28" s="52"/>
       <c r="G28" s="31" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H28" s="53">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I28" s="54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J28" s="55" t="s">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="K28" s="56" t="s">
         <v>20</v>
       </c>
       <c r="L28" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="M28" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="N28" s="58"/>
+        <v>8</v>
+      </c>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58" t="s">
+        <v>119</v>
+      </c>
       <c r="O28" s="52"/>
       <c r="P28" s="52" t="s">
         <v>19</v>
@@ -3183,16 +3162,16 @@
         <v>6</v>
       </c>
       <c r="R28" s="60" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="S28" s="59" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="T28" s="65" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="U28" s="59" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3203,55 +3182,55 @@
         <v>122</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D29" s="51" t="s">
         <v>219</v>
       </c>
       <c r="E29" s="62" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F29" s="52"/>
       <c r="G29" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H29" s="53">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I29" s="54" t="s">
         <v>19</v>
       </c>
       <c r="J29" s="55" t="s">
-        <v>177</v>
+        <v>258</v>
       </c>
       <c r="K29" s="56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L29" s="57" t="s">
         <v>5</v>
       </c>
       <c r="M29" s="58" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="N29" s="58"/>
       <c r="O29" s="52"/>
       <c r="P29" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="59" t="s">
-        <v>169</v>
+      <c r="Q29" s="59">
+        <v>6</v>
       </c>
       <c r="R29" s="60" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="S29" s="59" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="T29" s="65" t="s">
-        <v>176</v>
+        <v>250</v>
       </c>
       <c r="U29" s="59" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3262,7 +3241,7 @@
         <v>122</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D30" s="51" t="s">
         <v>219</v>
@@ -3272,27 +3251,27 @@
       </c>
       <c r="F30" s="52"/>
       <c r="G30" s="31" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="H30" s="53">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I30" s="54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J30" s="55" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K30" s="56" t="s">
         <v>19</v>
       </c>
       <c r="L30" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58" t="s">
-        <v>23</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M30" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="N30" s="58"/>
       <c r="O30" s="52"/>
       <c r="P30" s="52" t="s">
         <v>19</v>
@@ -3307,7 +3286,7 @@
         <v>178</v>
       </c>
       <c r="T30" s="65" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="U30" s="59" t="s">
         <v>179</v>
@@ -3321,55 +3300,55 @@
         <v>122</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D31" s="51" t="s">
         <v>219</v>
       </c>
       <c r="E31" s="62" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="F31" s="52"/>
       <c r="G31" s="31" t="s">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="H31" s="53">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I31" s="54" t="s">
         <v>20</v>
       </c>
       <c r="J31" s="55" t="s">
-        <v>265</v>
+        <v>181</v>
       </c>
       <c r="K31" s="56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L31" s="57" t="s">
         <v>8</v>
       </c>
       <c r="M31" s="58"/>
       <c r="N31" s="58" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="O31" s="52"/>
       <c r="P31" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="59">
-        <v>6</v>
+      <c r="Q31" s="59" t="s">
+        <v>169</v>
       </c>
       <c r="R31" s="60" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="S31" s="59" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="T31" s="65" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="U31" s="59" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3380,53 +3359,55 @@
         <v>122</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>183</v>
-      </c>
-      <c r="E32" s="62"/>
+        <v>219</v>
+      </c>
+      <c r="E32" s="62" t="s">
+        <v>135</v>
+      </c>
       <c r="F32" s="52"/>
       <c r="G32" s="31" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
       <c r="H32" s="53">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I32" s="54" t="s">
         <v>20</v>
       </c>
       <c r="J32" s="55" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K32" s="56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L32" s="57" t="s">
         <v>8</v>
       </c>
       <c r="M32" s="58"/>
       <c r="N32" s="58" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="O32" s="52"/>
       <c r="P32" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="59" t="s">
-        <v>186</v>
+      <c r="Q32" s="59">
+        <v>6</v>
       </c>
       <c r="R32" s="60" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="S32" s="59" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="T32" s="65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U32" s="59" t="s">
-        <v>188</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3437,7 +3418,7 @@
         <v>122</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D33" s="51" t="s">
         <v>183</v>
@@ -3445,16 +3426,16 @@
       <c r="E33" s="62"/>
       <c r="F33" s="52"/>
       <c r="G33" s="31" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H33" s="53">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I33" s="54" t="s">
         <v>20</v>
       </c>
       <c r="J33" s="55" t="s">
-        <v>190</v>
+        <v>259</v>
       </c>
       <c r="K33" s="56" t="s">
         <v>19</v>
@@ -3471,19 +3452,19 @@
         <v>19</v>
       </c>
       <c r="Q33" s="59" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="R33" s="60" t="s">
         <v>170</v>
       </c>
       <c r="S33" s="59" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="T33" s="65" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="U33" s="59" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3494,7 +3475,7 @@
         <v>122</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D34" s="51" t="s">
         <v>183</v>
@@ -3502,16 +3483,16 @@
       <c r="E34" s="62"/>
       <c r="F34" s="52"/>
       <c r="G34" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H34" s="53">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I34" s="54" t="s">
         <v>20</v>
       </c>
       <c r="J34" s="55" t="s">
-        <v>261</v>
+        <v>190</v>
       </c>
       <c r="K34" s="56" t="s">
         <v>19</v>
@@ -3534,22 +3515,24 @@
         <v>170</v>
       </c>
       <c r="S34" s="59" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="T34" s="65" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="U34" s="59" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" s="47" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="48" t="s">
+        <v>17</v>
+      </c>
       <c r="B35" s="49" t="s">
         <v>122</v>
       </c>
       <c r="C35" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D35" s="51" t="s">
         <v>183</v>
@@ -3557,16 +3540,16 @@
       <c r="E35" s="62"/>
       <c r="F35" s="52"/>
       <c r="G35" s="31" t="s">
-        <v>249</v>
+        <v>191</v>
       </c>
       <c r="H35" s="53">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I35" s="54" t="s">
         <v>20</v>
       </c>
       <c r="J35" s="55" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K35" s="56" t="s">
         <v>19</v>
@@ -3592,58 +3575,68 @@
         <v>178</v>
       </c>
       <c r="T35" s="65" t="s">
-        <v>249</v>
+        <v>191</v>
       </c>
       <c r="U35" s="59" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="48" t="s">
-        <v>17</v>
-      </c>
+    <row r="36" spans="1:21" s="47" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="48"/>
       <c r="B36" s="49" t="s">
         <v>122</v>
       </c>
       <c r="C36" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E36" s="62"/>
       <c r="F36" s="52"/>
       <c r="G36" s="31" t="s">
-        <v>193</v>
+        <v>248</v>
       </c>
       <c r="H36" s="53">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I36" s="54" t="s">
         <v>20</v>
       </c>
       <c r="J36" s="55" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K36" s="56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L36" s="57" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
+      <c r="N36" s="58" t="s">
+        <v>185</v>
+      </c>
       <c r="O36" s="52"/>
       <c r="P36" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="60"/>
-      <c r="S36" s="59"/>
-      <c r="T36" s="65"/>
-      <c r="U36" s="59"/>
-    </row>
-    <row r="37" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q36" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="R36" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="S36" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="T36" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="U36" s="59" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>17</v>
       </c>
@@ -3651,7 +3644,7 @@
         <v>122</v>
       </c>
       <c r="C37" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D37" s="51" t="s">
         <v>192</v>
@@ -3659,48 +3652,36 @@
       <c r="E37" s="62"/>
       <c r="F37" s="52"/>
       <c r="G37" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H37" s="53">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I37" s="54" t="s">
         <v>20</v>
       </c>
       <c r="J37" s="55" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K37" s="56" t="s">
         <v>20</v>
       </c>
       <c r="L37" s="57" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M37" s="58"/>
-      <c r="N37" s="58" t="s">
-        <v>32</v>
-      </c>
+      <c r="N37" s="58"/>
       <c r="O37" s="52"/>
       <c r="P37" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="59">
-        <v>6</v>
-      </c>
-      <c r="R37" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="S37" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="T37" s="65" t="s">
-        <v>195</v>
-      </c>
-      <c r="U37" s="59" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q37" s="59"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="65"/>
+      <c r="U37" s="59"/>
+    </row>
+    <row r="38" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
         <v>17</v>
       </c>
@@ -3708,7 +3689,7 @@
         <v>122</v>
       </c>
       <c r="C38" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D38" s="51" t="s">
         <v>192</v>
@@ -3716,16 +3697,16 @@
       <c r="E38" s="62"/>
       <c r="F38" s="52"/>
       <c r="G38" s="31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H38" s="53">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I38" s="54" t="s">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="J38" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K38" s="56" t="s">
         <v>20</v>
@@ -3735,11 +3716,11 @@
       </c>
       <c r="M38" s="58"/>
       <c r="N38" s="58" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="O38" s="52"/>
       <c r="P38" s="52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q38" s="59">
         <v>6</v>
@@ -3751,34 +3732,68 @@
         <v>127</v>
       </c>
       <c r="T38" s="65" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="U38" s="59" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="66"/>
-      <c r="U39" s="10"/>
+    <row r="39" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="D39" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" s="62"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="H39" s="53">
+        <v>33</v>
+      </c>
+      <c r="I39" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="J39" s="55" t="s">
+        <v>262</v>
+      </c>
+      <c r="K39" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="59">
+        <v>6</v>
+      </c>
+      <c r="R39" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="S39" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="T39" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="U39" s="59" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
@@ -4539,193 +4554,216 @@
       <c r="T72" s="66"/>
       <c r="U72" s="10"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>92</v>
-      </c>
+    <row r="73" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="66"/>
+      <c r="U73" s="10"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:U38"/>
+  <autoFilter ref="A2:U39"/>
   <mergeCells count="20">
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
@@ -4757,31 +4795,31 @@
           <x14:formula1>
             <xm:f>DATOS!$E$14:$E$48</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N72</xm:sqref>
+          <xm:sqref>N3:N73</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A72</xm:sqref>
+          <xm:sqref>A3:A73</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K72 P3:P72 I3:I72</xm:sqref>
+          <xm:sqref>K3:K73 P3:P73 I3:I73</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L72</xm:sqref>
+          <xm:sqref>L3:L73</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$1:$E$13</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M72</xm:sqref>
+          <xm:sqref>M3:M73</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
